--- a/data/002_processed/002_tecnopor/C3_TEC_2L_dia1.xlsx
+++ b/data/002_processed/002_tecnopor/C3_TEC_2L_dia1.xlsx
@@ -431,6 +431,18 @@
       <c r="A2" s="2">
         <v>45293</v>
       </c>
+      <c r="B2">
+        <v>22.77</v>
+      </c>
+      <c r="C2">
+        <v>23.88</v>
+      </c>
+      <c r="D2">
+        <v>20.54</v>
+      </c>
+      <c r="E2">
+        <v>19.77</v>
+      </c>
       <c r="F2">
         <v>19.0031</v>
       </c>
@@ -445,6 +457,18 @@
       <c r="A3" s="2">
         <v>45293.00069444445</v>
       </c>
+      <c r="B3">
+        <v>22.79</v>
+      </c>
+      <c r="C3">
+        <v>23.9</v>
+      </c>
+      <c r="D3">
+        <v>20.51</v>
+      </c>
+      <c r="E3">
+        <v>19.82</v>
+      </c>
       <c r="F3">
         <v>19.038</v>
       </c>
@@ -459,6 +483,18 @@
       <c r="A4" s="2">
         <v>45293.00138888889</v>
       </c>
+      <c r="B4">
+        <v>22.72</v>
+      </c>
+      <c r="C4">
+        <v>23.86</v>
+      </c>
+      <c r="D4">
+        <v>20.45</v>
+      </c>
+      <c r="E4">
+        <v>19.79</v>
+      </c>
       <c r="F4">
         <v>19.0648</v>
       </c>
@@ -473,6 +509,18 @@
       <c r="A5" s="2">
         <v>45293.00208333333</v>
       </c>
+      <c r="B5">
+        <v>22.73</v>
+      </c>
+      <c r="C5">
+        <v>23.82</v>
+      </c>
+      <c r="D5">
+        <v>20.48</v>
+      </c>
+      <c r="E5">
+        <v>19.75</v>
+      </c>
       <c r="F5">
         <v>19.0675</v>
       </c>
@@ -487,6 +535,18 @@
       <c r="A6" s="2">
         <v>45293.00277777778</v>
       </c>
+      <c r="B6">
+        <v>22.69</v>
+      </c>
+      <c r="C6">
+        <v>23.8</v>
+      </c>
+      <c r="D6">
+        <v>20.53</v>
+      </c>
+      <c r="E6">
+        <v>19.79</v>
+      </c>
       <c r="F6">
         <v>19.0782</v>
       </c>
@@ -501,6 +561,18 @@
       <c r="A7" s="2">
         <v>45293.00347222222</v>
       </c>
+      <c r="B7">
+        <v>22.67</v>
+      </c>
+      <c r="C7">
+        <v>23.78</v>
+      </c>
+      <c r="D7">
+        <v>20.52</v>
+      </c>
+      <c r="E7">
+        <v>19.77</v>
+      </c>
       <c r="F7">
         <v>19.0943</v>
       </c>
@@ -515,6 +587,18 @@
       <c r="A8" s="2">
         <v>45293.00416666667</v>
       </c>
+      <c r="B8">
+        <v>22.71</v>
+      </c>
+      <c r="C8">
+        <v>23.74</v>
+      </c>
+      <c r="D8">
+        <v>20.46</v>
+      </c>
+      <c r="E8">
+        <v>19.76</v>
+      </c>
       <c r="F8">
         <v>19.0969</v>
       </c>
@@ -529,6 +613,18 @@
       <c r="A9" s="2">
         <v>45293.00486111111</v>
       </c>
+      <c r="B9">
+        <v>22.67</v>
+      </c>
+      <c r="C9">
+        <v>23.8</v>
+      </c>
+      <c r="D9">
+        <v>20.48</v>
+      </c>
+      <c r="E9">
+        <v>19.71</v>
+      </c>
       <c r="F9">
         <v>19.0701</v>
       </c>
@@ -543,6 +639,18 @@
       <c r="A10" s="2">
         <v>45293.00555555556</v>
       </c>
+      <c r="B10">
+        <v>22.63</v>
+      </c>
+      <c r="C10">
+        <v>23.73</v>
+      </c>
+      <c r="D10">
+        <v>20.48</v>
+      </c>
+      <c r="E10">
+        <v>19.71</v>
+      </c>
       <c r="F10">
         <v>19.0112</v>
       </c>
@@ -557,6 +665,18 @@
       <c r="A11" s="2">
         <v>45293.00625</v>
       </c>
+      <c r="B11">
+        <v>22.6</v>
+      </c>
+      <c r="C11">
+        <v>23.69</v>
+      </c>
+      <c r="D11">
+        <v>20.45</v>
+      </c>
+      <c r="E11">
+        <v>19.71</v>
+      </c>
       <c r="F11">
         <v>18.9817</v>
       </c>
@@ -571,6 +691,18 @@
       <c r="A12" s="2">
         <v>45293.00694444445</v>
       </c>
+      <c r="B12">
+        <v>22.61</v>
+      </c>
+      <c r="C12">
+        <v>23.7</v>
+      </c>
+      <c r="D12">
+        <v>20.43</v>
+      </c>
+      <c r="E12">
+        <v>19.73</v>
+      </c>
       <c r="F12">
         <v>18.9629</v>
       </c>
@@ -585,6 +717,18 @@
       <c r="A13" s="2">
         <v>45293.00763888889</v>
       </c>
+      <c r="B13">
+        <v>22.54</v>
+      </c>
+      <c r="C13">
+        <v>23.66</v>
+      </c>
+      <c r="D13">
+        <v>20.43</v>
+      </c>
+      <c r="E13">
+        <v>19.73</v>
+      </c>
       <c r="F13">
         <v>18.9736</v>
       </c>
@@ -599,6 +743,18 @@
       <c r="A14" s="2">
         <v>45293.00833333333</v>
       </c>
+      <c r="B14">
+        <v>22.58</v>
+      </c>
+      <c r="C14">
+        <v>23.66</v>
+      </c>
+      <c r="D14">
+        <v>20.44</v>
+      </c>
+      <c r="E14">
+        <v>19.71</v>
+      </c>
       <c r="F14">
         <v>18.987</v>
       </c>
@@ -613,6 +769,18 @@
       <c r="A15" s="2">
         <v>45293.00902777778</v>
       </c>
+      <c r="B15">
+        <v>22.54</v>
+      </c>
+      <c r="C15">
+        <v>23.62</v>
+      </c>
+      <c r="D15">
+        <v>20.4</v>
+      </c>
+      <c r="E15">
+        <v>19.73</v>
+      </c>
       <c r="F15">
         <v>18.979</v>
       </c>
@@ -627,6 +795,18 @@
       <c r="A16" s="2">
         <v>45293.00972222222</v>
       </c>
+      <c r="B16">
+        <v>22.56</v>
+      </c>
+      <c r="C16">
+        <v>23.63</v>
+      </c>
+      <c r="D16">
+        <v>20.43</v>
+      </c>
+      <c r="E16">
+        <v>19.69</v>
+      </c>
       <c r="F16">
         <v>18.979</v>
       </c>
@@ -641,6 +821,18 @@
       <c r="A17" s="2">
         <v>45293.01041666666</v>
       </c>
+      <c r="B17">
+        <v>22.53</v>
+      </c>
+      <c r="C17">
+        <v>23.63</v>
+      </c>
+      <c r="D17">
+        <v>20.39</v>
+      </c>
+      <c r="E17">
+        <v>19.69</v>
+      </c>
       <c r="F17">
         <v>18.9656</v>
       </c>
@@ -655,6 +847,18 @@
       <c r="A18" s="2">
         <v>45293.01111111111</v>
       </c>
+      <c r="B18">
+        <v>22.46</v>
+      </c>
+      <c r="C18">
+        <v>23.57</v>
+      </c>
+      <c r="D18">
+        <v>20.41</v>
+      </c>
+      <c r="E18">
+        <v>19.69</v>
+      </c>
       <c r="F18">
         <v>18.9549</v>
       </c>
@@ -669,6 +873,18 @@
       <c r="A19" s="2">
         <v>45293.01180555556</v>
       </c>
+      <c r="B19">
+        <v>22.48</v>
+      </c>
+      <c r="C19">
+        <v>23.54</v>
+      </c>
+      <c r="D19">
+        <v>20.42</v>
+      </c>
+      <c r="E19">
+        <v>19.66</v>
+      </c>
       <c r="F19">
         <v>18.9334</v>
       </c>
@@ -683,6 +899,18 @@
       <c r="A20" s="2">
         <v>45293.0125</v>
       </c>
+      <c r="B20">
+        <v>22.44</v>
+      </c>
+      <c r="C20">
+        <v>23.51</v>
+      </c>
+      <c r="D20">
+        <v>20.39</v>
+      </c>
+      <c r="E20">
+        <v>19.68</v>
+      </c>
       <c r="F20">
         <v>18.9173</v>
       </c>
@@ -697,6 +925,18 @@
       <c r="A21" s="2">
         <v>45293.01319444444</v>
       </c>
+      <c r="B21">
+        <v>22.44</v>
+      </c>
+      <c r="C21">
+        <v>23.48</v>
+      </c>
+      <c r="D21">
+        <v>20.35</v>
+      </c>
+      <c r="E21">
+        <v>19.63</v>
+      </c>
       <c r="F21">
         <v>18.8932</v>
       </c>
@@ -711,6 +951,18 @@
       <c r="A22" s="2">
         <v>45293.01388888889</v>
       </c>
+      <c r="B22">
+        <v>22.43</v>
+      </c>
+      <c r="C22">
+        <v>23.51</v>
+      </c>
+      <c r="D22">
+        <v>20.35</v>
+      </c>
+      <c r="E22">
+        <v>19.65</v>
+      </c>
       <c r="F22">
         <v>18.8798</v>
       </c>
@@ -725,6 +977,18 @@
       <c r="A23" s="2">
         <v>45293.01458333333</v>
       </c>
+      <c r="B23">
+        <v>22.39</v>
+      </c>
+      <c r="C23">
+        <v>23.49</v>
+      </c>
+      <c r="D23">
+        <v>20.33</v>
+      </c>
+      <c r="E23">
+        <v>19.61</v>
+      </c>
       <c r="F23">
         <v>18.8744</v>
       </c>
@@ -739,6 +1003,18 @@
       <c r="A24" s="2">
         <v>45293.01527777778</v>
       </c>
+      <c r="B24">
+        <v>22.37</v>
+      </c>
+      <c r="C24">
+        <v>23.45</v>
+      </c>
+      <c r="D24">
+        <v>20.35</v>
+      </c>
+      <c r="E24">
+        <v>19.63</v>
+      </c>
       <c r="F24">
         <v>18.8825</v>
       </c>
@@ -753,6 +1029,18 @@
       <c r="A25" s="2">
         <v>45293.01597222222</v>
       </c>
+      <c r="B25">
+        <v>22.38</v>
+      </c>
+      <c r="C25">
+        <v>23.48</v>
+      </c>
+      <c r="D25">
+        <v>20.35</v>
+      </c>
+      <c r="E25">
+        <v>19.64</v>
+      </c>
       <c r="F25">
         <v>18.8905</v>
       </c>
@@ -767,6 +1055,18 @@
       <c r="A26" s="2">
         <v>45293.01666666667</v>
       </c>
+      <c r="B26">
+        <v>22.37</v>
+      </c>
+      <c r="C26">
+        <v>23.41</v>
+      </c>
+      <c r="D26">
+        <v>20.34</v>
+      </c>
+      <c r="E26">
+        <v>19.63</v>
+      </c>
       <c r="F26">
         <v>18.9146</v>
       </c>
@@ -781,6 +1081,18 @@
       <c r="A27" s="2">
         <v>45293.01736111111</v>
       </c>
+      <c r="B27">
+        <v>22.34</v>
+      </c>
+      <c r="C27">
+        <v>23.4</v>
+      </c>
+      <c r="D27">
+        <v>20.31</v>
+      </c>
+      <c r="E27">
+        <v>19.67</v>
+      </c>
       <c r="F27">
         <v>18.9414</v>
       </c>
@@ -795,6 +1107,18 @@
       <c r="A28" s="2">
         <v>45293.01805555556</v>
       </c>
+      <c r="B28">
+        <v>22.32</v>
+      </c>
+      <c r="C28">
+        <v>23.35</v>
+      </c>
+      <c r="D28">
+        <v>20.28</v>
+      </c>
+      <c r="E28">
+        <v>19.64</v>
+      </c>
       <c r="F28">
         <v>18.9629</v>
       </c>
@@ -809,6 +1133,18 @@
       <c r="A29" s="2">
         <v>45293.01875</v>
       </c>
+      <c r="B29">
+        <v>22.29</v>
+      </c>
+      <c r="C29">
+        <v>23.36</v>
+      </c>
+      <c r="D29">
+        <v>20.29</v>
+      </c>
+      <c r="E29">
+        <v>19.64</v>
+      </c>
       <c r="F29">
         <v>18.9951</v>
       </c>
@@ -823,6 +1159,18 @@
       <c r="A30" s="2">
         <v>45293.01944444444</v>
       </c>
+      <c r="B30">
+        <v>22.27</v>
+      </c>
+      <c r="C30">
+        <v>23.33</v>
+      </c>
+      <c r="D30">
+        <v>20.31</v>
+      </c>
+      <c r="E30">
+        <v>19.65</v>
+      </c>
       <c r="F30">
         <v>19.0299</v>
       </c>
@@ -837,6 +1185,18 @@
       <c r="A31" s="2">
         <v>45293.02013888889</v>
       </c>
+      <c r="B31">
+        <v>22.26</v>
+      </c>
+      <c r="C31">
+        <v>23.31</v>
+      </c>
+      <c r="D31">
+        <v>20.31</v>
+      </c>
+      <c r="E31">
+        <v>19.66</v>
+      </c>
       <c r="F31">
         <v>19.0889</v>
       </c>
@@ -851,6 +1211,18 @@
       <c r="A32" s="2">
         <v>45293.02083333334</v>
       </c>
+      <c r="B32">
+        <v>22.24</v>
+      </c>
+      <c r="C32">
+        <v>23.31</v>
+      </c>
+      <c r="D32">
+        <v>20.23</v>
+      </c>
+      <c r="E32">
+        <v>19.7</v>
+      </c>
       <c r="F32">
         <v>19.0996</v>
       </c>
@@ -865,6 +1237,18 @@
       <c r="A33" s="2">
         <v>45293.02152777778</v>
       </c>
+      <c r="B33">
+        <v>22.25</v>
+      </c>
+      <c r="C33">
+        <v>23.31</v>
+      </c>
+      <c r="D33">
+        <v>20.33</v>
+      </c>
+      <c r="E33">
+        <v>19.66</v>
+      </c>
       <c r="F33">
         <v>19.0782</v>
       </c>
@@ -879,6 +1263,18 @@
       <c r="A34" s="2">
         <v>45293.02222222222</v>
       </c>
+      <c r="B34">
+        <v>22.2</v>
+      </c>
+      <c r="C34">
+        <v>23.25</v>
+      </c>
+      <c r="D34">
+        <v>20.28</v>
+      </c>
+      <c r="E34">
+        <v>19.58</v>
+      </c>
       <c r="F34">
         <v>19.0755</v>
       </c>
@@ -893,6 +1289,18 @@
       <c r="A35" s="2">
         <v>45293.02291666667</v>
       </c>
+      <c r="B35">
+        <v>22.25</v>
+      </c>
+      <c r="C35">
+        <v>23.24</v>
+      </c>
+      <c r="D35">
+        <v>20.26</v>
+      </c>
+      <c r="E35">
+        <v>19.62</v>
+      </c>
       <c r="F35">
         <v>19.0299</v>
       </c>
@@ -907,6 +1315,18 @@
       <c r="A36" s="2">
         <v>45293.02361111111</v>
       </c>
+      <c r="B36">
+        <v>22.2</v>
+      </c>
+      <c r="C36">
+        <v>23.26</v>
+      </c>
+      <c r="D36">
+        <v>20.26</v>
+      </c>
+      <c r="E36">
+        <v>19.57</v>
+      </c>
       <c r="F36">
         <v>19.0004</v>
       </c>
@@ -921,6 +1341,18 @@
       <c r="A37" s="2">
         <v>45293.02430555555</v>
       </c>
+      <c r="B37">
+        <v>22.18</v>
+      </c>
+      <c r="C37">
+        <v>23.21</v>
+      </c>
+      <c r="D37">
+        <v>20.26</v>
+      </c>
+      <c r="E37">
+        <v>19.57</v>
+      </c>
       <c r="F37">
         <v>18.9709</v>
       </c>
@@ -935,6 +1367,18 @@
       <c r="A38" s="2">
         <v>45293.025</v>
       </c>
+      <c r="B38">
+        <v>22.16</v>
+      </c>
+      <c r="C38">
+        <v>23.2</v>
+      </c>
+      <c r="D38">
+        <v>20.25</v>
+      </c>
+      <c r="E38">
+        <v>19.57</v>
+      </c>
       <c r="F38">
         <v>18.9549</v>
       </c>
@@ -949,6 +1393,18 @@
       <c r="A39" s="2">
         <v>45293.02569444444</v>
       </c>
+      <c r="B39">
+        <v>22.15</v>
+      </c>
+      <c r="C39">
+        <v>23.16</v>
+      </c>
+      <c r="D39">
+        <v>20.21</v>
+      </c>
+      <c r="E39">
+        <v>19.56</v>
+      </c>
       <c r="F39">
         <v>18.9549</v>
       </c>
@@ -963,6 +1419,18 @@
       <c r="A40" s="2">
         <v>45293.02638888889</v>
       </c>
+      <c r="B40">
+        <v>22.11</v>
+      </c>
+      <c r="C40">
+        <v>23.17</v>
+      </c>
+      <c r="D40">
+        <v>20.18</v>
+      </c>
+      <c r="E40">
+        <v>19.56</v>
+      </c>
       <c r="F40">
         <v>18.9388</v>
       </c>
@@ -977,6 +1445,18 @@
       <c r="A41" s="2">
         <v>45293.02708333333</v>
       </c>
+      <c r="B41">
+        <v>22.12</v>
+      </c>
+      <c r="C41">
+        <v>23.13</v>
+      </c>
+      <c r="D41">
+        <v>20.24</v>
+      </c>
+      <c r="E41">
+        <v>19.6</v>
+      </c>
       <c r="F41">
         <v>18.9334</v>
       </c>
@@ -991,6 +1471,18 @@
       <c r="A42" s="2">
         <v>45293.02777777778</v>
       </c>
+      <c r="B42">
+        <v>22.09</v>
+      </c>
+      <c r="C42">
+        <v>23.08</v>
+      </c>
+      <c r="D42">
+        <v>20.2</v>
+      </c>
+      <c r="E42">
+        <v>19.57</v>
+      </c>
       <c r="F42">
         <v>18.9414</v>
       </c>
@@ -1005,6 +1497,18 @@
       <c r="A43" s="2">
         <v>45293.02847222222</v>
       </c>
+      <c r="B43">
+        <v>22.1</v>
+      </c>
+      <c r="C43">
+        <v>23.09</v>
+      </c>
+      <c r="D43">
+        <v>20.15</v>
+      </c>
+      <c r="E43">
+        <v>19.59</v>
+      </c>
       <c r="F43">
         <v>18.9549</v>
       </c>
@@ -1019,6 +1523,18 @@
       <c r="A44" s="2">
         <v>45293.02916666667</v>
       </c>
+      <c r="B44">
+        <v>22.09</v>
+      </c>
+      <c r="C44">
+        <v>23.11</v>
+      </c>
+      <c r="D44">
+        <v>20.2</v>
+      </c>
+      <c r="E44">
+        <v>19.58</v>
+      </c>
       <c r="F44">
         <v>18.9629</v>
       </c>
@@ -1033,6 +1549,18 @@
       <c r="A45" s="2">
         <v>45293.02986111111</v>
       </c>
+      <c r="B45">
+        <v>22.09</v>
+      </c>
+      <c r="C45">
+        <v>23.08</v>
+      </c>
+      <c r="D45">
+        <v>20.17</v>
+      </c>
+      <c r="E45">
+        <v>19.59</v>
+      </c>
       <c r="F45">
         <v>18.987</v>
       </c>
@@ -1047,6 +1575,18 @@
       <c r="A46" s="2">
         <v>45293.03055555555</v>
       </c>
+      <c r="B46">
+        <v>22.05</v>
+      </c>
+      <c r="C46">
+        <v>23.02</v>
+      </c>
+      <c r="D46">
+        <v>20.17</v>
+      </c>
+      <c r="E46">
+        <v>19.6</v>
+      </c>
       <c r="F46">
         <v>19.0031</v>
       </c>
@@ -1061,6 +1601,18 @@
       <c r="A47" s="2">
         <v>45293.03125</v>
       </c>
+      <c r="B47">
+        <v>22.03</v>
+      </c>
+      <c r="C47">
+        <v>23.06</v>
+      </c>
+      <c r="D47">
+        <v>20.15</v>
+      </c>
+      <c r="E47">
+        <v>19.56</v>
+      </c>
       <c r="F47">
         <v>19.0246</v>
       </c>
@@ -1075,6 +1627,18 @@
       <c r="A48" s="2">
         <v>45293.03194444445</v>
       </c>
+      <c r="B48">
+        <v>22</v>
+      </c>
+      <c r="C48">
+        <v>23.03</v>
+      </c>
+      <c r="D48">
+        <v>20.18</v>
+      </c>
+      <c r="E48">
+        <v>19.56</v>
+      </c>
       <c r="F48">
         <v>19.0406</v>
       </c>
@@ -1089,6 +1653,18 @@
       <c r="A49" s="2">
         <v>45293.03263888889</v>
       </c>
+      <c r="B49">
+        <v>21.99</v>
+      </c>
+      <c r="C49">
+        <v>23.02</v>
+      </c>
+      <c r="D49">
+        <v>20.17</v>
+      </c>
+      <c r="E49">
+        <v>19.54</v>
+      </c>
       <c r="F49">
         <v>19.0541</v>
       </c>
@@ -1103,6 +1679,18 @@
       <c r="A50" s="2">
         <v>45293.03333333333</v>
       </c>
+      <c r="B50">
+        <v>21.99</v>
+      </c>
+      <c r="C50">
+        <v>23.01</v>
+      </c>
+      <c r="D50">
+        <v>20.18</v>
+      </c>
+      <c r="E50">
+        <v>19.55</v>
+      </c>
       <c r="F50">
         <v>19.0353</v>
       </c>
@@ -1117,6 +1705,18 @@
       <c r="A51" s="2">
         <v>45293.03402777778</v>
       </c>
+      <c r="B51">
+        <v>21.96</v>
+      </c>
+      <c r="C51">
+        <v>22.98</v>
+      </c>
+      <c r="D51">
+        <v>20.13</v>
+      </c>
+      <c r="E51">
+        <v>19.51</v>
+      </c>
       <c r="F51">
         <v>19.0138</v>
       </c>
@@ -1131,6 +1731,18 @@
       <c r="A52" s="2">
         <v>45293.03472222222</v>
       </c>
+      <c r="B52">
+        <v>21.91</v>
+      </c>
+      <c r="C52">
+        <v>22.93</v>
+      </c>
+      <c r="D52">
+        <v>20.14</v>
+      </c>
+      <c r="E52">
+        <v>19.51</v>
+      </c>
       <c r="F52">
         <v>18.9736</v>
       </c>
@@ -1145,6 +1757,18 @@
       <c r="A53" s="2">
         <v>45293.03541666667</v>
       </c>
+      <c r="B53">
+        <v>21.92</v>
+      </c>
+      <c r="C53">
+        <v>22.93</v>
+      </c>
+      <c r="D53">
+        <v>20.15</v>
+      </c>
+      <c r="E53">
+        <v>19.51</v>
+      </c>
       <c r="F53">
         <v>18.9495</v>
       </c>
@@ -1159,6 +1783,18 @@
       <c r="A54" s="2">
         <v>45293.03611111111</v>
       </c>
+      <c r="B54">
+        <v>21.92</v>
+      </c>
+      <c r="C54">
+        <v>22.89</v>
+      </c>
+      <c r="D54">
+        <v>20.13</v>
+      </c>
+      <c r="E54">
+        <v>19.56</v>
+      </c>
       <c r="F54">
         <v>18.9549</v>
       </c>
@@ -1173,6 +1809,18 @@
       <c r="A55" s="2">
         <v>45293.03680555556</v>
       </c>
+      <c r="B55">
+        <v>21.91</v>
+      </c>
+      <c r="C55">
+        <v>22.94</v>
+      </c>
+      <c r="D55">
+        <v>20.12</v>
+      </c>
+      <c r="E55">
+        <v>19.55</v>
+      </c>
       <c r="F55">
         <v>18.9602</v>
       </c>
@@ -1187,6 +1835,18 @@
       <c r="A56" s="2">
         <v>45293.0375</v>
       </c>
+      <c r="B56">
+        <v>21.89</v>
+      </c>
+      <c r="C56">
+        <v>22.88</v>
+      </c>
+      <c r="D56">
+        <v>20.16</v>
+      </c>
+      <c r="E56">
+        <v>19.56</v>
+      </c>
       <c r="F56">
         <v>18.9924</v>
       </c>
@@ -1201,6 +1861,18 @@
       <c r="A57" s="2">
         <v>45293.03819444445</v>
       </c>
+      <c r="B57">
+        <v>21.87</v>
+      </c>
+      <c r="C57">
+        <v>22.84</v>
+      </c>
+      <c r="D57">
+        <v>20.11</v>
+      </c>
+      <c r="E57">
+        <v>19.54</v>
+      </c>
       <c r="F57">
         <v>19.0165</v>
       </c>
@@ -1215,6 +1887,18 @@
       <c r="A58" s="2">
         <v>45293.03888888889</v>
       </c>
+      <c r="B58">
+        <v>21.83</v>
+      </c>
+      <c r="C58">
+        <v>22.88</v>
+      </c>
+      <c r="D58">
+        <v>20.08</v>
+      </c>
+      <c r="E58">
+        <v>19.58</v>
+      </c>
       <c r="F58">
         <v>19.0541</v>
       </c>
@@ -1229,6 +1913,18 @@
       <c r="A59" s="2">
         <v>45293.03958333333</v>
       </c>
+      <c r="B59">
+        <v>21.85</v>
+      </c>
+      <c r="C59">
+        <v>22.81</v>
+      </c>
+      <c r="D59">
+        <v>20.1</v>
+      </c>
+      <c r="E59">
+        <v>19.58</v>
+      </c>
       <c r="F59">
         <v>19.0862</v>
       </c>
@@ -1243,6 +1939,18 @@
       <c r="A60" s="2">
         <v>45293.04027777778</v>
       </c>
+      <c r="B60">
+        <v>21.82</v>
+      </c>
+      <c r="C60">
+        <v>22.8</v>
+      </c>
+      <c r="D60">
+        <v>20.1</v>
+      </c>
+      <c r="E60">
+        <v>19.56</v>
+      </c>
       <c r="F60">
         <v>19.0916</v>
       </c>
@@ -1257,6 +1965,18 @@
       <c r="A61" s="2">
         <v>45293.04097222222</v>
       </c>
+      <c r="B61">
+        <v>21.81</v>
+      </c>
+      <c r="C61">
+        <v>22.81</v>
+      </c>
+      <c r="D61">
+        <v>20.07</v>
+      </c>
+      <c r="E61">
+        <v>19.57</v>
+      </c>
       <c r="F61">
         <v>19.0835</v>
       </c>
@@ -1271,6 +1991,18 @@
       <c r="A62" s="2">
         <v>45293.04166666666</v>
       </c>
+      <c r="B62">
+        <v>21.83</v>
+      </c>
+      <c r="C62">
+        <v>22.77</v>
+      </c>
+      <c r="D62">
+        <v>20.09</v>
+      </c>
+      <c r="E62">
+        <v>19.55</v>
+      </c>
       <c r="F62">
         <v>19.0755</v>
       </c>
@@ -1285,6 +2017,18 @@
       <c r="A63" s="2">
         <v>45293.04236111111</v>
       </c>
+      <c r="B63">
+        <v>21.83</v>
+      </c>
+      <c r="C63">
+        <v>22.79</v>
+      </c>
+      <c r="D63">
+        <v>20.08</v>
+      </c>
+      <c r="E63">
+        <v>19.52</v>
+      </c>
       <c r="F63">
         <v>19.0675</v>
       </c>
@@ -1299,6 +2043,18 @@
       <c r="A64" s="2">
         <v>45293.04305555556</v>
       </c>
+      <c r="B64">
+        <v>21.76</v>
+      </c>
+      <c r="C64">
+        <v>22.76</v>
+      </c>
+      <c r="D64">
+        <v>20.05</v>
+      </c>
+      <c r="E64">
+        <v>19.49</v>
+      </c>
       <c r="F64">
         <v>19.0487</v>
       </c>
@@ -1313,6 +2069,18 @@
       <c r="A65" s="2">
         <v>45293.04375</v>
       </c>
+      <c r="B65">
+        <v>21.78</v>
+      </c>
+      <c r="C65">
+        <v>22.76</v>
+      </c>
+      <c r="D65">
+        <v>20.09</v>
+      </c>
+      <c r="E65">
+        <v>19.5</v>
+      </c>
       <c r="F65">
         <v>19.0272</v>
       </c>
@@ -1327,6 +2095,18 @@
       <c r="A66" s="2">
         <v>45293.04444444444</v>
       </c>
+      <c r="B66">
+        <v>21.76</v>
+      </c>
+      <c r="C66">
+        <v>22.72</v>
+      </c>
+      <c r="D66">
+        <v>20.09</v>
+      </c>
+      <c r="E66">
+        <v>19.49</v>
+      </c>
       <c r="F66">
         <v>19.0165</v>
       </c>
@@ -1341,6 +2121,18 @@
       <c r="A67" s="2">
         <v>45293.04513888889</v>
       </c>
+      <c r="B67">
+        <v>21.75</v>
+      </c>
+      <c r="C67">
+        <v>22.75</v>
+      </c>
+      <c r="D67">
+        <v>20.06</v>
+      </c>
+      <c r="E67">
+        <v>19.47</v>
+      </c>
       <c r="F67">
         <v>18.9951</v>
       </c>
@@ -1355,6 +2147,18 @@
       <c r="A68" s="2">
         <v>45293.04583333333</v>
       </c>
+      <c r="B68">
+        <v>21.72</v>
+      </c>
+      <c r="C68">
+        <v>22.69</v>
+      </c>
+      <c r="D68">
+        <v>20.09</v>
+      </c>
+      <c r="E68">
+        <v>19.5</v>
+      </c>
       <c r="F68">
         <v>18.9763</v>
       </c>
@@ -1369,6 +2173,18 @@
       <c r="A69" s="2">
         <v>45293.04652777778</v>
       </c>
+      <c r="B69">
+        <v>21.68</v>
+      </c>
+      <c r="C69">
+        <v>22.67</v>
+      </c>
+      <c r="D69">
+        <v>20.04</v>
+      </c>
+      <c r="E69">
+        <v>19.48</v>
+      </c>
       <c r="F69">
         <v>18.9709</v>
       </c>
@@ -1383,6 +2199,18 @@
       <c r="A70" s="2">
         <v>45293.04722222222</v>
       </c>
+      <c r="B70">
+        <v>21.72</v>
+      </c>
+      <c r="C70">
+        <v>22.69</v>
+      </c>
+      <c r="D70">
+        <v>20.05</v>
+      </c>
+      <c r="E70">
+        <v>19.51</v>
+      </c>
       <c r="F70">
         <v>18.9843</v>
       </c>
@@ -1397,6 +2225,18 @@
       <c r="A71" s="2">
         <v>45293.04791666667</v>
       </c>
+      <c r="B71">
+        <v>21.68</v>
+      </c>
+      <c r="C71">
+        <v>22.64</v>
+      </c>
+      <c r="D71">
+        <v>20.03</v>
+      </c>
+      <c r="E71">
+        <v>19.48</v>
+      </c>
       <c r="F71">
         <v>18.9897</v>
       </c>
@@ -1411,6 +2251,18 @@
       <c r="A72" s="2">
         <v>45293.04861111111</v>
       </c>
+      <c r="B72">
+        <v>21.69</v>
+      </c>
+      <c r="C72">
+        <v>22.63</v>
+      </c>
+      <c r="D72">
+        <v>20.05</v>
+      </c>
+      <c r="E72">
+        <v>19.46</v>
+      </c>
       <c r="F72">
         <v>18.9924</v>
       </c>
@@ -1425,6 +2277,18 @@
       <c r="A73" s="2">
         <v>45293.04930555556</v>
       </c>
+      <c r="B73">
+        <v>21.65</v>
+      </c>
+      <c r="C73">
+        <v>22.64</v>
+      </c>
+      <c r="D73">
+        <v>20.02</v>
+      </c>
+      <c r="E73">
+        <v>19.46</v>
+      </c>
       <c r="F73">
         <v>18.9817</v>
       </c>
@@ -1439,6 +2303,18 @@
       <c r="A74" s="2">
         <v>45293.05</v>
       </c>
+      <c r="B74">
+        <v>21.65</v>
+      </c>
+      <c r="C74">
+        <v>22.6</v>
+      </c>
+      <c r="D74">
+        <v>20.01</v>
+      </c>
+      <c r="E74">
+        <v>19.45</v>
+      </c>
       <c r="F74">
         <v>18.979</v>
       </c>
@@ -1453,6 +2329,18 @@
       <c r="A75" s="2">
         <v>45293.05069444444</v>
       </c>
+      <c r="B75">
+        <v>21.64</v>
+      </c>
+      <c r="C75">
+        <v>22.6</v>
+      </c>
+      <c r="D75">
+        <v>20.01</v>
+      </c>
+      <c r="E75">
+        <v>19.48</v>
+      </c>
       <c r="F75">
         <v>18.9817</v>
       </c>
@@ -1467,6 +2355,18 @@
       <c r="A76" s="2">
         <v>45293.05138888889</v>
       </c>
+      <c r="B76">
+        <v>21.67</v>
+      </c>
+      <c r="C76">
+        <v>22.59</v>
+      </c>
+      <c r="D76">
+        <v>20</v>
+      </c>
+      <c r="E76">
+        <v>19.46</v>
+      </c>
       <c r="F76">
         <v>18.9656</v>
       </c>
@@ -1481,6 +2381,18 @@
       <c r="A77" s="2">
         <v>45293.05208333334</v>
       </c>
+      <c r="B77">
+        <v>21.64</v>
+      </c>
+      <c r="C77">
+        <v>22.52</v>
+      </c>
+      <c r="D77">
+        <v>19.99</v>
+      </c>
+      <c r="E77">
+        <v>19.48</v>
+      </c>
       <c r="F77">
         <v>18.9414</v>
       </c>
@@ -1495,6 +2407,18 @@
       <c r="A78" s="2">
         <v>45293.05277777778</v>
       </c>
+      <c r="B78">
+        <v>21.61</v>
+      </c>
+      <c r="C78">
+        <v>22.56</v>
+      </c>
+      <c r="D78">
+        <v>20.01</v>
+      </c>
+      <c r="E78">
+        <v>19.46</v>
+      </c>
       <c r="F78">
         <v>18.92</v>
       </c>
@@ -1509,6 +2433,18 @@
       <c r="A79" s="2">
         <v>45293.05347222222</v>
       </c>
+      <c r="B79">
+        <v>21.59</v>
+      </c>
+      <c r="C79">
+        <v>22.54</v>
+      </c>
+      <c r="D79">
+        <v>20</v>
+      </c>
+      <c r="E79">
+        <v>19.45</v>
+      </c>
       <c r="F79">
         <v>18.92</v>
       </c>
@@ -1523,6 +2459,18 @@
       <c r="A80" s="2">
         <v>45293.05416666667</v>
       </c>
+      <c r="B80">
+        <v>21.56</v>
+      </c>
+      <c r="C80">
+        <v>22.5</v>
+      </c>
+      <c r="D80">
+        <v>19.96</v>
+      </c>
+      <c r="E80">
+        <v>19.44</v>
+      </c>
       <c r="F80">
         <v>18.9254</v>
       </c>
@@ -1537,6 +2485,18 @@
       <c r="A81" s="2">
         <v>45293.05486111111</v>
       </c>
+      <c r="B81">
+        <v>21.55</v>
+      </c>
+      <c r="C81">
+        <v>22.52</v>
+      </c>
+      <c r="D81">
+        <v>19.98</v>
+      </c>
+      <c r="E81">
+        <v>19.44</v>
+      </c>
       <c r="F81">
         <v>18.9388</v>
       </c>
@@ -1551,6 +2511,18 @@
       <c r="A82" s="2">
         <v>45293.05555555555</v>
       </c>
+      <c r="B82">
+        <v>21.57</v>
+      </c>
+      <c r="C82">
+        <v>22.48</v>
+      </c>
+      <c r="D82">
+        <v>19.95</v>
+      </c>
+      <c r="E82">
+        <v>19.49</v>
+      </c>
       <c r="F82">
         <v>18.9656</v>
       </c>
@@ -1565,6 +2537,18 @@
       <c r="A83" s="2">
         <v>45293.05625</v>
       </c>
+      <c r="B83">
+        <v>21.52</v>
+      </c>
+      <c r="C83">
+        <v>22.46</v>
+      </c>
+      <c r="D83">
+        <v>19.95</v>
+      </c>
+      <c r="E83">
+        <v>19.48</v>
+      </c>
       <c r="F83">
         <v>18.9924</v>
       </c>
@@ -1579,6 +2563,18 @@
       <c r="A84" s="2">
         <v>45293.05694444444</v>
       </c>
+      <c r="B84">
+        <v>21.54</v>
+      </c>
+      <c r="C84">
+        <v>22.44</v>
+      </c>
+      <c r="D84">
+        <v>19.94</v>
+      </c>
+      <c r="E84">
+        <v>19.45</v>
+      </c>
       <c r="F84">
         <v>19.0031</v>
       </c>
@@ -1593,6 +2589,18 @@
       <c r="A85" s="2">
         <v>45293.05763888889</v>
       </c>
+      <c r="B85">
+        <v>21.5</v>
+      </c>
+      <c r="C85">
+        <v>22.43</v>
+      </c>
+      <c r="D85">
+        <v>19.97</v>
+      </c>
+      <c r="E85">
+        <v>19.46</v>
+      </c>
       <c r="F85">
         <v>18.9978</v>
       </c>
@@ -1607,6 +2615,18 @@
       <c r="A86" s="2">
         <v>45293.05833333333</v>
       </c>
+      <c r="B86">
+        <v>21.51</v>
+      </c>
+      <c r="C86">
+        <v>22.43</v>
+      </c>
+      <c r="D86">
+        <v>19.95</v>
+      </c>
+      <c r="E86">
+        <v>19.45</v>
+      </c>
       <c r="F86">
         <v>19.0031</v>
       </c>
@@ -1621,6 +2641,18 @@
       <c r="A87" s="2">
         <v>45293.05902777778</v>
       </c>
+      <c r="B87">
+        <v>21.49</v>
+      </c>
+      <c r="C87">
+        <v>22.43</v>
+      </c>
+      <c r="D87">
+        <v>19.94</v>
+      </c>
+      <c r="E87">
+        <v>19.43</v>
+      </c>
       <c r="F87">
         <v>19.0219</v>
       </c>
@@ -1635,6 +2667,18 @@
       <c r="A88" s="2">
         <v>45293.05972222222</v>
       </c>
+      <c r="B88">
+        <v>21.46</v>
+      </c>
+      <c r="C88">
+        <v>22.42</v>
+      </c>
+      <c r="D88">
+        <v>19.94</v>
+      </c>
+      <c r="E88">
+        <v>19.46</v>
+      </c>
       <c r="F88">
         <v>19.0299</v>
       </c>
@@ -1649,6 +2693,18 @@
       <c r="A89" s="2">
         <v>45293.06041666667</v>
       </c>
+      <c r="B89">
+        <v>21.44</v>
+      </c>
+      <c r="C89">
+        <v>22.38</v>
+      </c>
+      <c r="D89">
+        <v>19.96</v>
+      </c>
+      <c r="E89">
+        <v>19.43</v>
+      </c>
       <c r="F89">
         <v>19.0246</v>
       </c>
@@ -1663,6 +2719,18 @@
       <c r="A90" s="2">
         <v>45293.06111111111</v>
       </c>
+      <c r="B90">
+        <v>21.46</v>
+      </c>
+      <c r="C90">
+        <v>22.38</v>
+      </c>
+      <c r="D90">
+        <v>19.91</v>
+      </c>
+      <c r="E90">
+        <v>19.45</v>
+      </c>
       <c r="F90">
         <v>19.0326</v>
       </c>
@@ -1677,6 +2745,18 @@
       <c r="A91" s="2">
         <v>45293.06180555555</v>
       </c>
+      <c r="B91">
+        <v>21.42</v>
+      </c>
+      <c r="C91">
+        <v>22.4</v>
+      </c>
+      <c r="D91">
+        <v>19.95</v>
+      </c>
+      <c r="E91">
+        <v>19.47</v>
+      </c>
       <c r="F91">
         <v>19.038</v>
       </c>
@@ -1691,6 +2771,18 @@
       <c r="A92" s="2">
         <v>45293.0625</v>
       </c>
+      <c r="B92">
+        <v>21.41</v>
+      </c>
+      <c r="C92">
+        <v>22.33</v>
+      </c>
+      <c r="D92">
+        <v>19.9</v>
+      </c>
+      <c r="E92">
+        <v>19.46</v>
+      </c>
       <c r="F92">
         <v>19.0541</v>
       </c>
@@ -1705,6 +2797,18 @@
       <c r="A93" s="2">
         <v>45293.06319444445</v>
       </c>
+      <c r="B93">
+        <v>21.39</v>
+      </c>
+      <c r="C93">
+        <v>22.33</v>
+      </c>
+      <c r="D93">
+        <v>19.94</v>
+      </c>
+      <c r="E93">
+        <v>19.46</v>
+      </c>
       <c r="F93">
         <v>19.0487</v>
       </c>
@@ -1719,6 +2823,18 @@
       <c r="A94" s="2">
         <v>45293.06388888889</v>
       </c>
+      <c r="B94">
+        <v>21.38</v>
+      </c>
+      <c r="C94">
+        <v>22.33</v>
+      </c>
+      <c r="D94">
+        <v>19.91</v>
+      </c>
+      <c r="E94">
+        <v>19.49</v>
+      </c>
       <c r="F94">
         <v>19.0782</v>
       </c>
@@ -1733,6 +2849,18 @@
       <c r="A95" s="2">
         <v>45293.06458333333</v>
       </c>
+      <c r="B95">
+        <v>21.4</v>
+      </c>
+      <c r="C95">
+        <v>22.3</v>
+      </c>
+      <c r="D95">
+        <v>19.9</v>
+      </c>
+      <c r="E95">
+        <v>19.47</v>
+      </c>
       <c r="F95">
         <v>19.0996</v>
       </c>
@@ -1747,6 +2875,18 @@
       <c r="A96" s="2">
         <v>45293.06527777778</v>
       </c>
+      <c r="B96">
+        <v>21.36</v>
+      </c>
+      <c r="C96">
+        <v>22.3</v>
+      </c>
+      <c r="D96">
+        <v>19.88</v>
+      </c>
+      <c r="E96">
+        <v>19.48</v>
+      </c>
       <c r="F96">
         <v>19.1211</v>
       </c>
@@ -1761,6 +2901,18 @@
       <c r="A97" s="2">
         <v>45293.06597222222</v>
       </c>
+      <c r="B97">
+        <v>21.37</v>
+      </c>
+      <c r="C97">
+        <v>22.26</v>
+      </c>
+      <c r="D97">
+        <v>19.93</v>
+      </c>
+      <c r="E97">
+        <v>19.47</v>
+      </c>
       <c r="F97">
         <v>19.1479</v>
       </c>
@@ -1775,6 +2927,18 @@
       <c r="A98" s="2">
         <v>45293.06666666667</v>
       </c>
+      <c r="B98">
+        <v>21.37</v>
+      </c>
+      <c r="C98">
+        <v>22.24</v>
+      </c>
+      <c r="D98">
+        <v>19.92</v>
+      </c>
+      <c r="E98">
+        <v>19.46</v>
+      </c>
       <c r="F98">
         <v>19.1693</v>
       </c>
@@ -1789,6 +2953,18 @@
       <c r="A99" s="2">
         <v>45293.06736111111</v>
       </c>
+      <c r="B99">
+        <v>21.35</v>
+      </c>
+      <c r="C99">
+        <v>22.29</v>
+      </c>
+      <c r="D99">
+        <v>19.93</v>
+      </c>
+      <c r="E99">
+        <v>19.47</v>
+      </c>
       <c r="F99">
         <v>19.1908</v>
       </c>
@@ -1803,6 +2979,18 @@
       <c r="A100" s="2">
         <v>45293.06805555556</v>
       </c>
+      <c r="B100">
+        <v>21.31</v>
+      </c>
+      <c r="C100">
+        <v>22.24</v>
+      </c>
+      <c r="D100">
+        <v>19.89</v>
+      </c>
+      <c r="E100">
+        <v>19.47</v>
+      </c>
       <c r="F100">
         <v>19.2256</v>
       </c>
@@ -1817,6 +3005,18 @@
       <c r="A101" s="2">
         <v>45293.06875</v>
       </c>
+      <c r="B101">
+        <v>21.34</v>
+      </c>
+      <c r="C101">
+        <v>22.2</v>
+      </c>
+      <c r="D101">
+        <v>19.89</v>
+      </c>
+      <c r="E101">
+        <v>19.5</v>
+      </c>
       <c r="F101">
         <v>19.2712</v>
       </c>
@@ -1831,6 +3031,18 @@
       <c r="A102" s="2">
         <v>45293.06944444445</v>
       </c>
+      <c r="B102">
+        <v>21.3</v>
+      </c>
+      <c r="C102">
+        <v>22.2</v>
+      </c>
+      <c r="D102">
+        <v>19.92</v>
+      </c>
+      <c r="E102">
+        <v>19.5</v>
+      </c>
       <c r="F102">
         <v>19.3114</v>
       </c>
@@ -1845,6 +3057,18 @@
       <c r="A103" s="2">
         <v>45293.07013888889</v>
       </c>
+      <c r="B103">
+        <v>21.31</v>
+      </c>
+      <c r="C103">
+        <v>22.21</v>
+      </c>
+      <c r="D103">
+        <v>19.88</v>
+      </c>
+      <c r="E103">
+        <v>19.5</v>
+      </c>
       <c r="F103">
         <v>19.3356</v>
       </c>
@@ -1859,6 +3083,18 @@
       <c r="A104" s="2">
         <v>45293.07083333333</v>
       </c>
+      <c r="B104">
+        <v>21.29</v>
+      </c>
+      <c r="C104">
+        <v>22.2</v>
+      </c>
+      <c r="D104">
+        <v>19.91</v>
+      </c>
+      <c r="E104">
+        <v>19.52</v>
+      </c>
       <c r="F104">
         <v>19.3436</v>
       </c>
@@ -1873,6 +3109,18 @@
       <c r="A105" s="2">
         <v>45293.07152777778</v>
       </c>
+      <c r="B105">
+        <v>21.29</v>
+      </c>
+      <c r="C105">
+        <v>22.16</v>
+      </c>
+      <c r="D105">
+        <v>19.89</v>
+      </c>
+      <c r="E105">
+        <v>19.5</v>
+      </c>
       <c r="F105">
         <v>19.3382</v>
       </c>
@@ -1887,6 +3135,18 @@
       <c r="A106" s="2">
         <v>45293.07222222222</v>
       </c>
+      <c r="B106">
+        <v>21.27</v>
+      </c>
+      <c r="C106">
+        <v>22.18</v>
+      </c>
+      <c r="D106">
+        <v>19.88</v>
+      </c>
+      <c r="E106">
+        <v>19.52</v>
+      </c>
       <c r="F106">
         <v>19.3168</v>
       </c>
@@ -1901,6 +3161,18 @@
       <c r="A107" s="2">
         <v>45293.07291666666</v>
       </c>
+      <c r="B107">
+        <v>21.25</v>
+      </c>
+      <c r="C107">
+        <v>22.15</v>
+      </c>
+      <c r="D107">
+        <v>19.95</v>
+      </c>
+      <c r="E107">
+        <v>19.52</v>
+      </c>
       <c r="F107">
         <v>19.3356</v>
       </c>
@@ -1915,6 +3187,18 @@
       <c r="A108" s="2">
         <v>45293.07361111111</v>
       </c>
+      <c r="B108">
+        <v>21.25</v>
+      </c>
+      <c r="C108">
+        <v>22.14</v>
+      </c>
+      <c r="D108">
+        <v>19.9</v>
+      </c>
+      <c r="E108">
+        <v>19.5</v>
+      </c>
       <c r="F108">
         <v>19.3356</v>
       </c>
@@ -1929,6 +3213,18 @@
       <c r="A109" s="2">
         <v>45293.07430555556</v>
       </c>
+      <c r="B109">
+        <v>21.24</v>
+      </c>
+      <c r="C109">
+        <v>22.15</v>
+      </c>
+      <c r="D109">
+        <v>19.93</v>
+      </c>
+      <c r="E109">
+        <v>19.48</v>
+      </c>
       <c r="F109">
         <v>19.3168</v>
       </c>
@@ -1943,6 +3239,18 @@
       <c r="A110" s="2">
         <v>45293.075</v>
       </c>
+      <c r="B110">
+        <v>21.22</v>
+      </c>
+      <c r="C110">
+        <v>22.09</v>
+      </c>
+      <c r="D110">
+        <v>19.86</v>
+      </c>
+      <c r="E110">
+        <v>19.46</v>
+      </c>
       <c r="F110">
         <v>19.2953</v>
       </c>
@@ -1957,6 +3265,18 @@
       <c r="A111" s="2">
         <v>45293.07569444444</v>
       </c>
+      <c r="B111">
+        <v>21.21</v>
+      </c>
+      <c r="C111">
+        <v>22.11</v>
+      </c>
+      <c r="D111">
+        <v>19.89</v>
+      </c>
+      <c r="E111">
+        <v>19.46</v>
+      </c>
       <c r="F111">
         <v>19.2551</v>
       </c>
@@ -1971,6 +3291,18 @@
       <c r="A112" s="2">
         <v>45293.07638888889</v>
       </c>
+      <c r="B112">
+        <v>21.21</v>
+      </c>
+      <c r="C112">
+        <v>22.09</v>
+      </c>
+      <c r="D112">
+        <v>19.9</v>
+      </c>
+      <c r="E112">
+        <v>19.45</v>
+      </c>
       <c r="F112">
         <v>19.223</v>
       </c>
@@ -1985,6 +3317,18 @@
       <c r="A113" s="2">
         <v>45293.07708333333</v>
       </c>
+      <c r="B113">
+        <v>21.21</v>
+      </c>
+      <c r="C113">
+        <v>22.07</v>
+      </c>
+      <c r="D113">
+        <v>19.86</v>
+      </c>
+      <c r="E113">
+        <v>19.47</v>
+      </c>
       <c r="F113">
         <v>19.1988</v>
       </c>
@@ -1999,6 +3343,18 @@
       <c r="A114" s="2">
         <v>45293.07777777778</v>
       </c>
+      <c r="B114">
+        <v>21.18</v>
+      </c>
+      <c r="C114">
+        <v>22.06</v>
+      </c>
+      <c r="D114">
+        <v>19.86</v>
+      </c>
+      <c r="E114">
+        <v>19.46</v>
+      </c>
       <c r="F114">
         <v>19.2042</v>
       </c>
@@ -2013,6 +3369,18 @@
       <c r="A115" s="2">
         <v>45293.07847222222</v>
       </c>
+      <c r="B115">
+        <v>21.19</v>
+      </c>
+      <c r="C115">
+        <v>22.03</v>
+      </c>
+      <c r="D115">
+        <v>19.88</v>
+      </c>
+      <c r="E115">
+        <v>19.45</v>
+      </c>
       <c r="F115">
         <v>19.2015</v>
       </c>
@@ -2027,6 +3395,18 @@
       <c r="A116" s="2">
         <v>45293.07916666667</v>
       </c>
+      <c r="B116">
+        <v>21.16</v>
+      </c>
+      <c r="C116">
+        <v>22.05</v>
+      </c>
+      <c r="D116">
+        <v>19.9</v>
+      </c>
+      <c r="E116">
+        <v>19.42</v>
+      </c>
       <c r="F116">
         <v>19.1988</v>
       </c>
@@ -2041,6 +3421,18 @@
       <c r="A117" s="2">
         <v>45293.07986111111</v>
       </c>
+      <c r="B117">
+        <v>21.13</v>
+      </c>
+      <c r="C117">
+        <v>22.01</v>
+      </c>
+      <c r="D117">
+        <v>19.85</v>
+      </c>
+      <c r="E117">
+        <v>19.43</v>
+      </c>
       <c r="F117">
         <v>19.1908</v>
       </c>
@@ -2055,6 +3447,18 @@
       <c r="A118" s="2">
         <v>45293.08055555556</v>
       </c>
+      <c r="B118">
+        <v>21.16</v>
+      </c>
+      <c r="C118">
+        <v>22.03</v>
+      </c>
+      <c r="D118">
+        <v>19.86</v>
+      </c>
+      <c r="E118">
+        <v>19.37</v>
+      </c>
       <c r="F118">
         <v>19.1425</v>
       </c>
@@ -2069,6 +3473,18 @@
       <c r="A119" s="2">
         <v>45293.08125</v>
       </c>
+      <c r="B119">
+        <v>21.18</v>
+      </c>
+      <c r="C119">
+        <v>21.97</v>
+      </c>
+      <c r="D119">
+        <v>19.87</v>
+      </c>
+      <c r="E119">
+        <v>19.42</v>
+      </c>
       <c r="F119">
         <v>19.0943</v>
       </c>
@@ -2083,6 +3499,18 @@
       <c r="A120" s="2">
         <v>45293.08194444444</v>
       </c>
+      <c r="B120">
+        <v>21.14</v>
+      </c>
+      <c r="C120">
+        <v>22</v>
+      </c>
+      <c r="D120">
+        <v>19.85</v>
+      </c>
+      <c r="E120">
+        <v>19.41</v>
+      </c>
       <c r="F120">
         <v>19.0675</v>
       </c>
@@ -2097,6 +3525,18 @@
       <c r="A121" s="2">
         <v>45293.08263888889</v>
       </c>
+      <c r="B121">
+        <v>21.11</v>
+      </c>
+      <c r="C121">
+        <v>21.97</v>
+      </c>
+      <c r="D121">
+        <v>19.84</v>
+      </c>
+      <c r="E121">
+        <v>19.38</v>
+      </c>
       <c r="F121">
         <v>19.0675</v>
       </c>
@@ -2111,6 +3551,18 @@
       <c r="A122" s="2">
         <v>45293.08333333334</v>
       </c>
+      <c r="B122">
+        <v>21.06</v>
+      </c>
+      <c r="C122">
+        <v>21.99</v>
+      </c>
+      <c r="D122">
+        <v>19.84</v>
+      </c>
+      <c r="E122">
+        <v>19.37</v>
+      </c>
       <c r="F122">
         <v>19.0594</v>
       </c>
@@ -2125,6 +3577,18 @@
       <c r="A123" s="2">
         <v>45293.08402777778</v>
       </c>
+      <c r="B123">
+        <v>21.09</v>
+      </c>
+      <c r="C123">
+        <v>21.95</v>
+      </c>
+      <c r="D123">
+        <v>19.8</v>
+      </c>
+      <c r="E123">
+        <v>19.39</v>
+      </c>
       <c r="F123">
         <v>19.0648</v>
       </c>
@@ -2139,6 +3603,18 @@
       <c r="A124" s="2">
         <v>45293.08472222222</v>
       </c>
+      <c r="B124">
+        <v>21.1</v>
+      </c>
+      <c r="C124">
+        <v>21.94</v>
+      </c>
+      <c r="D124">
+        <v>19.79</v>
+      </c>
+      <c r="E124">
+        <v>19.4</v>
+      </c>
       <c r="F124">
         <v>19.0675</v>
       </c>
@@ -2153,6 +3629,18 @@
       <c r="A125" s="2">
         <v>45293.08541666667</v>
       </c>
+      <c r="B125">
+        <v>21.07</v>
+      </c>
+      <c r="C125">
+        <v>21.95</v>
+      </c>
+      <c r="D125">
+        <v>19.78</v>
+      </c>
+      <c r="E125">
+        <v>19.38</v>
+      </c>
       <c r="F125">
         <v>19.0969</v>
       </c>
@@ -2167,6 +3655,18 @@
       <c r="A126" s="2">
         <v>45293.08611111111</v>
       </c>
+      <c r="B126">
+        <v>21.09</v>
+      </c>
+      <c r="C126">
+        <v>21.94</v>
+      </c>
+      <c r="D126">
+        <v>19.81</v>
+      </c>
+      <c r="E126">
+        <v>19.38</v>
+      </c>
       <c r="F126">
         <v>19.1184</v>
       </c>
@@ -2181,6 +3681,18 @@
       <c r="A127" s="2">
         <v>45293.08680555555</v>
       </c>
+      <c r="B127">
+        <v>21.07</v>
+      </c>
+      <c r="C127">
+        <v>21.93</v>
+      </c>
+      <c r="D127">
+        <v>19.8</v>
+      </c>
+      <c r="E127">
+        <v>19.38</v>
+      </c>
       <c r="F127">
         <v>19.1425</v>
       </c>
@@ -2195,6 +3707,18 @@
       <c r="A128" s="2">
         <v>45293.0875</v>
       </c>
+      <c r="B128">
+        <v>21.07</v>
+      </c>
+      <c r="C128">
+        <v>21.9</v>
+      </c>
+      <c r="D128">
+        <v>19.78</v>
+      </c>
+      <c r="E128">
+        <v>19.39</v>
+      </c>
       <c r="F128">
         <v>19.1532</v>
       </c>
@@ -2209,6 +3733,18 @@
       <c r="A129" s="2">
         <v>45293.08819444444</v>
       </c>
+      <c r="B129">
+        <v>21.04</v>
+      </c>
+      <c r="C129">
+        <v>21.93</v>
+      </c>
+      <c r="D129">
+        <v>19.82</v>
+      </c>
+      <c r="E129">
+        <v>19.38</v>
+      </c>
       <c r="F129">
         <v>19.164</v>
       </c>
@@ -2223,6 +3759,18 @@
       <c r="A130" s="2">
         <v>45293.08888888889</v>
       </c>
+      <c r="B130">
+        <v>20.99</v>
+      </c>
+      <c r="C130">
+        <v>21.87</v>
+      </c>
+      <c r="D130">
+        <v>19.79</v>
+      </c>
+      <c r="E130">
+        <v>19.4</v>
+      </c>
       <c r="F130">
         <v>19.1908</v>
       </c>
@@ -2237,6 +3785,18 @@
       <c r="A131" s="2">
         <v>45293.08958333333</v>
       </c>
+      <c r="B131">
+        <v>21.02</v>
+      </c>
+      <c r="C131">
+        <v>21.88</v>
+      </c>
+      <c r="D131">
+        <v>19.79</v>
+      </c>
+      <c r="E131">
+        <v>19.4</v>
+      </c>
       <c r="F131">
         <v>19.2042</v>
       </c>
@@ -2251,6 +3811,18 @@
       <c r="A132" s="2">
         <v>45293.09027777778</v>
       </c>
+      <c r="B132">
+        <v>21.03</v>
+      </c>
+      <c r="C132">
+        <v>21.84</v>
+      </c>
+      <c r="D132">
+        <v>19.81</v>
+      </c>
+      <c r="E132">
+        <v>19.37</v>
+      </c>
       <c r="F132">
         <v>19.2042</v>
       </c>
@@ -2265,6 +3837,18 @@
       <c r="A133" s="2">
         <v>45293.09097222222</v>
       </c>
+      <c r="B133">
+        <v>21.04</v>
+      </c>
+      <c r="C133">
+        <v>21.84</v>
+      </c>
+      <c r="D133">
+        <v>19.78</v>
+      </c>
+      <c r="E133">
+        <v>19.39</v>
+      </c>
       <c r="F133">
         <v>19.1881</v>
       </c>
@@ -2279,6 +3863,18 @@
       <c r="A134" s="2">
         <v>45293.09166666667</v>
       </c>
+      <c r="B134">
+        <v>21</v>
+      </c>
+      <c r="C134">
+        <v>21.82</v>
+      </c>
+      <c r="D134">
+        <v>19.74</v>
+      </c>
+      <c r="E134">
+        <v>19.41</v>
+      </c>
       <c r="F134">
         <v>19.1747</v>
       </c>
@@ -2293,6 +3889,18 @@
       <c r="A135" s="2">
         <v>45293.09236111111</v>
       </c>
+      <c r="B135">
+        <v>20.97</v>
+      </c>
+      <c r="C135">
+        <v>21.85</v>
+      </c>
+      <c r="D135">
+        <v>19.79</v>
+      </c>
+      <c r="E135">
+        <v>19.34</v>
+      </c>
       <c r="F135">
         <v>19.1613</v>
       </c>
@@ -2307,6 +3915,18 @@
       <c r="A136" s="2">
         <v>45293.09305555555</v>
       </c>
+      <c r="B136">
+        <v>20.98</v>
+      </c>
+      <c r="C136">
+        <v>21.85</v>
+      </c>
+      <c r="D136">
+        <v>19.78</v>
+      </c>
+      <c r="E136">
+        <v>19.34</v>
+      </c>
       <c r="F136">
         <v>19.1425</v>
       </c>
@@ -2321,6 +3941,18 @@
       <c r="A137" s="2">
         <v>45293.09375</v>
       </c>
+      <c r="B137">
+        <v>20.98</v>
+      </c>
+      <c r="C137">
+        <v>21.83</v>
+      </c>
+      <c r="D137">
+        <v>19.78</v>
+      </c>
+      <c r="E137">
+        <v>19.39</v>
+      </c>
       <c r="F137">
         <v>19.164</v>
       </c>
@@ -2335,6 +3967,18 @@
       <c r="A138" s="2">
         <v>45293.09444444445</v>
       </c>
+      <c r="B138">
+        <v>20.99</v>
+      </c>
+      <c r="C138">
+        <v>21.81</v>
+      </c>
+      <c r="D138">
+        <v>19.75</v>
+      </c>
+      <c r="E138">
+        <v>19.37</v>
+      </c>
       <c r="F138">
         <v>19.1586</v>
       </c>
@@ -2349,6 +3993,18 @@
       <c r="A139" s="2">
         <v>45293.09513888889</v>
       </c>
+      <c r="B139">
+        <v>20.98</v>
+      </c>
+      <c r="C139">
+        <v>21.83</v>
+      </c>
+      <c r="D139">
+        <v>19.7</v>
+      </c>
+      <c r="E139">
+        <v>19.37</v>
+      </c>
       <c r="F139">
         <v>19.1506</v>
       </c>
@@ -2363,6 +4019,18 @@
       <c r="A140" s="2">
         <v>45293.09583333333</v>
       </c>
+      <c r="B140">
+        <v>20.94</v>
+      </c>
+      <c r="C140">
+        <v>21.8</v>
+      </c>
+      <c r="D140">
+        <v>19.72</v>
+      </c>
+      <c r="E140">
+        <v>19.36</v>
+      </c>
       <c r="F140">
         <v>19.1532</v>
       </c>
@@ -2377,6 +4045,18 @@
       <c r="A141" s="2">
         <v>45293.09652777778</v>
       </c>
+      <c r="B141">
+        <v>20.91</v>
+      </c>
+      <c r="C141">
+        <v>21.77</v>
+      </c>
+      <c r="D141">
+        <v>19.77</v>
+      </c>
+      <c r="E141">
+        <v>19.36</v>
+      </c>
       <c r="F141">
         <v>19.164</v>
       </c>
@@ -2391,6 +4071,18 @@
       <c r="A142" s="2">
         <v>45293.09722222222</v>
       </c>
+      <c r="B142">
+        <v>20.92</v>
+      </c>
+      <c r="C142">
+        <v>21.77</v>
+      </c>
+      <c r="D142">
+        <v>19.74</v>
+      </c>
+      <c r="E142">
+        <v>19.35</v>
+      </c>
       <c r="F142">
         <v>19.1559</v>
       </c>
@@ -2405,6 +4097,18 @@
       <c r="A143" s="2">
         <v>45293.09791666667</v>
       </c>
+      <c r="B143">
+        <v>20.89</v>
+      </c>
+      <c r="C143">
+        <v>21.78</v>
+      </c>
+      <c r="D143">
+        <v>19.74</v>
+      </c>
+      <c r="E143">
+        <v>19.34</v>
+      </c>
       <c r="F143">
         <v>19.1398</v>
       </c>
@@ -2419,6 +4123,18 @@
       <c r="A144" s="2">
         <v>45293.09861111111</v>
       </c>
+      <c r="B144">
+        <v>20.92</v>
+      </c>
+      <c r="C144">
+        <v>21.75</v>
+      </c>
+      <c r="D144">
+        <v>19.75</v>
+      </c>
+      <c r="E144">
+        <v>19.37</v>
+      </c>
       <c r="F144">
         <v>19.1452</v>
       </c>
@@ -2433,6 +4149,18 @@
       <c r="A145" s="2">
         <v>45293.09930555556</v>
       </c>
+      <c r="B145">
+        <v>20.87</v>
+      </c>
+      <c r="C145">
+        <v>21.74</v>
+      </c>
+      <c r="D145">
+        <v>19.72</v>
+      </c>
+      <c r="E145">
+        <v>19.32</v>
+      </c>
       <c r="F145">
         <v>19.1452</v>
       </c>
@@ -2447,6 +4175,18 @@
       <c r="A146" s="2">
         <v>45293.1</v>
       </c>
+      <c r="B146">
+        <v>20.86</v>
+      </c>
+      <c r="C146">
+        <v>21.73</v>
+      </c>
+      <c r="D146">
+        <v>19.73</v>
+      </c>
+      <c r="E146">
+        <v>19.29</v>
+      </c>
       <c r="F146">
         <v>19.0835</v>
       </c>
@@ -2461,6 +4201,18 @@
       <c r="A147" s="2">
         <v>45293.10069444445</v>
       </c>
+      <c r="B147">
+        <v>20.88</v>
+      </c>
+      <c r="C147">
+        <v>21.75</v>
+      </c>
+      <c r="D147">
+        <v>19.71</v>
+      </c>
+      <c r="E147">
+        <v>19.29</v>
+      </c>
       <c r="F147">
         <v>19.0246</v>
       </c>
@@ -2475,6 +4227,18 @@
       <c r="A148" s="2">
         <v>45293.10138888889</v>
       </c>
+      <c r="B148">
+        <v>20.86</v>
+      </c>
+      <c r="C148">
+        <v>21.7</v>
+      </c>
+      <c r="D148">
+        <v>19.71</v>
+      </c>
+      <c r="E148">
+        <v>19.28</v>
+      </c>
       <c r="F148">
         <v>19.0138</v>
       </c>
@@ -2489,6 +4253,18 @@
       <c r="A149" s="2">
         <v>45293.10208333333</v>
       </c>
+      <c r="B149">
+        <v>20.88</v>
+      </c>
+      <c r="C149">
+        <v>21.73</v>
+      </c>
+      <c r="D149">
+        <v>19.73</v>
+      </c>
+      <c r="E149">
+        <v>19.29</v>
+      </c>
       <c r="F149">
         <v>18.9951</v>
       </c>
@@ -2503,6 +4279,18 @@
       <c r="A150" s="2">
         <v>45293.10277777778</v>
       </c>
+      <c r="B150">
+        <v>20.9</v>
+      </c>
+      <c r="C150">
+        <v>21.7</v>
+      </c>
+      <c r="D150">
+        <v>19.72</v>
+      </c>
+      <c r="E150">
+        <v>19.29</v>
+      </c>
       <c r="F150">
         <v>19.0165</v>
       </c>
@@ -2517,6 +4305,18 @@
       <c r="A151" s="2">
         <v>45293.10347222222</v>
       </c>
+      <c r="B151">
+        <v>20.83</v>
+      </c>
+      <c r="C151">
+        <v>21.72</v>
+      </c>
+      <c r="D151">
+        <v>19.7</v>
+      </c>
+      <c r="E151">
+        <v>19.3</v>
+      </c>
       <c r="F151">
         <v>19.046</v>
       </c>
@@ -2531,6 +4331,18 @@
       <c r="A152" s="2">
         <v>45293.10416666666</v>
       </c>
+      <c r="B152">
+        <v>20.82</v>
+      </c>
+      <c r="C152">
+        <v>21.69</v>
+      </c>
+      <c r="D152">
+        <v>19.72</v>
+      </c>
+      <c r="E152">
+        <v>19.31</v>
+      </c>
       <c r="F152">
         <v>19.046</v>
       </c>
@@ -2545,6 +4357,18 @@
       <c r="A153" s="2">
         <v>45293.10486111111</v>
       </c>
+      <c r="B153">
+        <v>20.83</v>
+      </c>
+      <c r="C153">
+        <v>21.66</v>
+      </c>
+      <c r="D153">
+        <v>19.65</v>
+      </c>
+      <c r="E153">
+        <v>19.31</v>
+      </c>
       <c r="F153">
         <v>19.0272</v>
       </c>
@@ -2559,6 +4383,18 @@
       <c r="A154" s="2">
         <v>45293.10555555556</v>
       </c>
+      <c r="B154">
+        <v>20.85</v>
+      </c>
+      <c r="C154">
+        <v>21.65</v>
+      </c>
+      <c r="D154">
+        <v>19.66</v>
+      </c>
+      <c r="E154">
+        <v>19.29</v>
+      </c>
       <c r="F154">
         <v>19.0085</v>
       </c>
@@ -2573,6 +4409,18 @@
       <c r="A155" s="2">
         <v>45293.10625</v>
       </c>
+      <c r="B155">
+        <v>20.82</v>
+      </c>
+      <c r="C155">
+        <v>21.63</v>
+      </c>
+      <c r="D155">
+        <v>19.69</v>
+      </c>
+      <c r="E155">
+        <v>19.28</v>
+      </c>
       <c r="F155">
         <v>19.0165</v>
       </c>
@@ -2587,6 +4435,18 @@
       <c r="A156" s="2">
         <v>45293.10694444444</v>
       </c>
+      <c r="B156">
+        <v>20.81</v>
+      </c>
+      <c r="C156">
+        <v>21.63</v>
+      </c>
+      <c r="D156">
+        <v>19.66</v>
+      </c>
+      <c r="E156">
+        <v>19.28</v>
+      </c>
       <c r="F156">
         <v>19.0058</v>
       </c>
@@ -2601,6 +4461,18 @@
       <c r="A157" s="2">
         <v>45293.10763888889</v>
       </c>
+      <c r="B157">
+        <v>20.8</v>
+      </c>
+      <c r="C157">
+        <v>21.62</v>
+      </c>
+      <c r="D157">
+        <v>19.68</v>
+      </c>
+      <c r="E157">
+        <v>19.27</v>
+      </c>
       <c r="F157">
         <v>19.0031</v>
       </c>
@@ -2615,6 +4487,18 @@
       <c r="A158" s="2">
         <v>45293.10833333333</v>
       </c>
+      <c r="B158">
+        <v>20.77</v>
+      </c>
+      <c r="C158">
+        <v>21.62</v>
+      </c>
+      <c r="D158">
+        <v>19.68</v>
+      </c>
+      <c r="E158">
+        <v>19.24</v>
+      </c>
       <c r="F158">
         <v>18.9951</v>
       </c>
@@ -2629,6 +4513,18 @@
       <c r="A159" s="2">
         <v>45293.10902777778</v>
       </c>
+      <c r="B159">
+        <v>20.82</v>
+      </c>
+      <c r="C159">
+        <v>21.58</v>
+      </c>
+      <c r="D159">
+        <v>19.65</v>
+      </c>
+      <c r="E159">
+        <v>19.24</v>
+      </c>
       <c r="F159">
         <v>18.979</v>
       </c>
@@ -2643,6 +4539,18 @@
       <c r="A160" s="2">
         <v>45293.10972222222</v>
       </c>
+      <c r="B160">
+        <v>20.78</v>
+      </c>
+      <c r="C160">
+        <v>21.61</v>
+      </c>
+      <c r="D160">
+        <v>19.61</v>
+      </c>
+      <c r="E160">
+        <v>19.26</v>
+      </c>
       <c r="F160">
         <v>18.9709</v>
       </c>
@@ -2657,6 +4565,18 @@
       <c r="A161" s="2">
         <v>45293.11041666667</v>
       </c>
+      <c r="B161">
+        <v>20.79</v>
+      </c>
+      <c r="C161">
+        <v>21.57</v>
+      </c>
+      <c r="D161">
+        <v>19.64</v>
+      </c>
+      <c r="E161">
+        <v>19.21</v>
+      </c>
       <c r="F161">
         <v>18.9709</v>
       </c>
@@ -2671,6 +4591,18 @@
       <c r="A162" s="2">
         <v>45293.11111111111</v>
       </c>
+      <c r="B162">
+        <v>20.75</v>
+      </c>
+      <c r="C162">
+        <v>21.59</v>
+      </c>
+      <c r="D162">
+        <v>19.61</v>
+      </c>
+      <c r="E162">
+        <v>19.2</v>
+      </c>
       <c r="F162">
         <v>18.9763</v>
       </c>
@@ -2685,6 +4617,18 @@
       <c r="A163" s="2">
         <v>45293.11180555556</v>
       </c>
+      <c r="B163">
+        <v>20.71</v>
+      </c>
+      <c r="C163">
+        <v>21.57</v>
+      </c>
+      <c r="D163">
+        <v>19.64</v>
+      </c>
+      <c r="E163">
+        <v>19.21</v>
+      </c>
       <c r="F163">
         <v>18.9468</v>
       </c>
@@ -2699,6 +4643,18 @@
       <c r="A164" s="2">
         <v>45293.1125</v>
       </c>
+      <c r="B164">
+        <v>20.76</v>
+      </c>
+      <c r="C164">
+        <v>21.55</v>
+      </c>
+      <c r="D164">
+        <v>19.6</v>
+      </c>
+      <c r="E164">
+        <v>19.23</v>
+      </c>
       <c r="F164">
         <v>18.9307</v>
       </c>
@@ -2713,6 +4669,18 @@
       <c r="A165" s="2">
         <v>45293.11319444444</v>
       </c>
+      <c r="B165">
+        <v>20.72</v>
+      </c>
+      <c r="C165">
+        <v>21.55</v>
+      </c>
+      <c r="D165">
+        <v>19.63</v>
+      </c>
+      <c r="E165">
+        <v>19.27</v>
+      </c>
       <c r="F165">
         <v>18.9709</v>
       </c>
@@ -2727,6 +4695,18 @@
       <c r="A166" s="2">
         <v>45293.11388888889</v>
       </c>
+      <c r="B166">
+        <v>20.73</v>
+      </c>
+      <c r="C166">
+        <v>21.53</v>
+      </c>
+      <c r="D166">
+        <v>19.59</v>
+      </c>
+      <c r="E166">
+        <v>19.24</v>
+      </c>
       <c r="F166">
         <v>19.0004</v>
       </c>
@@ -2741,6 +4721,18 @@
       <c r="A167" s="2">
         <v>45293.11458333334</v>
       </c>
+      <c r="B167">
+        <v>20.74</v>
+      </c>
+      <c r="C167">
+        <v>21.53</v>
+      </c>
+      <c r="D167">
+        <v>19.59</v>
+      </c>
+      <c r="E167">
+        <v>19.25</v>
+      </c>
       <c r="F167">
         <v>19.0031</v>
       </c>
@@ -2755,6 +4747,18 @@
       <c r="A168" s="2">
         <v>45293.11527777778</v>
       </c>
+      <c r="B168">
+        <v>20.73</v>
+      </c>
+      <c r="C168">
+        <v>21.52</v>
+      </c>
+      <c r="D168">
+        <v>19.61</v>
+      </c>
+      <c r="E168">
+        <v>19.26</v>
+      </c>
       <c r="F168">
         <v>19.0058</v>
       </c>
@@ -2769,6 +4773,18 @@
       <c r="A169" s="2">
         <v>45293.11597222222</v>
       </c>
+      <c r="B169">
+        <v>20.74</v>
+      </c>
+      <c r="C169">
+        <v>21.51</v>
+      </c>
+      <c r="D169">
+        <v>19.6</v>
+      </c>
+      <c r="E169">
+        <v>19.27</v>
+      </c>
       <c r="F169">
         <v>19.0219</v>
       </c>
@@ -2783,6 +4799,18 @@
       <c r="A170" s="2">
         <v>45293.11666666667</v>
       </c>
+      <c r="B170">
+        <v>20.7</v>
+      </c>
+      <c r="C170">
+        <v>21.51</v>
+      </c>
+      <c r="D170">
+        <v>19.58</v>
+      </c>
+      <c r="E170">
+        <v>19.26</v>
+      </c>
       <c r="F170">
         <v>19.0567</v>
       </c>
@@ -2797,6 +4825,18 @@
       <c r="A171" s="2">
         <v>45293.11736111111</v>
       </c>
+      <c r="B171">
+        <v>20.71</v>
+      </c>
+      <c r="C171">
+        <v>21.48</v>
+      </c>
+      <c r="D171">
+        <v>19.6</v>
+      </c>
+      <c r="E171">
+        <v>19.2</v>
+      </c>
       <c r="F171">
         <v>19.0594</v>
       </c>
@@ -2811,6 +4851,18 @@
       <c r="A172" s="2">
         <v>45293.11805555555</v>
       </c>
+      <c r="B172">
+        <v>20.69</v>
+      </c>
+      <c r="C172">
+        <v>21.5</v>
+      </c>
+      <c r="D172">
+        <v>19.57</v>
+      </c>
+      <c r="E172">
+        <v>19.24</v>
+      </c>
       <c r="F172">
         <v>19.0541</v>
       </c>
@@ -2825,6 +4877,18 @@
       <c r="A173" s="2">
         <v>45293.11875</v>
       </c>
+      <c r="B173">
+        <v>20.67</v>
+      </c>
+      <c r="C173">
+        <v>21.49</v>
+      </c>
+      <c r="D173">
+        <v>19.58</v>
+      </c>
+      <c r="E173">
+        <v>19.2</v>
+      </c>
       <c r="F173">
         <v>19.046</v>
       </c>
@@ -2839,6 +4903,18 @@
       <c r="A174" s="2">
         <v>45293.11944444444</v>
       </c>
+      <c r="B174">
+        <v>20.72</v>
+      </c>
+      <c r="C174">
+        <v>21.48</v>
+      </c>
+      <c r="D174">
+        <v>19.57</v>
+      </c>
+      <c r="E174">
+        <v>19.25</v>
+      </c>
       <c r="F174">
         <v>19.0433</v>
       </c>
@@ -2853,6 +4929,18 @@
       <c r="A175" s="2">
         <v>45293.12013888889</v>
       </c>
+      <c r="B175">
+        <v>20.64</v>
+      </c>
+      <c r="C175">
+        <v>21.47</v>
+      </c>
+      <c r="D175">
+        <v>19.59</v>
+      </c>
+      <c r="E175">
+        <v>19.25</v>
+      </c>
       <c r="F175">
         <v>19.0648</v>
       </c>
@@ -2867,6 +4955,18 @@
       <c r="A176" s="2">
         <v>45293.12083333333</v>
       </c>
+      <c r="B176">
+        <v>20.64</v>
+      </c>
+      <c r="C176">
+        <v>21.44</v>
+      </c>
+      <c r="D176">
+        <v>19.54</v>
+      </c>
+      <c r="E176">
+        <v>19.25</v>
+      </c>
       <c r="F176">
         <v>19.0755</v>
       </c>
@@ -2881,6 +4981,18 @@
       <c r="A177" s="2">
         <v>45293.12152777778</v>
       </c>
+      <c r="B177">
+        <v>20.63</v>
+      </c>
+      <c r="C177">
+        <v>21.44</v>
+      </c>
+      <c r="D177">
+        <v>19.54</v>
+      </c>
+      <c r="E177">
+        <v>19.22</v>
+      </c>
       <c r="F177">
         <v>19.0728</v>
       </c>
@@ -2895,6 +5007,18 @@
       <c r="A178" s="2">
         <v>45293.12222222222</v>
       </c>
+      <c r="B178">
+        <v>20.69</v>
+      </c>
+      <c r="C178">
+        <v>21.45</v>
+      </c>
+      <c r="D178">
+        <v>19.57</v>
+      </c>
+      <c r="E178">
+        <v>19.17</v>
+      </c>
       <c r="F178">
         <v>19.0272</v>
       </c>
@@ -2909,6 +5033,18 @@
       <c r="A179" s="2">
         <v>45293.12291666667</v>
       </c>
+      <c r="B179">
+        <v>20.66</v>
+      </c>
+      <c r="C179">
+        <v>21.41</v>
+      </c>
+      <c r="D179">
+        <v>19.59</v>
+      </c>
+      <c r="E179">
+        <v>19.18</v>
+      </c>
       <c r="F179">
         <v>18.9897</v>
       </c>
@@ -2923,6 +5059,18 @@
       <c r="A180" s="2">
         <v>45293.12361111111</v>
       </c>
+      <c r="B180">
+        <v>20.65</v>
+      </c>
+      <c r="C180">
+        <v>21.45</v>
+      </c>
+      <c r="D180">
+        <v>19.56</v>
+      </c>
+      <c r="E180">
+        <v>19.18</v>
+      </c>
       <c r="F180">
         <v>18.9736</v>
       </c>
@@ -2937,6 +5085,18 @@
       <c r="A181" s="2">
         <v>45293.12430555555</v>
       </c>
+      <c r="B181">
+        <v>20.61</v>
+      </c>
+      <c r="C181">
+        <v>21.41</v>
+      </c>
+      <c r="D181">
+        <v>19.53</v>
+      </c>
+      <c r="E181">
+        <v>19.17</v>
+      </c>
       <c r="F181">
         <v>18.9629</v>
       </c>
@@ -2951,6 +5111,18 @@
       <c r="A182" s="2">
         <v>45293.125</v>
       </c>
+      <c r="B182">
+        <v>20.64</v>
+      </c>
+      <c r="C182">
+        <v>21.44</v>
+      </c>
+      <c r="D182">
+        <v>19.58</v>
+      </c>
+      <c r="E182">
+        <v>19.16</v>
+      </c>
       <c r="F182">
         <v>18.9414</v>
       </c>
@@ -2965,6 +5137,18 @@
       <c r="A183" s="2">
         <v>45293.12569444445</v>
       </c>
+      <c r="B183">
+        <v>20.59</v>
+      </c>
+      <c r="C183">
+        <v>21.39</v>
+      </c>
+      <c r="D183">
+        <v>19.52</v>
+      </c>
+      <c r="E183">
+        <v>19.15</v>
+      </c>
       <c r="F183">
         <v>18.9227</v>
       </c>
@@ -2979,6 +5163,18 @@
       <c r="A184" s="2">
         <v>45293.12638888889</v>
       </c>
+      <c r="B184">
+        <v>20.61</v>
+      </c>
+      <c r="C184">
+        <v>21.41</v>
+      </c>
+      <c r="D184">
+        <v>19.54</v>
+      </c>
+      <c r="E184">
+        <v>19.17</v>
+      </c>
       <c r="F184">
         <v>18.9307</v>
       </c>
@@ -2993,6 +5189,18 @@
       <c r="A185" s="2">
         <v>45293.12708333333</v>
       </c>
+      <c r="B185">
+        <v>20.59</v>
+      </c>
+      <c r="C185">
+        <v>21.37</v>
+      </c>
+      <c r="D185">
+        <v>19.51</v>
+      </c>
+      <c r="E185">
+        <v>19.11</v>
+      </c>
       <c r="F185">
         <v>18.9254</v>
       </c>
@@ -3007,6 +5215,18 @@
       <c r="A186" s="2">
         <v>45293.12777777778</v>
       </c>
+      <c r="B186">
+        <v>20.59</v>
+      </c>
+      <c r="C186">
+        <v>21.39</v>
+      </c>
+      <c r="D186">
+        <v>19.51</v>
+      </c>
+      <c r="E186">
+        <v>19.18</v>
+      </c>
       <c r="F186">
         <v>18.9414</v>
       </c>
@@ -3021,6 +5241,18 @@
       <c r="A187" s="2">
         <v>45293.12847222222</v>
       </c>
+      <c r="B187">
+        <v>20.57</v>
+      </c>
+      <c r="C187">
+        <v>21.38</v>
+      </c>
+      <c r="D187">
+        <v>19.49</v>
+      </c>
+      <c r="E187">
+        <v>19.19</v>
+      </c>
       <c r="F187">
         <v>18.9817</v>
       </c>
@@ -3035,6 +5267,18 @@
       <c r="A188" s="2">
         <v>45293.12916666667</v>
       </c>
+      <c r="B188">
+        <v>20.59</v>
+      </c>
+      <c r="C188">
+        <v>21.36</v>
+      </c>
+      <c r="D188">
+        <v>19.51</v>
+      </c>
+      <c r="E188">
+        <v>19.16</v>
+      </c>
       <c r="F188">
         <v>19.0058</v>
       </c>
@@ -3049,6 +5293,18 @@
       <c r="A189" s="2">
         <v>45293.12986111111</v>
       </c>
+      <c r="B189">
+        <v>20.58</v>
+      </c>
+      <c r="C189">
+        <v>21.35</v>
+      </c>
+      <c r="D189">
+        <v>19.52</v>
+      </c>
+      <c r="E189">
+        <v>19.13</v>
+      </c>
       <c r="F189">
         <v>19.0165</v>
       </c>
@@ -3063,6 +5319,18 @@
       <c r="A190" s="2">
         <v>45293.13055555556</v>
       </c>
+      <c r="B190">
+        <v>20.57</v>
+      </c>
+      <c r="C190">
+        <v>21.33</v>
+      </c>
+      <c r="D190">
+        <v>19.51</v>
+      </c>
+      <c r="E190">
+        <v>19.13</v>
+      </c>
       <c r="F190">
         <v>19.0031</v>
       </c>
@@ -3077,6 +5345,18 @@
       <c r="A191" s="2">
         <v>45293.13125</v>
       </c>
+      <c r="B191">
+        <v>20.55</v>
+      </c>
+      <c r="C191">
+        <v>21.35</v>
+      </c>
+      <c r="D191">
+        <v>19.48</v>
+      </c>
+      <c r="E191">
+        <v>19.12</v>
+      </c>
       <c r="F191">
         <v>18.9468</v>
       </c>
@@ -3091,6 +5371,18 @@
       <c r="A192" s="2">
         <v>45293.13194444445</v>
       </c>
+      <c r="B192">
+        <v>20.56</v>
+      </c>
+      <c r="C192">
+        <v>21.3</v>
+      </c>
+      <c r="D192">
+        <v>19.47</v>
+      </c>
+      <c r="E192">
+        <v>19.1</v>
+      </c>
       <c r="F192">
         <v>18.8959</v>
       </c>
@@ -3105,6 +5397,18 @@
       <c r="A193" s="2">
         <v>45293.13263888889</v>
       </c>
+      <c r="B193">
+        <v>20.52</v>
+      </c>
+      <c r="C193">
+        <v>21.32</v>
+      </c>
+      <c r="D193">
+        <v>19.5</v>
+      </c>
+      <c r="E193">
+        <v>19.1</v>
+      </c>
       <c r="F193">
         <v>18.853</v>
       </c>
@@ -3119,6 +5423,18 @@
       <c r="A194" s="2">
         <v>45293.13333333333</v>
       </c>
+      <c r="B194">
+        <v>20.5</v>
+      </c>
+      <c r="C194">
+        <v>21.31</v>
+      </c>
+      <c r="D194">
+        <v>19.46</v>
+      </c>
+      <c r="E194">
+        <v>19.08</v>
+      </c>
       <c r="F194">
         <v>18.8315</v>
       </c>
@@ -3133,6 +5449,18 @@
       <c r="A195" s="2">
         <v>45293.13402777778</v>
       </c>
+      <c r="B195">
+        <v>20.53</v>
+      </c>
+      <c r="C195">
+        <v>21.3</v>
+      </c>
+      <c r="D195">
+        <v>19.43</v>
+      </c>
+      <c r="E195">
+        <v>19.11</v>
+      </c>
       <c r="F195">
         <v>18.8342</v>
       </c>
@@ -3147,6 +5475,18 @@
       <c r="A196" s="2">
         <v>45293.13472222222</v>
       </c>
+      <c r="B196">
+        <v>20.49</v>
+      </c>
+      <c r="C196">
+        <v>21.27</v>
+      </c>
+      <c r="D196">
+        <v>19.45</v>
+      </c>
+      <c r="E196">
+        <v>19.08</v>
+      </c>
       <c r="F196">
         <v>18.8315</v>
       </c>
@@ -3161,6 +5501,18 @@
       <c r="A197" s="2">
         <v>45293.13541666666</v>
       </c>
+      <c r="B197">
+        <v>20.5</v>
+      </c>
+      <c r="C197">
+        <v>21.31</v>
+      </c>
+      <c r="D197">
+        <v>19.48</v>
+      </c>
+      <c r="E197">
+        <v>19.07</v>
+      </c>
       <c r="F197">
         <v>18.8288</v>
       </c>
@@ -3175,6 +5527,18 @@
       <c r="A198" s="2">
         <v>45293.13611111111</v>
       </c>
+      <c r="B198">
+        <v>20.49</v>
+      </c>
+      <c r="C198">
+        <v>21.28</v>
+      </c>
+      <c r="D198">
+        <v>19.47</v>
+      </c>
+      <c r="E198">
+        <v>19.06</v>
+      </c>
       <c r="F198">
         <v>18.8369</v>
       </c>
@@ -3189,6 +5553,18 @@
       <c r="A199" s="2">
         <v>45293.13680555556</v>
       </c>
+      <c r="B199">
+        <v>20.52</v>
+      </c>
+      <c r="C199">
+        <v>21.24</v>
+      </c>
+      <c r="D199">
+        <v>19.45</v>
+      </c>
+      <c r="E199">
+        <v>19.14</v>
+      </c>
       <c r="F199">
         <v>18.853</v>
       </c>
@@ -3203,6 +5579,18 @@
       <c r="A200" s="2">
         <v>45293.1375</v>
       </c>
+      <c r="B200">
+        <v>20.51</v>
+      </c>
+      <c r="C200">
+        <v>21.21</v>
+      </c>
+      <c r="D200">
+        <v>19.45</v>
+      </c>
+      <c r="E200">
+        <v>19.1</v>
+      </c>
       <c r="F200">
         <v>18.8691</v>
       </c>
@@ -3217,6 +5605,18 @@
       <c r="A201" s="2">
         <v>45293.13819444444</v>
       </c>
+      <c r="B201">
+        <v>20.51</v>
+      </c>
+      <c r="C201">
+        <v>21.2</v>
+      </c>
+      <c r="D201">
+        <v>19.39</v>
+      </c>
+      <c r="E201">
+        <v>19.12</v>
+      </c>
       <c r="F201">
         <v>18.8905</v>
       </c>
@@ -3231,6 +5631,18 @@
       <c r="A202" s="2">
         <v>45293.13888888889</v>
       </c>
+      <c r="B202">
+        <v>20.59</v>
+      </c>
+      <c r="C202">
+        <v>21.04</v>
+      </c>
+      <c r="D202">
+        <v>19.44</v>
+      </c>
+      <c r="E202">
+        <v>19.1</v>
+      </c>
       <c r="F202">
         <v>18.92</v>
       </c>
@@ -3245,6 +5657,18 @@
       <c r="A203" s="2">
         <v>45293.13958333333</v>
       </c>
+      <c r="B203">
+        <v>20.48</v>
+      </c>
+      <c r="C203">
+        <v>21.26</v>
+      </c>
+      <c r="D203">
+        <v>19.41</v>
+      </c>
+      <c r="E203">
+        <v>19.06</v>
+      </c>
       <c r="F203">
         <v>18.9414</v>
       </c>
@@ -3259,6 +5683,18 @@
       <c r="A204" s="2">
         <v>45293.14027777778</v>
       </c>
+      <c r="B204">
+        <v>20.44</v>
+      </c>
+      <c r="C204">
+        <v>21.25</v>
+      </c>
+      <c r="D204">
+        <v>19.41</v>
+      </c>
+      <c r="E204">
+        <v>19.08</v>
+      </c>
       <c r="F204">
         <v>18.9414</v>
       </c>
@@ -3273,6 +5709,18 @@
       <c r="A205" s="2">
         <v>45293.14097222222</v>
       </c>
+      <c r="B205">
+        <v>20.46</v>
+      </c>
+      <c r="C205">
+        <v>21.14</v>
+      </c>
+      <c r="D205">
+        <v>19.41</v>
+      </c>
+      <c r="E205">
+        <v>19.08</v>
+      </c>
       <c r="F205">
         <v>18.9227</v>
       </c>
@@ -3287,6 +5735,18 @@
       <c r="A206" s="2">
         <v>45293.14166666667</v>
       </c>
+      <c r="B206">
+        <v>20.43</v>
+      </c>
+      <c r="C206">
+        <v>21.2</v>
+      </c>
+      <c r="D206">
+        <v>19.4</v>
+      </c>
+      <c r="E206">
+        <v>19.07</v>
+      </c>
       <c r="F206">
         <v>18.9012</v>
       </c>
@@ -3301,6 +5761,18 @@
       <c r="A207" s="2">
         <v>45293.14236111111</v>
       </c>
+      <c r="B207">
+        <v>20.44</v>
+      </c>
+      <c r="C207">
+        <v>21.21</v>
+      </c>
+      <c r="D207">
+        <v>19.39</v>
+      </c>
+      <c r="E207">
+        <v>19.05</v>
+      </c>
       <c r="F207">
         <v>18.8878</v>
       </c>
@@ -3315,6 +5787,18 @@
       <c r="A208" s="2">
         <v>45293.14305555556</v>
       </c>
+      <c r="B208">
+        <v>20.45</v>
+      </c>
+      <c r="C208">
+        <v>21.21</v>
+      </c>
+      <c r="D208">
+        <v>19.38</v>
+      </c>
+      <c r="E208">
+        <v>19.07</v>
+      </c>
       <c r="F208">
         <v>18.8851</v>
       </c>
@@ -3329,6 +5813,18 @@
       <c r="A209" s="2">
         <v>45293.14375</v>
       </c>
+      <c r="B209">
+        <v>20.43</v>
+      </c>
+      <c r="C209">
+        <v>21.22</v>
+      </c>
+      <c r="D209">
+        <v>19.45</v>
+      </c>
+      <c r="E209">
+        <v>19.06</v>
+      </c>
       <c r="F209">
         <v>18.8798</v>
       </c>
@@ -3343,6 +5839,18 @@
       <c r="A210" s="2">
         <v>45293.14444444444</v>
       </c>
+      <c r="B210">
+        <v>20.44</v>
+      </c>
+      <c r="C210">
+        <v>21.22</v>
+      </c>
+      <c r="D210">
+        <v>19.4</v>
+      </c>
+      <c r="E210">
+        <v>19.02</v>
+      </c>
       <c r="F210">
         <v>18.8744</v>
       </c>
@@ -3357,6 +5865,18 @@
       <c r="A211" s="2">
         <v>45293.14513888889</v>
       </c>
+      <c r="B211">
+        <v>20.41</v>
+      </c>
+      <c r="C211">
+        <v>21.17</v>
+      </c>
+      <c r="D211">
+        <v>19.39</v>
+      </c>
+      <c r="E211">
+        <v>19.07</v>
+      </c>
       <c r="F211">
         <v>18.8825</v>
       </c>
@@ -3371,6 +5891,18 @@
       <c r="A212" s="2">
         <v>45293.14583333334</v>
       </c>
+      <c r="B212">
+        <v>20.43</v>
+      </c>
+      <c r="C212">
+        <v>21.16</v>
+      </c>
+      <c r="D212">
+        <v>19.39</v>
+      </c>
+      <c r="E212">
+        <v>19.06</v>
+      </c>
       <c r="F212">
         <v>18.8825</v>
       </c>
@@ -3385,6 +5917,18 @@
       <c r="A213" s="2">
         <v>45293.14652777778</v>
       </c>
+      <c r="B213">
+        <v>20.39</v>
+      </c>
+      <c r="C213">
+        <v>21.16</v>
+      </c>
+      <c r="D213">
+        <v>19.41</v>
+      </c>
+      <c r="E213">
+        <v>19.03</v>
+      </c>
       <c r="F213">
         <v>18.8583</v>
       </c>
@@ -3399,6 +5943,18 @@
       <c r="A214" s="2">
         <v>45293.14722222222</v>
       </c>
+      <c r="B214">
+        <v>20.41</v>
+      </c>
+      <c r="C214">
+        <v>21.18</v>
+      </c>
+      <c r="D214">
+        <v>19.39</v>
+      </c>
+      <c r="E214">
+        <v>19.08</v>
+      </c>
       <c r="F214">
         <v>18.8664</v>
       </c>
@@ -3413,6 +5969,18 @@
       <c r="A215" s="2">
         <v>45293.14791666667</v>
       </c>
+      <c r="B215">
+        <v>20.38</v>
+      </c>
+      <c r="C215">
+        <v>21.14</v>
+      </c>
+      <c r="D215">
+        <v>19.38</v>
+      </c>
+      <c r="E215">
+        <v>19.07</v>
+      </c>
       <c r="F215">
         <v>18.8744</v>
       </c>
@@ -3427,6 +5995,18 @@
       <c r="A216" s="2">
         <v>45293.14861111111</v>
       </c>
+      <c r="B216">
+        <v>20.38</v>
+      </c>
+      <c r="C216">
+        <v>21.14</v>
+      </c>
+      <c r="D216">
+        <v>19.34</v>
+      </c>
+      <c r="E216">
+        <v>19.02</v>
+      </c>
       <c r="F216">
         <v>18.8771</v>
       </c>
@@ -3441,6 +6021,18 @@
       <c r="A217" s="2">
         <v>45293.14930555555</v>
       </c>
+      <c r="B217">
+        <v>20.36</v>
+      </c>
+      <c r="C217">
+        <v>21.16</v>
+      </c>
+      <c r="D217">
+        <v>19.38</v>
+      </c>
+      <c r="E217">
+        <v>19.06</v>
+      </c>
       <c r="F217">
         <v>18.8851</v>
       </c>
@@ -3455,6 +6047,18 @@
       <c r="A218" s="2">
         <v>45293.15</v>
       </c>
+      <c r="B218">
+        <v>20.37</v>
+      </c>
+      <c r="C218">
+        <v>21.13</v>
+      </c>
+      <c r="D218">
+        <v>19.36</v>
+      </c>
+      <c r="E218">
+        <v>19.02</v>
+      </c>
       <c r="F218">
         <v>18.9039</v>
       </c>
@@ -3469,6 +6073,18 @@
       <c r="A219" s="2">
         <v>45293.15069444444</v>
       </c>
+      <c r="B219">
+        <v>20.41</v>
+      </c>
+      <c r="C219">
+        <v>21.12</v>
+      </c>
+      <c r="D219">
+        <v>19.33</v>
+      </c>
+      <c r="E219">
+        <v>19.03</v>
+      </c>
       <c r="F219">
         <v>18.8932</v>
       </c>
@@ -3483,6 +6099,18 @@
       <c r="A220" s="2">
         <v>45293.15138888889</v>
       </c>
+      <c r="B220">
+        <v>20.37</v>
+      </c>
+      <c r="C220">
+        <v>21.12</v>
+      </c>
+      <c r="D220">
+        <v>19.33</v>
+      </c>
+      <c r="E220">
+        <v>19.06</v>
+      </c>
       <c r="F220">
         <v>18.9093</v>
       </c>
@@ -3497,6 +6125,18 @@
       <c r="A221" s="2">
         <v>45293.15208333333</v>
       </c>
+      <c r="B221">
+        <v>20.34</v>
+      </c>
+      <c r="C221">
+        <v>21.11</v>
+      </c>
+      <c r="D221">
+        <v>19.38</v>
+      </c>
+      <c r="E221">
+        <v>19.05</v>
+      </c>
       <c r="F221">
         <v>18.9334</v>
       </c>
@@ -3511,6 +6151,18 @@
       <c r="A222" s="2">
         <v>45293.15277777778</v>
       </c>
+      <c r="B222">
+        <v>20.35</v>
+      </c>
+      <c r="C222">
+        <v>21.1</v>
+      </c>
+      <c r="D222">
+        <v>19.33</v>
+      </c>
+      <c r="E222">
+        <v>19.05</v>
+      </c>
       <c r="F222">
         <v>18.9575</v>
       </c>
@@ -3525,6 +6177,18 @@
       <c r="A223" s="2">
         <v>45293.15347222222</v>
       </c>
+      <c r="B223">
+        <v>20.31</v>
+      </c>
+      <c r="C223">
+        <v>21.07</v>
+      </c>
+      <c r="D223">
+        <v>19.38</v>
+      </c>
+      <c r="E223">
+        <v>19.12</v>
+      </c>
       <c r="F223">
         <v>18.9924</v>
       </c>
@@ -3539,6 +6203,18 @@
       <c r="A224" s="2">
         <v>45293.15416666667</v>
       </c>
+      <c r="B224">
+        <v>20.31</v>
+      </c>
+      <c r="C224">
+        <v>21.09</v>
+      </c>
+      <c r="D224">
+        <v>19.36</v>
+      </c>
+      <c r="E224">
+        <v>19.08</v>
+      </c>
       <c r="F224">
         <v>19.0433</v>
       </c>
@@ -3553,6 +6229,18 @@
       <c r="A225" s="2">
         <v>45293.15486111111</v>
       </c>
+      <c r="B225">
+        <v>20.3</v>
+      </c>
+      <c r="C225">
+        <v>21.08</v>
+      </c>
+      <c r="D225">
+        <v>19.4</v>
+      </c>
+      <c r="E225">
+        <v>19.08</v>
+      </c>
       <c r="F225">
         <v>19.0728</v>
       </c>
@@ -3567,6 +6255,18 @@
       <c r="A226" s="2">
         <v>45293.15555555555</v>
       </c>
+      <c r="B226">
+        <v>20.33</v>
+      </c>
+      <c r="C226">
+        <v>21.1</v>
+      </c>
+      <c r="D226">
+        <v>19.36</v>
+      </c>
+      <c r="E226">
+        <v>19.1</v>
+      </c>
       <c r="F226">
         <v>19.0889</v>
       </c>
@@ -3581,6 +6281,18 @@
       <c r="A227" s="2">
         <v>45293.15625</v>
       </c>
+      <c r="B227">
+        <v>20.29</v>
+      </c>
+      <c r="C227">
+        <v>21.1</v>
+      </c>
+      <c r="D227">
+        <v>19.36</v>
+      </c>
+      <c r="E227">
+        <v>19.11</v>
+      </c>
       <c r="F227">
         <v>19.1023</v>
       </c>
@@ -3595,6 +6307,18 @@
       <c r="A228" s="2">
         <v>45293.15694444445</v>
       </c>
+      <c r="B228">
+        <v>20.29</v>
+      </c>
+      <c r="C228">
+        <v>21.07</v>
+      </c>
+      <c r="D228">
+        <v>19.37</v>
+      </c>
+      <c r="E228">
+        <v>19.1</v>
+      </c>
       <c r="F228">
         <v>19.1238</v>
       </c>
@@ -3609,6 +6333,18 @@
       <c r="A229" s="2">
         <v>45293.15763888889</v>
       </c>
+      <c r="B229">
+        <v>20.28</v>
+      </c>
+      <c r="C229">
+        <v>21.05</v>
+      </c>
+      <c r="D229">
+        <v>19.36</v>
+      </c>
+      <c r="E229">
+        <v>19.12</v>
+      </c>
       <c r="F229">
         <v>19.1211</v>
       </c>
@@ -3623,6 +6359,18 @@
       <c r="A230" s="2">
         <v>45293.15833333333</v>
       </c>
+      <c r="B230">
+        <v>20.29</v>
+      </c>
+      <c r="C230">
+        <v>21.05</v>
+      </c>
+      <c r="D230">
+        <v>19.38</v>
+      </c>
+      <c r="E230">
+        <v>19.11</v>
+      </c>
       <c r="F230">
         <v>19.1211</v>
       </c>
@@ -3637,6 +6385,18 @@
       <c r="A231" s="2">
         <v>45293.15902777778</v>
       </c>
+      <c r="B231">
+        <v>20.31</v>
+      </c>
+      <c r="C231">
+        <v>21.04</v>
+      </c>
+      <c r="D231">
+        <v>19.34</v>
+      </c>
+      <c r="E231">
+        <v>19.08</v>
+      </c>
       <c r="F231">
         <v>19.113</v>
       </c>
@@ -3651,6 +6411,18 @@
       <c r="A232" s="2">
         <v>45293.15972222222</v>
       </c>
+      <c r="B232">
+        <v>20.3</v>
+      </c>
+      <c r="C232">
+        <v>21.03</v>
+      </c>
+      <c r="D232">
+        <v>19.35</v>
+      </c>
+      <c r="E232">
+        <v>19.1</v>
+      </c>
       <c r="F232">
         <v>19.0996</v>
       </c>
@@ -3665,6 +6437,18 @@
       <c r="A233" s="2">
         <v>45293.16041666667</v>
       </c>
+      <c r="B233">
+        <v>20.28</v>
+      </c>
+      <c r="C233">
+        <v>21</v>
+      </c>
+      <c r="D233">
+        <v>19.38</v>
+      </c>
+      <c r="E233">
+        <v>19.08</v>
+      </c>
       <c r="F233">
         <v>19.0835</v>
       </c>
@@ -3679,6 +6463,18 @@
       <c r="A234" s="2">
         <v>45293.16111111111</v>
       </c>
+      <c r="B234">
+        <v>20.26</v>
+      </c>
+      <c r="C234">
+        <v>20.99</v>
+      </c>
+      <c r="D234">
+        <v>19.34</v>
+      </c>
+      <c r="E234">
+        <v>19.09</v>
+      </c>
       <c r="F234">
         <v>19.0728</v>
       </c>
@@ -3693,6 +6489,18 @@
       <c r="A235" s="2">
         <v>45293.16180555556</v>
       </c>
+      <c r="B235">
+        <v>20.22</v>
+      </c>
+      <c r="C235">
+        <v>21</v>
+      </c>
+      <c r="D235">
+        <v>19.33</v>
+      </c>
+      <c r="E235">
+        <v>19.04</v>
+      </c>
       <c r="F235">
         <v>19.0701</v>
       </c>
@@ -3707,6 +6515,18 @@
       <c r="A236" s="2">
         <v>45293.1625</v>
       </c>
+      <c r="B236">
+        <v>20.28</v>
+      </c>
+      <c r="C236">
+        <v>20.99</v>
+      </c>
+      <c r="D236">
+        <v>19.33</v>
+      </c>
+      <c r="E236">
+        <v>19.07</v>
+      </c>
       <c r="F236">
         <v>19.0541</v>
       </c>
@@ -3721,6 +6541,18 @@
       <c r="A237" s="2">
         <v>45293.16319444445</v>
       </c>
+      <c r="B237">
+        <v>20.24</v>
+      </c>
+      <c r="C237">
+        <v>21.02</v>
+      </c>
+      <c r="D237">
+        <v>19.35</v>
+      </c>
+      <c r="E237">
+        <v>19.04</v>
+      </c>
       <c r="F237">
         <v>19.0541</v>
       </c>
@@ -3735,6 +6567,18 @@
       <c r="A238" s="2">
         <v>45293.16388888889</v>
       </c>
+      <c r="B238">
+        <v>20.21</v>
+      </c>
+      <c r="C238">
+        <v>20.98</v>
+      </c>
+      <c r="D238">
+        <v>19.33</v>
+      </c>
+      <c r="E238">
+        <v>19.07</v>
+      </c>
       <c r="F238">
         <v>19.0541</v>
       </c>
@@ -3749,6 +6593,18 @@
       <c r="A239" s="2">
         <v>45293.16458333333</v>
       </c>
+      <c r="B239">
+        <v>20.22</v>
+      </c>
+      <c r="C239">
+        <v>20.99</v>
+      </c>
+      <c r="D239">
+        <v>19.32</v>
+      </c>
+      <c r="E239">
+        <v>19.04</v>
+      </c>
       <c r="F239">
         <v>19.0541</v>
       </c>
@@ -3763,6 +6619,18 @@
       <c r="A240" s="2">
         <v>45293.16527777778</v>
       </c>
+      <c r="B240">
+        <v>20.21</v>
+      </c>
+      <c r="C240">
+        <v>20.99</v>
+      </c>
+      <c r="D240">
+        <v>19.32</v>
+      </c>
+      <c r="E240">
+        <v>19.01</v>
+      </c>
       <c r="F240">
         <v>19.0138</v>
       </c>
@@ -3777,6 +6645,18 @@
       <c r="A241" s="2">
         <v>45293.16597222222</v>
       </c>
+      <c r="B241">
+        <v>20.2</v>
+      </c>
+      <c r="C241">
+        <v>20.94</v>
+      </c>
+      <c r="D241">
+        <v>19.33</v>
+      </c>
+      <c r="E241">
+        <v>19.03</v>
+      </c>
       <c r="F241">
         <v>18.9549</v>
       </c>
@@ -3791,6 +6671,18 @@
       <c r="A242" s="2">
         <v>45293.16666666666</v>
       </c>
+      <c r="B242">
+        <v>20.24</v>
+      </c>
+      <c r="C242">
+        <v>21</v>
+      </c>
+      <c r="D242">
+        <v>19.33</v>
+      </c>
+      <c r="E242">
+        <v>18.98</v>
+      </c>
       <c r="F242">
         <v>18.9307</v>
       </c>
@@ -3805,6 +6697,18 @@
       <c r="A243" s="2">
         <v>45293.16736111111</v>
       </c>
+      <c r="B243">
+        <v>20.23</v>
+      </c>
+      <c r="C243">
+        <v>20.96</v>
+      </c>
+      <c r="D243">
+        <v>19.33</v>
+      </c>
+      <c r="E243">
+        <v>19.01</v>
+      </c>
       <c r="F243">
         <v>18.8851</v>
       </c>
@@ -3819,6 +6723,18 @@
       <c r="A244" s="2">
         <v>45293.16805555556</v>
       </c>
+      <c r="B244">
+        <v>20.22</v>
+      </c>
+      <c r="C244">
+        <v>20.96</v>
+      </c>
+      <c r="D244">
+        <v>19.32</v>
+      </c>
+      <c r="E244">
+        <v>19</v>
+      </c>
       <c r="F244">
         <v>18.861</v>
       </c>
@@ -3833,6 +6749,18 @@
       <c r="A245" s="2">
         <v>45293.16875</v>
       </c>
+      <c r="B245">
+        <v>20.19</v>
+      </c>
+      <c r="C245">
+        <v>20.93</v>
+      </c>
+      <c r="D245">
+        <v>19.3</v>
+      </c>
+      <c r="E245">
+        <v>18.98</v>
+      </c>
       <c r="F245">
         <v>18.8664</v>
       </c>
@@ -3847,6 +6775,18 @@
       <c r="A246" s="2">
         <v>45293.16944444444</v>
       </c>
+      <c r="B246">
+        <v>20.22</v>
+      </c>
+      <c r="C246">
+        <v>20.95</v>
+      </c>
+      <c r="D246">
+        <v>19.32</v>
+      </c>
+      <c r="E246">
+        <v>18.98</v>
+      </c>
       <c r="F246">
         <v>18.8583</v>
       </c>
@@ -3861,6 +6801,18 @@
       <c r="A247" s="2">
         <v>45293.17013888889</v>
       </c>
+      <c r="B247">
+        <v>20.18</v>
+      </c>
+      <c r="C247">
+        <v>20.94</v>
+      </c>
+      <c r="D247">
+        <v>19.29</v>
+      </c>
+      <c r="E247">
+        <v>18.98</v>
+      </c>
       <c r="F247">
         <v>18.8342</v>
       </c>
@@ -3875,6 +6827,18 @@
       <c r="A248" s="2">
         <v>45293.17083333333</v>
       </c>
+      <c r="B248">
+        <v>20.2</v>
+      </c>
+      <c r="C248">
+        <v>20.92</v>
+      </c>
+      <c r="D248">
+        <v>19.31</v>
+      </c>
+      <c r="E248">
+        <v>18.95</v>
+      </c>
       <c r="F248">
         <v>18.802</v>
       </c>
@@ -3889,6 +6853,18 @@
       <c r="A249" s="2">
         <v>45293.17152777778</v>
       </c>
+      <c r="B249">
+        <v>20.18</v>
+      </c>
+      <c r="C249">
+        <v>20.9</v>
+      </c>
+      <c r="D249">
+        <v>19.29</v>
+      </c>
+      <c r="E249">
+        <v>18.99</v>
+      </c>
       <c r="F249">
         <v>18.7591</v>
       </c>
@@ -3903,6 +6879,18 @@
       <c r="A250" s="2">
         <v>45293.17222222222</v>
       </c>
+      <c r="B250">
+        <v>20.18</v>
+      </c>
+      <c r="C250">
+        <v>20.86</v>
+      </c>
+      <c r="D250">
+        <v>19.3</v>
+      </c>
+      <c r="E250">
+        <v>18.95</v>
+      </c>
       <c r="F250">
         <v>18.7538</v>
       </c>
@@ -3917,6 +6905,18 @@
       <c r="A251" s="2">
         <v>45293.17291666667</v>
       </c>
+      <c r="B251">
+        <v>20.14</v>
+      </c>
+      <c r="C251">
+        <v>20.91</v>
+      </c>
+      <c r="D251">
+        <v>19.27</v>
+      </c>
+      <c r="E251">
+        <v>19</v>
+      </c>
       <c r="F251">
         <v>18.802</v>
       </c>
@@ -3931,6 +6931,18 @@
       <c r="A252" s="2">
         <v>45293.17361111111</v>
       </c>
+      <c r="B252">
+        <v>20.17</v>
+      </c>
+      <c r="C252">
+        <v>20.88</v>
+      </c>
+      <c r="D252">
+        <v>19.29</v>
+      </c>
+      <c r="E252">
+        <v>18.98</v>
+      </c>
       <c r="F252">
         <v>18.8342</v>
       </c>
@@ -3945,6 +6957,18 @@
       <c r="A253" s="2">
         <v>45293.17430555556</v>
       </c>
+      <c r="B253">
+        <v>20.18</v>
+      </c>
+      <c r="C253">
+        <v>20.86</v>
+      </c>
+      <c r="D253">
+        <v>19.28</v>
+      </c>
+      <c r="E253">
+        <v>18.98</v>
+      </c>
       <c r="F253">
         <v>18.8396</v>
       </c>
@@ -3959,6 +6983,18 @@
       <c r="A254" s="2">
         <v>45293.175</v>
       </c>
+      <c r="B254">
+        <v>20.18</v>
+      </c>
+      <c r="C254">
+        <v>20.87</v>
+      </c>
+      <c r="D254">
+        <v>19.26</v>
+      </c>
+      <c r="E254">
+        <v>18.99</v>
+      </c>
       <c r="F254">
         <v>18.8503</v>
       </c>
@@ -3973,6 +7009,18 @@
       <c r="A255" s="2">
         <v>45293.17569444444</v>
       </c>
+      <c r="B255">
+        <v>20.14</v>
+      </c>
+      <c r="C255">
+        <v>20.87</v>
+      </c>
+      <c r="D255">
+        <v>19.26</v>
+      </c>
+      <c r="E255">
+        <v>18.98</v>
+      </c>
       <c r="F255">
         <v>18.8476</v>
       </c>
@@ -3987,6 +7035,18 @@
       <c r="A256" s="2">
         <v>45293.17638888889</v>
       </c>
+      <c r="B256">
+        <v>20.14</v>
+      </c>
+      <c r="C256">
+        <v>20.88</v>
+      </c>
+      <c r="D256">
+        <v>19.21</v>
+      </c>
+      <c r="E256">
+        <v>18.92</v>
+      </c>
       <c r="F256">
         <v>18.8476</v>
       </c>
@@ -4001,6 +7061,18 @@
       <c r="A257" s="2">
         <v>45293.17708333334</v>
       </c>
+      <c r="B257">
+        <v>20.11</v>
+      </c>
+      <c r="C257">
+        <v>20.85</v>
+      </c>
+      <c r="D257">
+        <v>19.24</v>
+      </c>
+      <c r="E257">
+        <v>18.96</v>
+      </c>
       <c r="F257">
         <v>18.8583</v>
       </c>
@@ -4015,6 +7087,18 @@
       <c r="A258" s="2">
         <v>45293.17777777778</v>
       </c>
+      <c r="B258">
+        <v>20.09</v>
+      </c>
+      <c r="C258">
+        <v>20.88</v>
+      </c>
+      <c r="D258">
+        <v>19.23</v>
+      </c>
+      <c r="E258">
+        <v>18.99</v>
+      </c>
       <c r="F258">
         <v>18.8905</v>
       </c>
@@ -4029,6 +7113,18 @@
       <c r="A259" s="2">
         <v>45293.17847222222</v>
       </c>
+      <c r="B259">
+        <v>20.13</v>
+      </c>
+      <c r="C259">
+        <v>20.85</v>
+      </c>
+      <c r="D259">
+        <v>19.26</v>
+      </c>
+      <c r="E259">
+        <v>18.99</v>
+      </c>
       <c r="F259">
         <v>18.9066</v>
       </c>
@@ -4043,6 +7139,18 @@
       <c r="A260" s="2">
         <v>45293.17916666667</v>
       </c>
+      <c r="B260">
+        <v>20.14</v>
+      </c>
+      <c r="C260">
+        <v>20.82</v>
+      </c>
+      <c r="D260">
+        <v>19.27</v>
+      </c>
+      <c r="E260">
+        <v>19</v>
+      </c>
       <c r="F260">
         <v>18.9307</v>
       </c>
@@ -4057,6 +7165,18 @@
       <c r="A261" s="2">
         <v>45293.17986111111</v>
       </c>
+      <c r="B261">
+        <v>20.14</v>
+      </c>
+      <c r="C261">
+        <v>20.84</v>
+      </c>
+      <c r="D261">
+        <v>19.24</v>
+      </c>
+      <c r="E261">
+        <v>18.99</v>
+      </c>
       <c r="F261">
         <v>18.9468</v>
       </c>
@@ -4071,6 +7191,18 @@
       <c r="A262" s="2">
         <v>45293.18055555555</v>
       </c>
+      <c r="B262">
+        <v>20.1</v>
+      </c>
+      <c r="C262">
+        <v>20.84</v>
+      </c>
+      <c r="D262">
+        <v>19.24</v>
+      </c>
+      <c r="E262">
+        <v>18.95</v>
+      </c>
       <c r="F262">
         <v>18.9227</v>
       </c>
@@ -4085,6 +7217,18 @@
       <c r="A263" s="2">
         <v>45293.18125</v>
       </c>
+      <c r="B263">
+        <v>20.1</v>
+      </c>
+      <c r="C263">
+        <v>20.81</v>
+      </c>
+      <c r="D263">
+        <v>19.25</v>
+      </c>
+      <c r="E263">
+        <v>18.93</v>
+      </c>
       <c r="F263">
         <v>18.8664</v>
       </c>
@@ -4099,6 +7243,18 @@
       <c r="A264" s="2">
         <v>45293.18194444444</v>
       </c>
+      <c r="B264">
+        <v>20.09</v>
+      </c>
+      <c r="C264">
+        <v>20.84</v>
+      </c>
+      <c r="D264">
+        <v>19.25</v>
+      </c>
+      <c r="E264">
+        <v>18.97</v>
+      </c>
       <c r="F264">
         <v>18.8342</v>
       </c>
@@ -4113,6 +7269,18 @@
       <c r="A265" s="2">
         <v>45293.18263888889</v>
       </c>
+      <c r="B265">
+        <v>20.12</v>
+      </c>
+      <c r="C265">
+        <v>20.8</v>
+      </c>
+      <c r="D265">
+        <v>19.24</v>
+      </c>
+      <c r="E265">
+        <v>18.94</v>
+      </c>
       <c r="F265">
         <v>18.8369</v>
       </c>
@@ -4127,6 +7295,18 @@
       <c r="A266" s="2">
         <v>45293.18333333333</v>
       </c>
+      <c r="B266">
+        <v>20.08</v>
+      </c>
+      <c r="C266">
+        <v>20.83</v>
+      </c>
+      <c r="D266">
+        <v>19.23</v>
+      </c>
+      <c r="E266">
+        <v>18.94</v>
+      </c>
       <c r="F266">
         <v>18.8342</v>
       </c>
@@ -4141,6 +7321,18 @@
       <c r="A267" s="2">
         <v>45293.18402777778</v>
       </c>
+      <c r="B267">
+        <v>20.08</v>
+      </c>
+      <c r="C267">
+        <v>20.8</v>
+      </c>
+      <c r="D267">
+        <v>19.24</v>
+      </c>
+      <c r="E267">
+        <v>18.89</v>
+      </c>
       <c r="F267">
         <v>18.8128</v>
       </c>
@@ -4155,6 +7347,18 @@
       <c r="A268" s="2">
         <v>45293.18472222222</v>
       </c>
+      <c r="B268">
+        <v>20.04</v>
+      </c>
+      <c r="C268">
+        <v>20.8</v>
+      </c>
+      <c r="D268">
+        <v>19.21</v>
+      </c>
+      <c r="E268">
+        <v>18.88</v>
+      </c>
       <c r="F268">
         <v>18.7618</v>
       </c>
@@ -4169,6 +7373,18 @@
       <c r="A269" s="2">
         <v>45293.18541666667</v>
       </c>
+      <c r="B269">
+        <v>20.04</v>
+      </c>
+      <c r="C269">
+        <v>20.78</v>
+      </c>
+      <c r="D269">
+        <v>19.23</v>
+      </c>
+      <c r="E269">
+        <v>18.91</v>
+      </c>
       <c r="F269">
         <v>18.7136</v>
       </c>
@@ -4183,6 +7399,18 @@
       <c r="A270" s="2">
         <v>45293.18611111111</v>
       </c>
+      <c r="B270">
+        <v>20.07</v>
+      </c>
+      <c r="C270">
+        <v>20.83</v>
+      </c>
+      <c r="D270">
+        <v>19.2</v>
+      </c>
+      <c r="E270">
+        <v>18.9</v>
+      </c>
       <c r="F270">
         <v>18.676</v>
       </c>
@@ -4197,6 +7425,18 @@
       <c r="A271" s="2">
         <v>45293.18680555555</v>
       </c>
+      <c r="B271">
+        <v>20.07</v>
+      </c>
+      <c r="C271">
+        <v>20.82</v>
+      </c>
+      <c r="D271">
+        <v>19.23</v>
+      </c>
+      <c r="E271">
+        <v>18.85</v>
+      </c>
       <c r="F271">
         <v>18.6599</v>
       </c>
@@ -4211,6 +7451,18 @@
       <c r="A272" s="2">
         <v>45293.1875</v>
       </c>
+      <c r="B272">
+        <v>20.05</v>
+      </c>
+      <c r="C272">
+        <v>20.77</v>
+      </c>
+      <c r="D272">
+        <v>19.17</v>
+      </c>
+      <c r="E272">
+        <v>18.89</v>
+      </c>
       <c r="F272">
         <v>18.6707</v>
       </c>
@@ -4225,6 +7477,18 @@
       <c r="A273" s="2">
         <v>45293.18819444445</v>
       </c>
+      <c r="B273">
+        <v>20.06</v>
+      </c>
+      <c r="C273">
+        <v>20.79</v>
+      </c>
+      <c r="D273">
+        <v>19.19</v>
+      </c>
+      <c r="E273">
+        <v>18.9</v>
+      </c>
       <c r="F273">
         <v>18.6975</v>
       </c>
@@ -4239,6 +7503,18 @@
       <c r="A274" s="2">
         <v>45293.18888888889</v>
       </c>
+      <c r="B274">
+        <v>20.04</v>
+      </c>
+      <c r="C274">
+        <v>20.76</v>
+      </c>
+      <c r="D274">
+        <v>19.19</v>
+      </c>
+      <c r="E274">
+        <v>18.95</v>
+      </c>
       <c r="F274">
         <v>18.7457</v>
       </c>
@@ -4253,6 +7529,18 @@
       <c r="A275" s="2">
         <v>45293.18958333333</v>
       </c>
+      <c r="B275">
+        <v>20.07</v>
+      </c>
+      <c r="C275">
+        <v>20.76</v>
+      </c>
+      <c r="D275">
+        <v>19.19</v>
+      </c>
+      <c r="E275">
+        <v>18.9</v>
+      </c>
       <c r="F275">
         <v>18.794</v>
       </c>
@@ -4267,6 +7555,18 @@
       <c r="A276" s="2">
         <v>45293.19027777778</v>
       </c>
+      <c r="B276">
+        <v>20.03</v>
+      </c>
+      <c r="C276">
+        <v>20.78</v>
+      </c>
+      <c r="D276">
+        <v>19.16</v>
+      </c>
+      <c r="E276">
+        <v>18.91</v>
+      </c>
       <c r="F276">
         <v>18.8128</v>
       </c>
@@ -4281,6 +7581,18 @@
       <c r="A277" s="2">
         <v>45293.19097222222</v>
       </c>
+      <c r="B277">
+        <v>20.04</v>
+      </c>
+      <c r="C277">
+        <v>20.72</v>
+      </c>
+      <c r="D277">
+        <v>19.16</v>
+      </c>
+      <c r="E277">
+        <v>18.88</v>
+      </c>
       <c r="F277">
         <v>18.8154</v>
       </c>
@@ -4295,6 +7607,18 @@
       <c r="A278" s="2">
         <v>45293.19166666667</v>
       </c>
+      <c r="B278">
+        <v>20.06</v>
+      </c>
+      <c r="C278">
+        <v>20.75</v>
+      </c>
+      <c r="D278">
+        <v>19.18</v>
+      </c>
+      <c r="E278">
+        <v>18.89</v>
+      </c>
       <c r="F278">
         <v>18.8154</v>
       </c>
@@ -4309,6 +7633,18 @@
       <c r="A279" s="2">
         <v>45293.19236111111</v>
       </c>
+      <c r="B279">
+        <v>20.01</v>
+      </c>
+      <c r="C279">
+        <v>20.77</v>
+      </c>
+      <c r="D279">
+        <v>19.16</v>
+      </c>
+      <c r="E279">
+        <v>18.89</v>
+      </c>
       <c r="F279">
         <v>18.7886</v>
       </c>
@@ -4323,6 +7659,18 @@
       <c r="A280" s="2">
         <v>45293.19305555556</v>
       </c>
+      <c r="B280">
+        <v>20</v>
+      </c>
+      <c r="C280">
+        <v>20.72</v>
+      </c>
+      <c r="D280">
+        <v>19.22</v>
+      </c>
+      <c r="E280">
+        <v>18.89</v>
+      </c>
       <c r="F280">
         <v>18.786</v>
       </c>
@@ -4337,6 +7685,18 @@
       <c r="A281" s="2">
         <v>45293.19375</v>
       </c>
+      <c r="B281">
+        <v>20.02</v>
+      </c>
+      <c r="C281">
+        <v>20.72</v>
+      </c>
+      <c r="D281">
+        <v>19.13</v>
+      </c>
+      <c r="E281">
+        <v>18.9</v>
+      </c>
       <c r="F281">
         <v>18.786</v>
       </c>
@@ -4351,6 +7711,18 @@
       <c r="A282" s="2">
         <v>45293.19444444445</v>
       </c>
+      <c r="B282">
+        <v>20.01</v>
+      </c>
+      <c r="C282">
+        <v>20.71</v>
+      </c>
+      <c r="D282">
+        <v>19.16</v>
+      </c>
+      <c r="E282">
+        <v>18.91</v>
+      </c>
       <c r="F282">
         <v>18.794</v>
       </c>
@@ -4365,6 +7737,18 @@
       <c r="A283" s="2">
         <v>45293.19513888889</v>
       </c>
+      <c r="B283">
+        <v>19.97</v>
+      </c>
+      <c r="C283">
+        <v>20.74</v>
+      </c>
+      <c r="D283">
+        <v>19.16</v>
+      </c>
+      <c r="E283">
+        <v>18.88</v>
+      </c>
       <c r="F283">
         <v>18.8208</v>
       </c>
@@ -4379,6 +7763,18 @@
       <c r="A284" s="2">
         <v>45293.19583333333</v>
       </c>
+      <c r="B284">
+        <v>20</v>
+      </c>
+      <c r="C284">
+        <v>20.73</v>
+      </c>
+      <c r="D284">
+        <v>19.12</v>
+      </c>
+      <c r="E284">
+        <v>18.89</v>
+      </c>
       <c r="F284">
         <v>18.8315</v>
       </c>
@@ -4393,6 +7789,18 @@
       <c r="A285" s="2">
         <v>45293.19652777778</v>
       </c>
+      <c r="B285">
+        <v>20.05</v>
+      </c>
+      <c r="C285">
+        <v>20.71</v>
+      </c>
+      <c r="D285">
+        <v>19.14</v>
+      </c>
+      <c r="E285">
+        <v>18.91</v>
+      </c>
       <c r="F285">
         <v>18.8235</v>
       </c>
@@ -4407,6 +7815,18 @@
       <c r="A286" s="2">
         <v>45293.19722222222</v>
       </c>
+      <c r="B286">
+        <v>19.99</v>
+      </c>
+      <c r="C286">
+        <v>20.67</v>
+      </c>
+      <c r="D286">
+        <v>19.13</v>
+      </c>
+      <c r="E286">
+        <v>18.89</v>
+      </c>
       <c r="F286">
         <v>18.8101</v>
       </c>
@@ -4421,6 +7841,18 @@
       <c r="A287" s="2">
         <v>45293.19791666666</v>
       </c>
+      <c r="B287">
+        <v>20.01</v>
+      </c>
+      <c r="C287">
+        <v>20.69</v>
+      </c>
+      <c r="D287">
+        <v>19.13</v>
+      </c>
+      <c r="E287">
+        <v>18.83</v>
+      </c>
       <c r="F287">
         <v>18.7591</v>
       </c>
@@ -4435,6 +7867,18 @@
       <c r="A288" s="2">
         <v>45293.19861111111</v>
       </c>
+      <c r="B288">
+        <v>19.98</v>
+      </c>
+      <c r="C288">
+        <v>20.69</v>
+      </c>
+      <c r="D288">
+        <v>19.15</v>
+      </c>
+      <c r="E288">
+        <v>18.83</v>
+      </c>
       <c r="F288">
         <v>18.7082</v>
       </c>
@@ -4449,6 +7893,18 @@
       <c r="A289" s="2">
         <v>45293.19930555556</v>
       </c>
+      <c r="B289">
+        <v>19.98</v>
+      </c>
+      <c r="C289">
+        <v>20.71</v>
+      </c>
+      <c r="D289">
+        <v>19.13</v>
+      </c>
+      <c r="E289">
+        <v>18.82</v>
+      </c>
       <c r="F289">
         <v>18.6734</v>
       </c>
@@ -4463,6 +7919,18 @@
       <c r="A290" s="2">
         <v>45293.2</v>
       </c>
+      <c r="B290">
+        <v>19.95</v>
+      </c>
+      <c r="C290">
+        <v>20.68</v>
+      </c>
+      <c r="D290">
+        <v>19.13</v>
+      </c>
+      <c r="E290">
+        <v>18.84</v>
+      </c>
       <c r="F290">
         <v>18.6653</v>
       </c>
@@ -4477,6 +7945,18 @@
       <c r="A291" s="2">
         <v>45293.20069444444</v>
       </c>
+      <c r="B291">
+        <v>19.93</v>
+      </c>
+      <c r="C291">
+        <v>20.68</v>
+      </c>
+      <c r="D291">
+        <v>19.14</v>
+      </c>
+      <c r="E291">
+        <v>18.81</v>
+      </c>
       <c r="F291">
         <v>18.7028</v>
       </c>
@@ -4491,6 +7971,18 @@
       <c r="A292" s="2">
         <v>45293.20138888889</v>
       </c>
+      <c r="B292">
+        <v>19.93</v>
+      </c>
+      <c r="C292">
+        <v>20.67</v>
+      </c>
+      <c r="D292">
+        <v>19.11</v>
+      </c>
+      <c r="E292">
+        <v>18.9</v>
+      </c>
       <c r="F292">
         <v>18.7297</v>
       </c>
@@ -4505,6 +7997,18 @@
       <c r="A293" s="2">
         <v>45293.20208333333</v>
       </c>
+      <c r="B293">
+        <v>19.92</v>
+      </c>
+      <c r="C293">
+        <v>20.65</v>
+      </c>
+      <c r="D293">
+        <v>19.14</v>
+      </c>
+      <c r="E293">
+        <v>18.85</v>
+      </c>
       <c r="F293">
         <v>18.7565</v>
       </c>
@@ -4519,6 +8023,18 @@
       <c r="A294" s="2">
         <v>45293.20277777778</v>
       </c>
+      <c r="B294">
+        <v>19.97</v>
+      </c>
+      <c r="C294">
+        <v>20.66</v>
+      </c>
+      <c r="D294">
+        <v>19.12</v>
+      </c>
+      <c r="E294">
+        <v>18.84</v>
+      </c>
       <c r="F294">
         <v>18.7457</v>
       </c>
@@ -4533,6 +8049,18 @@
       <c r="A295" s="2">
         <v>45293.20347222222</v>
       </c>
+      <c r="B295">
+        <v>19.92</v>
+      </c>
+      <c r="C295">
+        <v>20.65</v>
+      </c>
+      <c r="D295">
+        <v>19.09</v>
+      </c>
+      <c r="E295">
+        <v>18.82</v>
+      </c>
       <c r="F295">
         <v>18.7377</v>
       </c>
@@ -4547,6 +8075,18 @@
       <c r="A296" s="2">
         <v>45293.20416666667</v>
       </c>
+      <c r="B296">
+        <v>19.92</v>
+      </c>
+      <c r="C296">
+        <v>20.68</v>
+      </c>
+      <c r="D296">
+        <v>19.12</v>
+      </c>
+      <c r="E296">
+        <v>18.81</v>
+      </c>
       <c r="F296">
         <v>18.7457</v>
       </c>
@@ -4561,6 +8101,18 @@
       <c r="A297" s="2">
         <v>45293.20486111111</v>
       </c>
+      <c r="B297">
+        <v>19.91</v>
+      </c>
+      <c r="C297">
+        <v>20.69</v>
+      </c>
+      <c r="D297">
+        <v>19.1</v>
+      </c>
+      <c r="E297">
+        <v>18.82</v>
+      </c>
       <c r="F297">
         <v>18.7297</v>
       </c>
@@ -4575,6 +8127,18 @@
       <c r="A298" s="2">
         <v>45293.20555555556</v>
       </c>
+      <c r="B298">
+        <v>19.94</v>
+      </c>
+      <c r="C298">
+        <v>20.65</v>
+      </c>
+      <c r="D298">
+        <v>19.07</v>
+      </c>
+      <c r="E298">
+        <v>18.79</v>
+      </c>
       <c r="F298">
         <v>18.7028</v>
       </c>
@@ -4589,6 +8153,18 @@
       <c r="A299" s="2">
         <v>45293.20625</v>
       </c>
+      <c r="B299">
+        <v>19.91</v>
+      </c>
+      <c r="C299">
+        <v>20.62</v>
+      </c>
+      <c r="D299">
+        <v>19.1</v>
+      </c>
+      <c r="E299">
+        <v>18.78</v>
+      </c>
       <c r="F299">
         <v>18.6707</v>
       </c>
@@ -4603,6 +8179,18 @@
       <c r="A300" s="2">
         <v>45293.20694444444</v>
       </c>
+      <c r="B300">
+        <v>19.91</v>
+      </c>
+      <c r="C300">
+        <v>20.64</v>
+      </c>
+      <c r="D300">
+        <v>19.06</v>
+      </c>
+      <c r="E300">
+        <v>18.78</v>
+      </c>
       <c r="F300">
         <v>18.6519</v>
       </c>
@@ -4617,6 +8205,18 @@
       <c r="A301" s="2">
         <v>45293.20763888889</v>
       </c>
+      <c r="B301">
+        <v>19.89</v>
+      </c>
+      <c r="C301">
+        <v>20.61</v>
+      </c>
+      <c r="D301">
+        <v>19.06</v>
+      </c>
+      <c r="E301">
+        <v>18.75</v>
+      </c>
       <c r="F301">
         <v>18.6465</v>
       </c>
@@ -4631,6 +8231,18 @@
       <c r="A302" s="2">
         <v>45293.20833333334</v>
       </c>
+      <c r="B302">
+        <v>19.89</v>
+      </c>
+      <c r="C302">
+        <v>20.61</v>
+      </c>
+      <c r="D302">
+        <v>19.07</v>
+      </c>
+      <c r="E302">
+        <v>18.77</v>
+      </c>
       <c r="F302">
         <v>18.6358</v>
       </c>
@@ -4645,6 +8257,18 @@
       <c r="A303" s="2">
         <v>45293.20902777778</v>
       </c>
+      <c r="B303">
+        <v>19.92</v>
+      </c>
+      <c r="C303">
+        <v>20.6</v>
+      </c>
+      <c r="D303">
+        <v>19.06</v>
+      </c>
+      <c r="E303">
+        <v>18.77</v>
+      </c>
       <c r="F303">
         <v>18.6251</v>
       </c>
@@ -4659,6 +8283,18 @@
       <c r="A304" s="2">
         <v>45293.20972222222</v>
       </c>
+      <c r="B304">
+        <v>19.89</v>
+      </c>
+      <c r="C304">
+        <v>20.6</v>
+      </c>
+      <c r="D304">
+        <v>19.06</v>
+      </c>
+      <c r="E304">
+        <v>18.77</v>
+      </c>
       <c r="F304">
         <v>18.6144</v>
       </c>
@@ -4673,6 +8309,18 @@
       <c r="A305" s="2">
         <v>45293.21041666667</v>
       </c>
+      <c r="B305">
+        <v>19.91</v>
+      </c>
+      <c r="C305">
+        <v>20.6</v>
+      </c>
+      <c r="D305">
+        <v>19.08</v>
+      </c>
+      <c r="E305">
+        <v>18.75</v>
+      </c>
       <c r="F305">
         <v>18.5876</v>
       </c>
@@ -4687,6 +8335,18 @@
       <c r="A306" s="2">
         <v>45293.21111111111</v>
       </c>
+      <c r="B306">
+        <v>19.88</v>
+      </c>
+      <c r="C306">
+        <v>20.57</v>
+      </c>
+      <c r="D306">
+        <v>19.05</v>
+      </c>
+      <c r="E306">
+        <v>18.72</v>
+      </c>
       <c r="F306">
         <v>18.5554</v>
       </c>
@@ -4701,6 +8361,18 @@
       <c r="A307" s="2">
         <v>45293.21180555555</v>
       </c>
+      <c r="B307">
+        <v>19.88</v>
+      </c>
+      <c r="C307">
+        <v>20.6</v>
+      </c>
+      <c r="D307">
+        <v>19</v>
+      </c>
+      <c r="E307">
+        <v>18.72</v>
+      </c>
       <c r="F307">
         <v>18.5259</v>
       </c>
@@ -4715,6 +8387,18 @@
       <c r="A308" s="2">
         <v>45293.2125</v>
       </c>
+      <c r="B308">
+        <v>19.87</v>
+      </c>
+      <c r="C308">
+        <v>20.6</v>
+      </c>
+      <c r="D308">
+        <v>19.07</v>
+      </c>
+      <c r="E308">
+        <v>18.73</v>
+      </c>
       <c r="F308">
         <v>18.5152</v>
       </c>
@@ -4729,6 +8413,18 @@
       <c r="A309" s="2">
         <v>45293.21319444444</v>
       </c>
+      <c r="B309">
+        <v>19.88</v>
+      </c>
+      <c r="C309">
+        <v>20.54</v>
+      </c>
+      <c r="D309">
+        <v>19.02</v>
+      </c>
+      <c r="E309">
+        <v>18.71</v>
+      </c>
       <c r="F309">
         <v>18.4964</v>
       </c>
@@ -4743,6 +8439,18 @@
       <c r="A310" s="2">
         <v>45293.21388888889</v>
       </c>
+      <c r="B310">
+        <v>19.9</v>
+      </c>
+      <c r="C310">
+        <v>20.56</v>
+      </c>
+      <c r="D310">
+        <v>19.02</v>
+      </c>
+      <c r="E310">
+        <v>18.69</v>
+      </c>
       <c r="F310">
         <v>18.483</v>
       </c>
@@ -4757,6 +8465,18 @@
       <c r="A311" s="2">
         <v>45293.21458333333</v>
       </c>
+      <c r="B311">
+        <v>19.88</v>
+      </c>
+      <c r="C311">
+        <v>20.55</v>
+      </c>
+      <c r="D311">
+        <v>19.04</v>
+      </c>
+      <c r="E311">
+        <v>18.73</v>
+      </c>
       <c r="F311">
         <v>18.4857</v>
       </c>
@@ -4771,6 +8491,18 @@
       <c r="A312" s="2">
         <v>45293.21527777778</v>
       </c>
+      <c r="B312">
+        <v>19.84</v>
+      </c>
+      <c r="C312">
+        <v>20.58</v>
+      </c>
+      <c r="D312">
+        <v>19.02</v>
+      </c>
+      <c r="E312">
+        <v>18.7</v>
+      </c>
       <c r="F312">
         <v>18.491</v>
       </c>
@@ -4785,6 +8517,18 @@
       <c r="A313" s="2">
         <v>45293.21597222222</v>
       </c>
+      <c r="B313">
+        <v>19.87</v>
+      </c>
+      <c r="C313">
+        <v>20.54</v>
+      </c>
+      <c r="D313">
+        <v>19</v>
+      </c>
+      <c r="E313">
+        <v>18.7</v>
+      </c>
       <c r="F313">
         <v>18.4857</v>
       </c>
@@ -4799,6 +8543,18 @@
       <c r="A314" s="2">
         <v>45293.21666666667</v>
       </c>
+      <c r="B314">
+        <v>19.87</v>
+      </c>
+      <c r="C314">
+        <v>20.57</v>
+      </c>
+      <c r="D314">
+        <v>19.02</v>
+      </c>
+      <c r="E314">
+        <v>18.69</v>
+      </c>
       <c r="F314">
         <v>18.4884</v>
       </c>
@@ -4813,6 +8569,18 @@
       <c r="A315" s="2">
         <v>45293.21736111111</v>
       </c>
+      <c r="B315">
+        <v>19.87</v>
+      </c>
+      <c r="C315">
+        <v>20.51</v>
+      </c>
+      <c r="D315">
+        <v>19</v>
+      </c>
+      <c r="E315">
+        <v>18.7</v>
+      </c>
       <c r="F315">
         <v>18.5232</v>
       </c>
@@ -4827,6 +8595,18 @@
       <c r="A316" s="2">
         <v>45293.21805555555</v>
       </c>
+      <c r="B316">
+        <v>19.9</v>
+      </c>
+      <c r="C316">
+        <v>20.55</v>
+      </c>
+      <c r="D316">
+        <v>19</v>
+      </c>
+      <c r="E316">
+        <v>18.71</v>
+      </c>
       <c r="F316">
         <v>18.5286</v>
       </c>
@@ -4841,6 +8621,18 @@
       <c r="A317" s="2">
         <v>45293.21875</v>
       </c>
+      <c r="B317">
+        <v>19.87</v>
+      </c>
+      <c r="C317">
+        <v>20.54</v>
+      </c>
+      <c r="D317">
+        <v>18.98</v>
+      </c>
+      <c r="E317">
+        <v>18.73</v>
+      </c>
       <c r="F317">
         <v>18.5125</v>
       </c>
@@ -4855,6 +8647,18 @@
       <c r="A318" s="2">
         <v>45293.21944444445</v>
       </c>
+      <c r="B318">
+        <v>19.85</v>
+      </c>
+      <c r="C318">
+        <v>20.54</v>
+      </c>
+      <c r="D318">
+        <v>19.03</v>
+      </c>
+      <c r="E318">
+        <v>18.77</v>
+      </c>
       <c r="F318">
         <v>18.5313</v>
       </c>
@@ -4869,6 +8673,18 @@
       <c r="A319" s="2">
         <v>45293.22013888889</v>
       </c>
+      <c r="B319">
+        <v>19.87</v>
+      </c>
+      <c r="C319">
+        <v>20.54</v>
+      </c>
+      <c r="D319">
+        <v>18.98</v>
+      </c>
+      <c r="E319">
+        <v>18.69</v>
+      </c>
       <c r="F319">
         <v>18.5607</v>
       </c>
@@ -4883,6 +8699,18 @@
       <c r="A320" s="2">
         <v>45293.22083333333</v>
       </c>
+      <c r="B320">
+        <v>19.87</v>
+      </c>
+      <c r="C320">
+        <v>20.54</v>
+      </c>
+      <c r="D320">
+        <v>19.01</v>
+      </c>
+      <c r="E320">
+        <v>18.75</v>
+      </c>
       <c r="F320">
         <v>18.5661</v>
       </c>
@@ -4897,6 +8725,18 @@
       <c r="A321" s="2">
         <v>45293.22152777778</v>
       </c>
+      <c r="B321">
+        <v>19.86</v>
+      </c>
+      <c r="C321">
+        <v>20.5</v>
+      </c>
+      <c r="D321">
+        <v>19.01</v>
+      </c>
+      <c r="E321">
+        <v>18.73</v>
+      </c>
       <c r="F321">
         <v>18.5849</v>
       </c>
@@ -4911,6 +8751,18 @@
       <c r="A322" s="2">
         <v>45293.22222222222</v>
       </c>
+      <c r="B322">
+        <v>19.84</v>
+      </c>
+      <c r="C322">
+        <v>20.51</v>
+      </c>
+      <c r="D322">
+        <v>19</v>
+      </c>
+      <c r="E322">
+        <v>18.77</v>
+      </c>
       <c r="F322">
         <v>18.6224</v>
       </c>
@@ -4925,6 +8777,18 @@
       <c r="A323" s="2">
         <v>45293.22291666667</v>
       </c>
+      <c r="B323">
+        <v>19.86</v>
+      </c>
+      <c r="C323">
+        <v>20.53</v>
+      </c>
+      <c r="D323">
+        <v>19.01</v>
+      </c>
+      <c r="E323">
+        <v>18.8</v>
+      </c>
       <c r="F323">
         <v>18.6519</v>
       </c>
@@ -4939,6 +8803,18 @@
       <c r="A324" s="2">
         <v>45293.22361111111</v>
       </c>
+      <c r="B324">
+        <v>19.83</v>
+      </c>
+      <c r="C324">
+        <v>20.48</v>
+      </c>
+      <c r="D324">
+        <v>19.01</v>
+      </c>
+      <c r="E324">
+        <v>18.79</v>
+      </c>
       <c r="F324">
         <v>18.6841</v>
       </c>
@@ -4953,6 +8829,18 @@
       <c r="A325" s="2">
         <v>45293.22430555556</v>
       </c>
+      <c r="B325">
+        <v>19.84</v>
+      </c>
+      <c r="C325">
+        <v>20.5</v>
+      </c>
+      <c r="D325">
+        <v>19.02</v>
+      </c>
+      <c r="E325">
+        <v>18.8</v>
+      </c>
       <c r="F325">
         <v>18.7082</v>
       </c>
@@ -4967,6 +8855,18 @@
       <c r="A326" s="2">
         <v>45293.225</v>
       </c>
+      <c r="B326">
+        <v>19.84</v>
+      </c>
+      <c r="C326">
+        <v>20.53</v>
+      </c>
+      <c r="D326">
+        <v>19.01</v>
+      </c>
+      <c r="E326">
+        <v>18.77</v>
+      </c>
       <c r="F326">
         <v>18.7082</v>
       </c>
@@ -4981,6 +8881,18 @@
       <c r="A327" s="2">
         <v>45293.22569444445</v>
       </c>
+      <c r="B327">
+        <v>19.84</v>
+      </c>
+      <c r="C327">
+        <v>20.48</v>
+      </c>
+      <c r="D327">
+        <v>19.06</v>
+      </c>
+      <c r="E327">
+        <v>18.77</v>
+      </c>
       <c r="F327">
         <v>18.7002</v>
       </c>
@@ -4995,6 +8907,18 @@
       <c r="A328" s="2">
         <v>45293.22638888889</v>
       </c>
+      <c r="B328">
+        <v>19.84</v>
+      </c>
+      <c r="C328">
+        <v>20.44</v>
+      </c>
+      <c r="D328">
+        <v>19.06</v>
+      </c>
+      <c r="E328">
+        <v>18.8</v>
+      </c>
       <c r="F328">
         <v>18.6734</v>
       </c>
@@ -5009,6 +8933,18 @@
       <c r="A329" s="2">
         <v>45293.22708333333</v>
       </c>
+      <c r="B329">
+        <v>19.84</v>
+      </c>
+      <c r="C329">
+        <v>20.47</v>
+      </c>
+      <c r="D329">
+        <v>19.04</v>
+      </c>
+      <c r="E329">
+        <v>18.78</v>
+      </c>
       <c r="F329">
         <v>18.6492</v>
       </c>
@@ -5023,6 +8959,18 @@
       <c r="A330" s="2">
         <v>45293.22777777778</v>
       </c>
+      <c r="B330">
+        <v>19.8</v>
+      </c>
+      <c r="C330">
+        <v>20.5</v>
+      </c>
+      <c r="D330">
+        <v>19.03</v>
+      </c>
+      <c r="E330">
+        <v>18.73</v>
+      </c>
       <c r="F330">
         <v>18.6465</v>
       </c>
@@ -5037,6 +8985,18 @@
       <c r="A331" s="2">
         <v>45293.22847222222</v>
       </c>
+      <c r="B331">
+        <v>19.85</v>
+      </c>
+      <c r="C331">
+        <v>20.48</v>
+      </c>
+      <c r="D331">
+        <v>19.05</v>
+      </c>
+      <c r="E331">
+        <v>18.8</v>
+      </c>
       <c r="F331">
         <v>18.6305</v>
       </c>
@@ -5051,6 +9011,18 @@
       <c r="A332" s="2">
         <v>45293.22916666666</v>
       </c>
+      <c r="B332">
+        <v>19.87</v>
+      </c>
+      <c r="C332">
+        <v>20.49</v>
+      </c>
+      <c r="D332">
+        <v>19.05</v>
+      </c>
+      <c r="E332">
+        <v>18.77</v>
+      </c>
       <c r="F332">
         <v>18.617</v>
       </c>
@@ -5065,6 +9037,18 @@
       <c r="A333" s="2">
         <v>45293.22986111111</v>
       </c>
+      <c r="B333">
+        <v>19.83</v>
+      </c>
+      <c r="C333">
+        <v>20.48</v>
+      </c>
+      <c r="D333">
+        <v>18.99</v>
+      </c>
+      <c r="E333">
+        <v>18.78</v>
+      </c>
       <c r="F333">
         <v>18.6197</v>
       </c>
@@ -5079,6 +9063,18 @@
       <c r="A334" s="2">
         <v>45293.23055555556</v>
       </c>
+      <c r="B334">
+        <v>19.86</v>
+      </c>
+      <c r="C334">
+        <v>20.46</v>
+      </c>
+      <c r="D334">
+        <v>19.04</v>
+      </c>
+      <c r="E334">
+        <v>18.78</v>
+      </c>
       <c r="F334">
         <v>18.617</v>
       </c>
@@ -5093,6 +9089,18 @@
       <c r="A335" s="2">
         <v>45293.23125</v>
       </c>
+      <c r="B335">
+        <v>19.85</v>
+      </c>
+      <c r="C335">
+        <v>20.45</v>
+      </c>
+      <c r="D335">
+        <v>19.07</v>
+      </c>
+      <c r="E335">
+        <v>18.78</v>
+      </c>
       <c r="F335">
         <v>18.5929</v>
       </c>
@@ -5107,6 +9115,18 @@
       <c r="A336" s="2">
         <v>45293.23194444444</v>
       </c>
+      <c r="B336">
+        <v>19.79</v>
+      </c>
+      <c r="C336">
+        <v>20.49</v>
+      </c>
+      <c r="D336">
+        <v>19.02</v>
+      </c>
+      <c r="E336">
+        <v>18.83</v>
+      </c>
       <c r="F336">
         <v>18.5983</v>
       </c>
@@ -5121,6 +9141,18 @@
       <c r="A337" s="2">
         <v>45293.23263888889</v>
       </c>
+      <c r="B337">
+        <v>19.85</v>
+      </c>
+      <c r="C337">
+        <v>20.46</v>
+      </c>
+      <c r="D337">
+        <v>19.03</v>
+      </c>
+      <c r="E337">
+        <v>18.8</v>
+      </c>
       <c r="F337">
         <v>18.6278</v>
       </c>
@@ -5135,6 +9167,18 @@
       <c r="A338" s="2">
         <v>45293.23333333333</v>
       </c>
+      <c r="B338">
+        <v>19.84</v>
+      </c>
+      <c r="C338">
+        <v>20.48</v>
+      </c>
+      <c r="D338">
+        <v>19.06</v>
+      </c>
+      <c r="E338">
+        <v>18.81</v>
+      </c>
       <c r="F338">
         <v>18.6546</v>
       </c>
@@ -5149,6 +9193,18 @@
       <c r="A339" s="2">
         <v>45293.23402777778</v>
       </c>
+      <c r="B339">
+        <v>19.84</v>
+      </c>
+      <c r="C339">
+        <v>20.49</v>
+      </c>
+      <c r="D339">
+        <v>19.06</v>
+      </c>
+      <c r="E339">
+        <v>18.82</v>
+      </c>
       <c r="F339">
         <v>18.6841</v>
       </c>
@@ -5163,6 +9219,18 @@
       <c r="A340" s="2">
         <v>45293.23472222222</v>
       </c>
+      <c r="B340">
+        <v>19.83</v>
+      </c>
+      <c r="C340">
+        <v>20.42</v>
+      </c>
+      <c r="D340">
+        <v>19.07</v>
+      </c>
+      <c r="E340">
+        <v>18.8</v>
+      </c>
       <c r="F340">
         <v>18.7189</v>
       </c>
@@ -5177,6 +9245,18 @@
       <c r="A341" s="2">
         <v>45293.23541666667</v>
       </c>
+      <c r="B341">
+        <v>19.83</v>
+      </c>
+      <c r="C341">
+        <v>20.45</v>
+      </c>
+      <c r="D341">
+        <v>19.07</v>
+      </c>
+      <c r="E341">
+        <v>18.83</v>
+      </c>
       <c r="F341">
         <v>18.7538</v>
       </c>
@@ -5191,6 +9271,18 @@
       <c r="A342" s="2">
         <v>45293.23611111111</v>
       </c>
+      <c r="B342">
+        <v>19.86</v>
+      </c>
+      <c r="C342">
+        <v>20.45</v>
+      </c>
+      <c r="D342">
+        <v>19.09</v>
+      </c>
+      <c r="E342">
+        <v>18.83</v>
+      </c>
       <c r="F342">
         <v>18.7618</v>
       </c>
@@ -5205,6 +9297,18 @@
       <c r="A343" s="2">
         <v>45293.23680555556</v>
       </c>
+      <c r="B343">
+        <v>19.83</v>
+      </c>
+      <c r="C343">
+        <v>20.48</v>
+      </c>
+      <c r="D343">
+        <v>19.12</v>
+      </c>
+      <c r="E343">
+        <v>18.81</v>
+      </c>
       <c r="F343">
         <v>18.7404</v>
       </c>
@@ -5219,6 +9323,18 @@
       <c r="A344" s="2">
         <v>45293.2375</v>
       </c>
+      <c r="B344">
+        <v>19.87</v>
+      </c>
+      <c r="C344">
+        <v>20.48</v>
+      </c>
+      <c r="D344">
+        <v>19.13</v>
+      </c>
+      <c r="E344">
+        <v>18.85</v>
+      </c>
       <c r="F344">
         <v>18.7189</v>
       </c>
@@ -5233,6 +9349,18 @@
       <c r="A345" s="2">
         <v>45293.23819444444</v>
       </c>
+      <c r="B345">
+        <v>19.84</v>
+      </c>
+      <c r="C345">
+        <v>20.43</v>
+      </c>
+      <c r="D345">
+        <v>19.13</v>
+      </c>
+      <c r="E345">
+        <v>18.9</v>
+      </c>
       <c r="F345">
         <v>18.7323</v>
       </c>
@@ -5247,6 +9375,18 @@
       <c r="A346" s="2">
         <v>45293.23888888889</v>
       </c>
+      <c r="B346">
+        <v>19.88</v>
+      </c>
+      <c r="C346">
+        <v>20.45</v>
+      </c>
+      <c r="D346">
+        <v>19.11</v>
+      </c>
+      <c r="E346">
+        <v>18.88</v>
+      </c>
       <c r="F346">
         <v>18.7404</v>
       </c>
@@ -5261,6 +9401,18 @@
       <c r="A347" s="2">
         <v>45293.23958333334</v>
       </c>
+      <c r="B347">
+        <v>19.84</v>
+      </c>
+      <c r="C347">
+        <v>20.47</v>
+      </c>
+      <c r="D347">
+        <v>19.13</v>
+      </c>
+      <c r="E347">
+        <v>18.91</v>
+      </c>
       <c r="F347">
         <v>18.7484</v>
       </c>
@@ -5275,6 +9427,18 @@
       <c r="A348" s="2">
         <v>45293.24027777778</v>
       </c>
+      <c r="B348">
+        <v>19.85</v>
+      </c>
+      <c r="C348">
+        <v>20.45</v>
+      </c>
+      <c r="D348">
+        <v>19.13</v>
+      </c>
+      <c r="E348">
+        <v>18.86</v>
+      </c>
       <c r="F348">
         <v>18.7457</v>
       </c>
@@ -5289,6 +9453,18 @@
       <c r="A349" s="2">
         <v>45293.24097222222</v>
       </c>
+      <c r="B349">
+        <v>19.86</v>
+      </c>
+      <c r="C349">
+        <v>20.43</v>
+      </c>
+      <c r="D349">
+        <v>19.17</v>
+      </c>
+      <c r="E349">
+        <v>18.87</v>
+      </c>
       <c r="F349">
         <v>18.7136</v>
       </c>
@@ -5303,6 +9479,18 @@
       <c r="A350" s="2">
         <v>45293.24166666667</v>
       </c>
+      <c r="B350">
+        <v>19.9</v>
+      </c>
+      <c r="C350">
+        <v>20.45</v>
+      </c>
+      <c r="D350">
+        <v>19.17</v>
+      </c>
+      <c r="E350">
+        <v>18.91</v>
+      </c>
       <c r="F350">
         <v>18.7297</v>
       </c>
@@ -5317,6 +9505,18 @@
       <c r="A351" s="2">
         <v>45293.24236111111</v>
       </c>
+      <c r="B351">
+        <v>19.87</v>
+      </c>
+      <c r="C351">
+        <v>20.44</v>
+      </c>
+      <c r="D351">
+        <v>19.16</v>
+      </c>
+      <c r="E351">
+        <v>18.85</v>
+      </c>
       <c r="F351">
         <v>18.7189</v>
       </c>
@@ -5331,6 +9531,18 @@
       <c r="A352" s="2">
         <v>45293.24305555555</v>
       </c>
+      <c r="B352">
+        <v>19.88</v>
+      </c>
+      <c r="C352">
+        <v>20.39</v>
+      </c>
+      <c r="D352">
+        <v>19.14</v>
+      </c>
+      <c r="E352">
+        <v>18.89</v>
+      </c>
       <c r="F352">
         <v>18.6626</v>
       </c>
@@ -5345,6 +9557,18 @@
       <c r="A353" s="2">
         <v>45293.24375</v>
       </c>
+      <c r="B353">
+        <v>19.9</v>
+      </c>
+      <c r="C353">
+        <v>20.47</v>
+      </c>
+      <c r="D353">
+        <v>19.17</v>
+      </c>
+      <c r="E353">
+        <v>18.88</v>
+      </c>
       <c r="F353">
         <v>18.6197</v>
       </c>
@@ -5359,6 +9583,18 @@
       <c r="A354" s="2">
         <v>45293.24444444444</v>
       </c>
+      <c r="B354">
+        <v>19.89</v>
+      </c>
+      <c r="C354">
+        <v>20.42</v>
+      </c>
+      <c r="D354">
+        <v>19.18</v>
+      </c>
+      <c r="E354">
+        <v>18.89</v>
+      </c>
       <c r="F354">
         <v>18.5822</v>
       </c>
@@ -5373,6 +9609,18 @@
       <c r="A355" s="2">
         <v>45293.24513888889</v>
       </c>
+      <c r="B355">
+        <v>19.9</v>
+      </c>
+      <c r="C355">
+        <v>20.45</v>
+      </c>
+      <c r="D355">
+        <v>19.19</v>
+      </c>
+      <c r="E355">
+        <v>18.86</v>
+      </c>
       <c r="F355">
         <v>18.5661</v>
       </c>
@@ -5387,6 +9635,18 @@
       <c r="A356" s="2">
         <v>45293.24583333333</v>
       </c>
+      <c r="B356">
+        <v>19.9</v>
+      </c>
+      <c r="C356">
+        <v>20.42</v>
+      </c>
+      <c r="D356">
+        <v>19.17</v>
+      </c>
+      <c r="E356">
+        <v>18.87</v>
+      </c>
       <c r="F356">
         <v>18.5768</v>
       </c>
@@ -5401,6 +9661,18 @@
       <c r="A357" s="2">
         <v>45293.24652777778</v>
       </c>
+      <c r="B357">
+        <v>19.9</v>
+      </c>
+      <c r="C357">
+        <v>20.43</v>
+      </c>
+      <c r="D357">
+        <v>19.22</v>
+      </c>
+      <c r="E357">
+        <v>18.9</v>
+      </c>
       <c r="F357">
         <v>18.5849</v>
       </c>
@@ -5415,6 +9687,18 @@
       <c r="A358" s="2">
         <v>45293.24722222222</v>
       </c>
+      <c r="B358">
+        <v>19.94</v>
+      </c>
+      <c r="C358">
+        <v>20.43</v>
+      </c>
+      <c r="D358">
+        <v>19.18</v>
+      </c>
+      <c r="E358">
+        <v>18.99</v>
+      </c>
       <c r="F358">
         <v>18.609</v>
       </c>
@@ -5429,6 +9713,18 @@
       <c r="A359" s="2">
         <v>45293.24791666667</v>
       </c>
+      <c r="B359">
+        <v>19.89</v>
+      </c>
+      <c r="C359">
+        <v>20.48</v>
+      </c>
+      <c r="D359">
+        <v>19.17</v>
+      </c>
+      <c r="E359">
+        <v>18.94</v>
+      </c>
       <c r="F359">
         <v>18.6546</v>
       </c>
@@ -5443,6 +9739,18 @@
       <c r="A360" s="2">
         <v>45293.24861111111</v>
       </c>
+      <c r="B360">
+        <v>19.91</v>
+      </c>
+      <c r="C360">
+        <v>20.43</v>
+      </c>
+      <c r="D360">
+        <v>19.23</v>
+      </c>
+      <c r="E360">
+        <v>18.94</v>
+      </c>
       <c r="F360">
         <v>18.7082</v>
       </c>
@@ -5457,6 +9765,18 @@
       <c r="A361" s="2">
         <v>45293.24930555555</v>
       </c>
+      <c r="B361">
+        <v>19.89</v>
+      </c>
+      <c r="C361">
+        <v>20.39</v>
+      </c>
+      <c r="D361">
+        <v>19.24</v>
+      </c>
+      <c r="E361">
+        <v>18.95</v>
+      </c>
       <c r="F361">
         <v>18.7297</v>
       </c>
@@ -5471,6 +9791,18 @@
       <c r="A362" s="2">
         <v>45293.25</v>
       </c>
+      <c r="B362">
+        <v>19.94</v>
+      </c>
+      <c r="C362">
+        <v>20.41</v>
+      </c>
+      <c r="D362">
+        <v>19.23</v>
+      </c>
+      <c r="E362">
+        <v>18.99</v>
+      </c>
       <c r="F362">
         <v>18.7484</v>
       </c>
@@ -5485,6 +9817,18 @@
       <c r="A363" s="2">
         <v>45293.25069444445</v>
       </c>
+      <c r="B363">
+        <v>19.94</v>
+      </c>
+      <c r="C363">
+        <v>20.45</v>
+      </c>
+      <c r="D363">
+        <v>19.28</v>
+      </c>
+      <c r="E363">
+        <v>19.04</v>
+      </c>
       <c r="F363">
         <v>18.7699</v>
       </c>
@@ -5499,6 +9843,18 @@
       <c r="A364" s="2">
         <v>45293.25138888889</v>
       </c>
+      <c r="B364">
+        <v>19.92</v>
+      </c>
+      <c r="C364">
+        <v>20.42</v>
+      </c>
+      <c r="D364">
+        <v>19.3</v>
+      </c>
+      <c r="E364">
+        <v>19.06</v>
+      </c>
       <c r="F364">
         <v>18.7833</v>
       </c>
@@ -5513,6 +9869,18 @@
       <c r="A365" s="2">
         <v>45293.25208333333</v>
       </c>
+      <c r="B365">
+        <v>19.99</v>
+      </c>
+      <c r="C365">
+        <v>20.42</v>
+      </c>
+      <c r="D365">
+        <v>19.27</v>
+      </c>
+      <c r="E365">
+        <v>19.14</v>
+      </c>
       <c r="F365">
         <v>18.7833</v>
       </c>
@@ -5527,6 +9895,18 @@
       <c r="A366" s="2">
         <v>45293.25277777778</v>
       </c>
+      <c r="B366">
+        <v>19.95</v>
+      </c>
+      <c r="C366">
+        <v>20.45</v>
+      </c>
+      <c r="D366">
+        <v>19.31</v>
+      </c>
+      <c r="E366">
+        <v>19.12</v>
+      </c>
       <c r="F366">
         <v>18.7886</v>
       </c>
@@ -5541,6 +9921,18 @@
       <c r="A367" s="2">
         <v>45293.25347222222</v>
       </c>
+      <c r="B367">
+        <v>20.02</v>
+      </c>
+      <c r="C367">
+        <v>20.38</v>
+      </c>
+      <c r="D367">
+        <v>19.37</v>
+      </c>
+      <c r="E367">
+        <v>19.1</v>
+      </c>
       <c r="F367">
         <v>18.8074</v>
       </c>
@@ -5555,6 +9947,18 @@
       <c r="A368" s="2">
         <v>45293.25416666667</v>
       </c>
+      <c r="B368">
+        <v>20.01</v>
+      </c>
+      <c r="C368">
+        <v>20.45</v>
+      </c>
+      <c r="D368">
+        <v>19.38</v>
+      </c>
+      <c r="E368">
+        <v>19.17</v>
+      </c>
       <c r="F368">
         <v>18.8396</v>
       </c>
@@ -5569,6 +9973,18 @@
       <c r="A369" s="2">
         <v>45293.25486111111</v>
       </c>
+      <c r="B369">
+        <v>20.01</v>
+      </c>
+      <c r="C369">
+        <v>20.46</v>
+      </c>
+      <c r="D369">
+        <v>19.4</v>
+      </c>
+      <c r="E369">
+        <v>19.18</v>
+      </c>
       <c r="F369">
         <v>18.8878</v>
       </c>
@@ -5583,6 +9999,18 @@
       <c r="A370" s="2">
         <v>45293.25555555556</v>
       </c>
+      <c r="B370">
+        <v>20</v>
+      </c>
+      <c r="C370">
+        <v>20.43</v>
+      </c>
+      <c r="D370">
+        <v>19.41</v>
+      </c>
+      <c r="E370">
+        <v>19.19</v>
+      </c>
       <c r="F370">
         <v>18.9039</v>
       </c>
@@ -5597,6 +10025,18 @@
       <c r="A371" s="2">
         <v>45293.25625</v>
       </c>
+      <c r="B371">
+        <v>20.07</v>
+      </c>
+      <c r="C371">
+        <v>20.48</v>
+      </c>
+      <c r="D371">
+        <v>19.42</v>
+      </c>
+      <c r="E371">
+        <v>19.23</v>
+      </c>
       <c r="F371">
         <v>18.8932</v>
       </c>
@@ -5611,6 +10051,18 @@
       <c r="A372" s="2">
         <v>45293.25694444445</v>
       </c>
+      <c r="B372">
+        <v>20.08</v>
+      </c>
+      <c r="C372">
+        <v>20.42</v>
+      </c>
+      <c r="D372">
+        <v>19.49</v>
+      </c>
+      <c r="E372">
+        <v>19.22</v>
+      </c>
       <c r="F372">
         <v>18.8771</v>
       </c>
@@ -5625,6 +10077,18 @@
       <c r="A373" s="2">
         <v>45293.25763888889</v>
       </c>
+      <c r="B373">
+        <v>20.09</v>
+      </c>
+      <c r="C373">
+        <v>20.45</v>
+      </c>
+      <c r="D373">
+        <v>19.51</v>
+      </c>
+      <c r="E373">
+        <v>19.21</v>
+      </c>
       <c r="F373">
         <v>18.8851</v>
       </c>
@@ -5639,6 +10103,18 @@
       <c r="A374" s="2">
         <v>45293.25833333333</v>
       </c>
+      <c r="B374">
+        <v>20.08</v>
+      </c>
+      <c r="C374">
+        <v>20.47</v>
+      </c>
+      <c r="D374">
+        <v>19.53</v>
+      </c>
+      <c r="E374">
+        <v>19.23</v>
+      </c>
       <c r="F374">
         <v>18.8986</v>
       </c>
@@ -5653,6 +10129,18 @@
       <c r="A375" s="2">
         <v>45293.25902777778</v>
       </c>
+      <c r="B375">
+        <v>20.1</v>
+      </c>
+      <c r="C375">
+        <v>20.45</v>
+      </c>
+      <c r="D375">
+        <v>19.52</v>
+      </c>
+      <c r="E375">
+        <v>19.32</v>
+      </c>
       <c r="F375">
         <v>18.9012</v>
       </c>
@@ -5667,6 +10155,18 @@
       <c r="A376" s="2">
         <v>45293.25972222222</v>
       </c>
+      <c r="B376">
+        <v>20.12</v>
+      </c>
+      <c r="C376">
+        <v>20.48</v>
+      </c>
+      <c r="D376">
+        <v>19.55</v>
+      </c>
+      <c r="E376">
+        <v>19.32</v>
+      </c>
       <c r="F376">
         <v>18.912</v>
       </c>
@@ -5681,6 +10181,18 @@
       <c r="A377" s="2">
         <v>45293.26041666666</v>
       </c>
+      <c r="B377">
+        <v>20.15</v>
+      </c>
+      <c r="C377">
+        <v>20.46</v>
+      </c>
+      <c r="D377">
+        <v>19.59</v>
+      </c>
+      <c r="E377">
+        <v>19.32</v>
+      </c>
       <c r="F377">
         <v>18.92</v>
       </c>
@@ -5695,6 +10207,18 @@
       <c r="A378" s="2">
         <v>45293.26111111111</v>
       </c>
+      <c r="B378">
+        <v>20.16</v>
+      </c>
+      <c r="C378">
+        <v>20.5</v>
+      </c>
+      <c r="D378">
+        <v>19.58</v>
+      </c>
+      <c r="E378">
+        <v>19.32</v>
+      </c>
       <c r="F378">
         <v>18.8932</v>
       </c>
@@ -5709,6 +10233,18 @@
       <c r="A379" s="2">
         <v>45293.26180555556</v>
       </c>
+      <c r="B379">
+        <v>20.16</v>
+      </c>
+      <c r="C379">
+        <v>20.5</v>
+      </c>
+      <c r="D379">
+        <v>19.65</v>
+      </c>
+      <c r="E379">
+        <v>19.37</v>
+      </c>
       <c r="F379">
         <v>18.8717</v>
       </c>
@@ -5723,6 +10259,18 @@
       <c r="A380" s="2">
         <v>45293.2625</v>
       </c>
+      <c r="B380">
+        <v>20.21</v>
+      </c>
+      <c r="C380">
+        <v>20.52</v>
+      </c>
+      <c r="D380">
+        <v>19.66</v>
+      </c>
+      <c r="E380">
+        <v>19.37</v>
+      </c>
       <c r="F380">
         <v>18.8664</v>
       </c>
@@ -5737,6 +10285,18 @@
       <c r="A381" s="2">
         <v>45293.26319444444</v>
       </c>
+      <c r="B381">
+        <v>20.21</v>
+      </c>
+      <c r="C381">
+        <v>20.51</v>
+      </c>
+      <c r="D381">
+        <v>19.73</v>
+      </c>
+      <c r="E381">
+        <v>19.39</v>
+      </c>
       <c r="F381">
         <v>18.8423</v>
       </c>
@@ -5751,6 +10311,18 @@
       <c r="A382" s="2">
         <v>45293.26388888889</v>
       </c>
+      <c r="B382">
+        <v>20.24</v>
+      </c>
+      <c r="C382">
+        <v>20.5</v>
+      </c>
+      <c r="D382">
+        <v>19.73</v>
+      </c>
+      <c r="E382">
+        <v>19.37</v>
+      </c>
       <c r="F382">
         <v>18.8128</v>
       </c>
@@ -5765,6 +10337,18 @@
       <c r="A383" s="2">
         <v>45293.26458333333</v>
       </c>
+      <c r="B383">
+        <v>20.21</v>
+      </c>
+      <c r="C383">
+        <v>20.55</v>
+      </c>
+      <c r="D383">
+        <v>19.78</v>
+      </c>
+      <c r="E383">
+        <v>19.39</v>
+      </c>
       <c r="F383">
         <v>18.7779</v>
       </c>
@@ -5779,6 +10363,18 @@
       <c r="A384" s="2">
         <v>45293.26527777778</v>
       </c>
+      <c r="B384">
+        <v>20.22</v>
+      </c>
+      <c r="C384">
+        <v>20.53</v>
+      </c>
+      <c r="D384">
+        <v>19.79</v>
+      </c>
+      <c r="E384">
+        <v>19.4</v>
+      </c>
       <c r="F384">
         <v>18.7565</v>
       </c>
@@ -5793,6 +10389,18 @@
       <c r="A385" s="2">
         <v>45293.26597222222</v>
       </c>
+      <c r="B385">
+        <v>20.26</v>
+      </c>
+      <c r="C385">
+        <v>20.55</v>
+      </c>
+      <c r="D385">
+        <v>19.81</v>
+      </c>
+      <c r="E385">
+        <v>19.46</v>
+      </c>
       <c r="F385">
         <v>18.7672</v>
       </c>
@@ -5807,6 +10415,18 @@
       <c r="A386" s="2">
         <v>45293.26666666667</v>
       </c>
+      <c r="B386">
+        <v>20.29</v>
+      </c>
+      <c r="C386">
+        <v>20.56</v>
+      </c>
+      <c r="D386">
+        <v>19.81</v>
+      </c>
+      <c r="E386">
+        <v>19.5</v>
+      </c>
       <c r="F386">
         <v>18.786</v>
       </c>
@@ -5821,6 +10441,18 @@
       <c r="A387" s="2">
         <v>45293.26736111111</v>
       </c>
+      <c r="B387">
+        <v>20.31</v>
+      </c>
+      <c r="C387">
+        <v>20.56</v>
+      </c>
+      <c r="D387">
+        <v>19.81</v>
+      </c>
+      <c r="E387">
+        <v>19.54</v>
+      </c>
       <c r="F387">
         <v>18.8342</v>
       </c>
@@ -5835,6 +10467,18 @@
       <c r="A388" s="2">
         <v>45293.26805555556</v>
       </c>
+      <c r="B388">
+        <v>20.33</v>
+      </c>
+      <c r="C388">
+        <v>20.57</v>
+      </c>
+      <c r="D388">
+        <v>19.9</v>
+      </c>
+      <c r="E388">
+        <v>19.56</v>
+      </c>
       <c r="F388">
         <v>18.8798</v>
       </c>
@@ -5849,6 +10493,18 @@
       <c r="A389" s="2">
         <v>45293.26875</v>
       </c>
+      <c r="B389">
+        <v>20.35</v>
+      </c>
+      <c r="C389">
+        <v>20.59</v>
+      </c>
+      <c r="D389">
+        <v>19.93</v>
+      </c>
+      <c r="E389">
+        <v>19.59</v>
+      </c>
       <c r="F389">
         <v>18.9227</v>
       </c>
@@ -5863,6 +10519,18 @@
       <c r="A390" s="2">
         <v>45293.26944444444</v>
       </c>
+      <c r="B390">
+        <v>20.36</v>
+      </c>
+      <c r="C390">
+        <v>20.55</v>
+      </c>
+      <c r="D390">
+        <v>19.93</v>
+      </c>
+      <c r="E390">
+        <v>19.56</v>
+      </c>
       <c r="F390">
         <v>18.928</v>
       </c>
@@ -5877,6 +10545,18 @@
       <c r="A391" s="2">
         <v>45293.27013888889</v>
       </c>
+      <c r="B391">
+        <v>20.4</v>
+      </c>
+      <c r="C391">
+        <v>20.59</v>
+      </c>
+      <c r="D391">
+        <v>19.97</v>
+      </c>
+      <c r="E391">
+        <v>19.63</v>
+      </c>
       <c r="F391">
         <v>18.9334</v>
       </c>
@@ -5891,6 +10571,18 @@
       <c r="A392" s="2">
         <v>45293.27083333334</v>
       </c>
+      <c r="B392">
+        <v>20.42</v>
+      </c>
+      <c r="C392">
+        <v>20.61</v>
+      </c>
+      <c r="D392">
+        <v>19.97</v>
+      </c>
+      <c r="E392">
+        <v>19.63</v>
+      </c>
       <c r="F392">
         <v>18.9441</v>
       </c>
@@ -5905,6 +10597,18 @@
       <c r="A393" s="2">
         <v>45293.27152777778</v>
       </c>
+      <c r="B393">
+        <v>20.44</v>
+      </c>
+      <c r="C393">
+        <v>20.62</v>
+      </c>
+      <c r="D393">
+        <v>20.04</v>
+      </c>
+      <c r="E393">
+        <v>19.65</v>
+      </c>
       <c r="F393">
         <v>18.9254</v>
       </c>
@@ -5919,6 +10623,18 @@
       <c r="A394" s="2">
         <v>45293.27222222222</v>
       </c>
+      <c r="B394">
+        <v>20.47</v>
+      </c>
+      <c r="C394">
+        <v>20.64</v>
+      </c>
+      <c r="D394">
+        <v>20.04</v>
+      </c>
+      <c r="E394">
+        <v>19.68</v>
+      </c>
       <c r="F394">
         <v>18.928</v>
       </c>
@@ -5933,6 +10649,18 @@
       <c r="A395" s="2">
         <v>45293.27291666667</v>
       </c>
+      <c r="B395">
+        <v>20.48</v>
+      </c>
+      <c r="C395">
+        <v>20.64</v>
+      </c>
+      <c r="D395">
+        <v>20.1</v>
+      </c>
+      <c r="E395">
+        <v>19.68</v>
+      </c>
       <c r="F395">
         <v>18.9495</v>
       </c>
@@ -5947,6 +10675,18 @@
       <c r="A396" s="2">
         <v>45293.27361111111</v>
       </c>
+      <c r="B396">
+        <v>20.5</v>
+      </c>
+      <c r="C396">
+        <v>20.67</v>
+      </c>
+      <c r="D396">
+        <v>20.13</v>
+      </c>
+      <c r="E396">
+        <v>19.67</v>
+      </c>
       <c r="F396">
         <v>18.9227</v>
       </c>
@@ -5961,6 +10701,18 @@
       <c r="A397" s="2">
         <v>45293.27430555555</v>
       </c>
+      <c r="B397">
+        <v>20.56</v>
+      </c>
+      <c r="C397">
+        <v>20.67</v>
+      </c>
+      <c r="D397">
+        <v>20.13</v>
+      </c>
+      <c r="E397">
+        <v>19.73</v>
+      </c>
       <c r="F397">
         <v>18.9093</v>
       </c>
@@ -5975,6 +10727,18 @@
       <c r="A398" s="2">
         <v>45293.275</v>
       </c>
+      <c r="B398">
+        <v>20.5</v>
+      </c>
+      <c r="C398">
+        <v>20.7</v>
+      </c>
+      <c r="D398">
+        <v>20.17</v>
+      </c>
+      <c r="E398">
+        <v>19.75</v>
+      </c>
       <c r="F398">
         <v>18.9093</v>
       </c>
@@ -5989,6 +10753,18 @@
       <c r="A399" s="2">
         <v>45293.27569444444</v>
       </c>
+      <c r="B399">
+        <v>20.6</v>
+      </c>
+      <c r="C399">
+        <v>20.73</v>
+      </c>
+      <c r="D399">
+        <v>20.2</v>
+      </c>
+      <c r="E399">
+        <v>19.69</v>
+      </c>
       <c r="F399">
         <v>18.9093</v>
       </c>
@@ -6003,6 +10779,18 @@
       <c r="A400" s="2">
         <v>45293.27638888889</v>
       </c>
+      <c r="B400">
+        <v>20.6</v>
+      </c>
+      <c r="C400">
+        <v>20.72</v>
+      </c>
+      <c r="D400">
+        <v>20.24</v>
+      </c>
+      <c r="E400">
+        <v>19.72</v>
+      </c>
       <c r="F400">
         <v>18.8878</v>
       </c>
@@ -6017,6 +10805,18 @@
       <c r="A401" s="2">
         <v>45293.27708333333</v>
       </c>
+      <c r="B401">
+        <v>20.59</v>
+      </c>
+      <c r="C401">
+        <v>20.72</v>
+      </c>
+      <c r="D401">
+        <v>20.21</v>
+      </c>
+      <c r="E401">
+        <v>19.76</v>
+      </c>
       <c r="F401">
         <v>18.8396</v>
       </c>
@@ -6031,6 +10831,18 @@
       <c r="A402" s="2">
         <v>45293.27777777778</v>
       </c>
+      <c r="B402">
+        <v>20.67</v>
+      </c>
+      <c r="C402">
+        <v>20.76</v>
+      </c>
+      <c r="D402">
+        <v>20.26</v>
+      </c>
+      <c r="E402">
+        <v>19.78</v>
+      </c>
       <c r="F402">
         <v>18.8342</v>
       </c>
@@ -6045,6 +10857,18 @@
       <c r="A403" s="2">
         <v>45293.27847222222</v>
       </c>
+      <c r="B403">
+        <v>20.71</v>
+      </c>
+      <c r="C403">
+        <v>20.74</v>
+      </c>
+      <c r="D403">
+        <v>20.31</v>
+      </c>
+      <c r="E403">
+        <v>19.78</v>
+      </c>
       <c r="F403">
         <v>18.8342</v>
       </c>
@@ -6059,6 +10883,18 @@
       <c r="A404" s="2">
         <v>45293.27916666667</v>
       </c>
+      <c r="B404">
+        <v>20.69</v>
+      </c>
+      <c r="C404">
+        <v>20.78</v>
+      </c>
+      <c r="D404">
+        <v>20.33</v>
+      </c>
+      <c r="E404">
+        <v>19.82</v>
+      </c>
       <c r="F404">
         <v>18.8315</v>
       </c>
@@ -6073,6 +10909,18 @@
       <c r="A405" s="2">
         <v>45293.27986111111</v>
       </c>
+      <c r="B405">
+        <v>20.72</v>
+      </c>
+      <c r="C405">
+        <v>20.75</v>
+      </c>
+      <c r="D405">
+        <v>20.4</v>
+      </c>
+      <c r="E405">
+        <v>19.88</v>
+      </c>
       <c r="F405">
         <v>18.853</v>
       </c>
@@ -6087,6 +10935,18 @@
       <c r="A406" s="2">
         <v>45293.28055555555</v>
       </c>
+      <c r="B406">
+        <v>20.75</v>
+      </c>
+      <c r="C406">
+        <v>20.82</v>
+      </c>
+      <c r="D406">
+        <v>20.37</v>
+      </c>
+      <c r="E406">
+        <v>19.88</v>
+      </c>
       <c r="F406">
         <v>18.8583</v>
       </c>
@@ -6101,6 +10961,18 @@
       <c r="A407" s="2">
         <v>45293.28125</v>
       </c>
+      <c r="B407">
+        <v>20.78</v>
+      </c>
+      <c r="C407">
+        <v>20.84</v>
+      </c>
+      <c r="D407">
+        <v>20.43</v>
+      </c>
+      <c r="E407">
+        <v>19.93</v>
+      </c>
       <c r="F407">
         <v>18.8476</v>
       </c>
@@ -6115,6 +10987,18 @@
       <c r="A408" s="2">
         <v>45293.28194444445</v>
       </c>
+      <c r="B408">
+        <v>20.8</v>
+      </c>
+      <c r="C408">
+        <v>20.84</v>
+      </c>
+      <c r="D408">
+        <v>20.42</v>
+      </c>
+      <c r="E408">
+        <v>19.94</v>
+      </c>
       <c r="F408">
         <v>18.861</v>
       </c>
@@ -6129,6 +11013,18 @@
       <c r="A409" s="2">
         <v>45293.28263888889</v>
       </c>
+      <c r="B409">
+        <v>20.84</v>
+      </c>
+      <c r="C409">
+        <v>20.9</v>
+      </c>
+      <c r="D409">
+        <v>20.5</v>
+      </c>
+      <c r="E409">
+        <v>19.96</v>
+      </c>
       <c r="F409">
         <v>18.8369</v>
       </c>
@@ -6143,6 +11039,18 @@
       <c r="A410" s="2">
         <v>45293.28333333333</v>
       </c>
+      <c r="B410">
+        <v>20.86</v>
+      </c>
+      <c r="C410">
+        <v>20.93</v>
+      </c>
+      <c r="D410">
+        <v>20.52</v>
+      </c>
+      <c r="E410">
+        <v>20</v>
+      </c>
       <c r="F410">
         <v>18.8342</v>
       </c>
@@ -6157,6 +11065,18 @@
       <c r="A411" s="2">
         <v>45293.28402777778</v>
       </c>
+      <c r="B411">
+        <v>20.88</v>
+      </c>
+      <c r="C411">
+        <v>20.91</v>
+      </c>
+      <c r="D411">
+        <v>20.55</v>
+      </c>
+      <c r="E411">
+        <v>20.03</v>
+      </c>
       <c r="F411">
         <v>18.8235</v>
       </c>
@@ -6171,6 +11091,18 @@
       <c r="A412" s="2">
         <v>45293.28472222222</v>
       </c>
+      <c r="B412">
+        <v>20.95</v>
+      </c>
+      <c r="C412">
+        <v>20.96</v>
+      </c>
+      <c r="D412">
+        <v>20.58</v>
+      </c>
+      <c r="E412">
+        <v>20.06</v>
+      </c>
       <c r="F412">
         <v>18.8208</v>
       </c>
@@ -6185,6 +11117,18 @@
       <c r="A413" s="2">
         <v>45293.28541666667</v>
       </c>
+      <c r="B413">
+        <v>20.95</v>
+      </c>
+      <c r="C413">
+        <v>20.97</v>
+      </c>
+      <c r="D413">
+        <v>20.61</v>
+      </c>
+      <c r="E413">
+        <v>20.1</v>
+      </c>
       <c r="F413">
         <v>18.8396</v>
       </c>
@@ -6199,6 +11143,18 @@
       <c r="A414" s="2">
         <v>45293.28611111111</v>
       </c>
+      <c r="B414">
+        <v>20.96</v>
+      </c>
+      <c r="C414">
+        <v>20.97</v>
+      </c>
+      <c r="D414">
+        <v>20.63</v>
+      </c>
+      <c r="E414">
+        <v>20.1</v>
+      </c>
       <c r="F414">
         <v>18.853</v>
       </c>
@@ -6213,6 +11169,18 @@
       <c r="A415" s="2">
         <v>45293.28680555556</v>
       </c>
+      <c r="B415">
+        <v>21.05</v>
+      </c>
+      <c r="C415">
+        <v>20.97</v>
+      </c>
+      <c r="D415">
+        <v>20.67</v>
+      </c>
+      <c r="E415">
+        <v>20.11</v>
+      </c>
       <c r="F415">
         <v>18.8476</v>
       </c>
@@ -6227,6 +11195,18 @@
       <c r="A416" s="2">
         <v>45293.2875</v>
       </c>
+      <c r="B416">
+        <v>21.06</v>
+      </c>
+      <c r="C416">
+        <v>21</v>
+      </c>
+      <c r="D416">
+        <v>20.74</v>
+      </c>
+      <c r="E416">
+        <v>20.13</v>
+      </c>
       <c r="F416">
         <v>18.8154</v>
       </c>
@@ -6241,6 +11221,18 @@
       <c r="A417" s="2">
         <v>45293.28819444445</v>
       </c>
+      <c r="B417">
+        <v>21.11</v>
+      </c>
+      <c r="C417">
+        <v>21.01</v>
+      </c>
+      <c r="D417">
+        <v>20.78</v>
+      </c>
+      <c r="E417">
+        <v>20.15</v>
+      </c>
       <c r="F417">
         <v>18.7833</v>
       </c>
@@ -6255,6 +11247,18 @@
       <c r="A418" s="2">
         <v>45293.28888888889</v>
       </c>
+      <c r="B418">
+        <v>21.14</v>
+      </c>
+      <c r="C418">
+        <v>21.01</v>
+      </c>
+      <c r="D418">
+        <v>20.79</v>
+      </c>
+      <c r="E418">
+        <v>20.22</v>
+      </c>
       <c r="F418">
         <v>18.7994</v>
       </c>
@@ -6269,6 +11273,18 @@
       <c r="A419" s="2">
         <v>45293.28958333333</v>
       </c>
+      <c r="B419">
+        <v>21.16</v>
+      </c>
+      <c r="C419">
+        <v>21.05</v>
+      </c>
+      <c r="D419">
+        <v>20.82</v>
+      </c>
+      <c r="E419">
+        <v>20.15</v>
+      </c>
       <c r="F419">
         <v>18.8423</v>
       </c>
@@ -6283,6 +11299,18 @@
       <c r="A420" s="2">
         <v>45293.29027777778</v>
       </c>
+      <c r="B420">
+        <v>21.19</v>
+      </c>
+      <c r="C420">
+        <v>21.07</v>
+      </c>
+      <c r="D420">
+        <v>20.85</v>
+      </c>
+      <c r="E420">
+        <v>20.21</v>
+      </c>
       <c r="F420">
         <v>18.8315</v>
       </c>
@@ -6297,6 +11325,18 @@
       <c r="A421" s="2">
         <v>45293.29097222222</v>
       </c>
+      <c r="B421">
+        <v>21.21</v>
+      </c>
+      <c r="C421">
+        <v>21.1</v>
+      </c>
+      <c r="D421">
+        <v>20.87</v>
+      </c>
+      <c r="E421">
+        <v>20.1</v>
+      </c>
       <c r="F421">
         <v>18.7752</v>
       </c>
@@ -6311,6 +11351,18 @@
       <c r="A422" s="2">
         <v>45293.29166666666</v>
       </c>
+      <c r="B422">
+        <v>21.26</v>
+      </c>
+      <c r="C422">
+        <v>21.13</v>
+      </c>
+      <c r="D422">
+        <v>20.93</v>
+      </c>
+      <c r="E422">
+        <v>20.2</v>
+      </c>
       <c r="F422">
         <v>18.7136</v>
       </c>
@@ -6325,6 +11377,18 @@
       <c r="A423" s="2">
         <v>45293.29236111111</v>
       </c>
+      <c r="B423">
+        <v>21.28</v>
+      </c>
+      <c r="C423">
+        <v>21.18</v>
+      </c>
+      <c r="D423">
+        <v>20.93</v>
+      </c>
+      <c r="E423">
+        <v>20.22</v>
+      </c>
       <c r="F423">
         <v>18.6948</v>
       </c>
@@ -6339,6 +11403,18 @@
       <c r="A424" s="2">
         <v>45293.29305555556</v>
       </c>
+      <c r="B424">
+        <v>21.33</v>
+      </c>
+      <c r="C424">
+        <v>21.19</v>
+      </c>
+      <c r="D424">
+        <v>20.99</v>
+      </c>
+      <c r="E424">
+        <v>20.2</v>
+      </c>
       <c r="F424">
         <v>18.7055</v>
       </c>
@@ -6353,6 +11429,18 @@
       <c r="A425" s="2">
         <v>45293.29375</v>
       </c>
+      <c r="B425">
+        <v>21.35</v>
+      </c>
+      <c r="C425">
+        <v>21.2</v>
+      </c>
+      <c r="D425">
+        <v>21</v>
+      </c>
+      <c r="E425">
+        <v>20.25</v>
+      </c>
       <c r="F425">
         <v>18.7136</v>
       </c>
@@ -6367,6 +11455,18 @@
       <c r="A426" s="2">
         <v>45293.29444444444</v>
       </c>
+      <c r="B426">
+        <v>21.39</v>
+      </c>
+      <c r="C426">
+        <v>21.26</v>
+      </c>
+      <c r="D426">
+        <v>21.01</v>
+      </c>
+      <c r="E426">
+        <v>20.27</v>
+      </c>
       <c r="F426">
         <v>18.7216</v>
       </c>
@@ -6381,6 +11481,18 @@
       <c r="A427" s="2">
         <v>45293.29513888889</v>
       </c>
+      <c r="B427">
+        <v>21.43</v>
+      </c>
+      <c r="C427">
+        <v>21.28</v>
+      </c>
+      <c r="D427">
+        <v>21</v>
+      </c>
+      <c r="E427">
+        <v>20.29</v>
+      </c>
       <c r="F427">
         <v>18.7082</v>
       </c>
@@ -6395,6 +11507,18 @@
       <c r="A428" s="2">
         <v>45293.29583333333</v>
       </c>
+      <c r="B428">
+        <v>21.42</v>
+      </c>
+      <c r="C428">
+        <v>21.28</v>
+      </c>
+      <c r="D428">
+        <v>21.04</v>
+      </c>
+      <c r="E428">
+        <v>20.34</v>
+      </c>
       <c r="F428">
         <v>18.727</v>
       </c>
@@ -6409,6 +11533,18 @@
       <c r="A429" s="2">
         <v>45293.29652777778</v>
       </c>
+      <c r="B429">
+        <v>21.47</v>
+      </c>
+      <c r="C429">
+        <v>21.3</v>
+      </c>
+      <c r="D429">
+        <v>21.08</v>
+      </c>
+      <c r="E429">
+        <v>20.38</v>
+      </c>
       <c r="F429">
         <v>18.7672</v>
       </c>
@@ -6423,6 +11559,18 @@
       <c r="A430" s="2">
         <v>45293.29722222222</v>
       </c>
+      <c r="B430">
+        <v>21.5</v>
+      </c>
+      <c r="C430">
+        <v>21.31</v>
+      </c>
+      <c r="D430">
+        <v>21.09</v>
+      </c>
+      <c r="E430">
+        <v>20.41</v>
+      </c>
       <c r="F430">
         <v>18.786</v>
       </c>
@@ -6437,6 +11585,18 @@
       <c r="A431" s="2">
         <v>45293.29791666667</v>
       </c>
+      <c r="B431">
+        <v>21.55</v>
+      </c>
+      <c r="C431">
+        <v>21.34</v>
+      </c>
+      <c r="D431">
+        <v>21.15</v>
+      </c>
+      <c r="E431">
+        <v>20.41</v>
+      </c>
       <c r="F431">
         <v>18.7833</v>
       </c>
@@ -6451,6 +11611,18 @@
       <c r="A432" s="2">
         <v>45293.29861111111</v>
       </c>
+      <c r="B432">
+        <v>21.6</v>
+      </c>
+      <c r="C432">
+        <v>21.38</v>
+      </c>
+      <c r="D432">
+        <v>21.13</v>
+      </c>
+      <c r="E432">
+        <v>20.38</v>
+      </c>
       <c r="F432">
         <v>18.7994</v>
       </c>
@@ -6465,6 +11637,18 @@
       <c r="A433" s="2">
         <v>45293.29930555556</v>
       </c>
+      <c r="B433">
+        <v>21.61</v>
+      </c>
+      <c r="C433">
+        <v>21.41</v>
+      </c>
+      <c r="D433">
+        <v>21.14</v>
+      </c>
+      <c r="E433">
+        <v>20.41</v>
+      </c>
       <c r="F433">
         <v>18.7994</v>
       </c>
@@ -6479,6 +11663,18 @@
       <c r="A434" s="2">
         <v>45293.3</v>
       </c>
+      <c r="B434">
+        <v>21.63</v>
+      </c>
+      <c r="C434">
+        <v>21.42</v>
+      </c>
+      <c r="D434">
+        <v>21.23</v>
+      </c>
+      <c r="E434">
+        <v>20.4</v>
+      </c>
       <c r="F434">
         <v>18.7779</v>
       </c>
@@ -6493,6 +11689,18 @@
       <c r="A435" s="2">
         <v>45293.30069444444</v>
       </c>
+      <c r="B435">
+        <v>21.67</v>
+      </c>
+      <c r="C435">
+        <v>21.41</v>
+      </c>
+      <c r="D435">
+        <v>21.24</v>
+      </c>
+      <c r="E435">
+        <v>20.51</v>
+      </c>
       <c r="F435">
         <v>18.7752</v>
       </c>
@@ -6507,6 +11715,18 @@
       <c r="A436" s="2">
         <v>45293.30138888889</v>
       </c>
+      <c r="B436">
+        <v>21.72</v>
+      </c>
+      <c r="C436">
+        <v>21.46</v>
+      </c>
+      <c r="D436">
+        <v>21.28</v>
+      </c>
+      <c r="E436">
+        <v>20.53</v>
+      </c>
       <c r="F436">
         <v>18.794</v>
       </c>
@@ -6521,6 +11741,18 @@
       <c r="A437" s="2">
         <v>45293.30208333334</v>
       </c>
+      <c r="B437">
+        <v>21.74</v>
+      </c>
+      <c r="C437">
+        <v>21.5</v>
+      </c>
+      <c r="D437">
+        <v>21.3</v>
+      </c>
+      <c r="E437">
+        <v>20.57</v>
+      </c>
       <c r="F437">
         <v>18.8235</v>
       </c>
@@ -6535,6 +11767,18 @@
       <c r="A438" s="2">
         <v>45293.30277777778</v>
       </c>
+      <c r="B438">
+        <v>21.77</v>
+      </c>
+      <c r="C438">
+        <v>21.54</v>
+      </c>
+      <c r="D438">
+        <v>21.35</v>
+      </c>
+      <c r="E438">
+        <v>20.58</v>
+      </c>
       <c r="F438">
         <v>18.8449</v>
       </c>
@@ -6549,6 +11793,18 @@
       <c r="A439" s="2">
         <v>45293.30347222222</v>
       </c>
+      <c r="B439">
+        <v>21.8</v>
+      </c>
+      <c r="C439">
+        <v>21.54</v>
+      </c>
+      <c r="D439">
+        <v>21.38</v>
+      </c>
+      <c r="E439">
+        <v>20.65</v>
+      </c>
       <c r="F439">
         <v>18.8664</v>
       </c>
@@ -6563,6 +11819,18 @@
       <c r="A440" s="2">
         <v>45293.30416666667</v>
       </c>
+      <c r="B440">
+        <v>21.82</v>
+      </c>
+      <c r="C440">
+        <v>21.62</v>
+      </c>
+      <c r="D440">
+        <v>21.42</v>
+      </c>
+      <c r="E440">
+        <v>20.65</v>
+      </c>
       <c r="F440">
         <v>18.8744</v>
       </c>
@@ -6577,6 +11845,18 @@
       <c r="A441" s="2">
         <v>45293.30486111111</v>
       </c>
+      <c r="B441">
+        <v>21.9</v>
+      </c>
+      <c r="C441">
+        <v>21.62</v>
+      </c>
+      <c r="D441">
+        <v>21.42</v>
+      </c>
+      <c r="E441">
+        <v>20.73</v>
+      </c>
       <c r="F441">
         <v>18.8771</v>
       </c>
@@ -6591,6 +11871,18 @@
       <c r="A442" s="2">
         <v>45293.30555555555</v>
       </c>
+      <c r="B442">
+        <v>21.97</v>
+      </c>
+      <c r="C442">
+        <v>21.61</v>
+      </c>
+      <c r="D442">
+        <v>21.47</v>
+      </c>
+      <c r="E442">
+        <v>20.75</v>
+      </c>
       <c r="F442">
         <v>18.9012</v>
       </c>
@@ -6605,6 +11897,18 @@
       <c r="A443" s="2">
         <v>45293.30625</v>
       </c>
+      <c r="B443">
+        <v>22</v>
+      </c>
+      <c r="C443">
+        <v>21.7</v>
+      </c>
+      <c r="D443">
+        <v>21.56</v>
+      </c>
+      <c r="E443">
+        <v>20.8</v>
+      </c>
       <c r="F443">
         <v>18.9361</v>
       </c>
@@ -6619,6 +11923,18 @@
       <c r="A444" s="2">
         <v>45293.30694444444</v>
       </c>
+      <c r="B444">
+        <v>22</v>
+      </c>
+      <c r="C444">
+        <v>21.71</v>
+      </c>
+      <c r="D444">
+        <v>21.62</v>
+      </c>
+      <c r="E444">
+        <v>20.77</v>
+      </c>
       <c r="F444">
         <v>18.9307</v>
       </c>
@@ -6633,6 +11949,18 @@
       <c r="A445" s="2">
         <v>45293.30763888889</v>
       </c>
+      <c r="B445">
+        <v>22.07</v>
+      </c>
+      <c r="C445">
+        <v>21.72</v>
+      </c>
+      <c r="D445">
+        <v>21.63</v>
+      </c>
+      <c r="E445">
+        <v>20.79</v>
+      </c>
       <c r="F445">
         <v>18.9254</v>
       </c>
@@ -6647,6 +11975,18 @@
       <c r="A446" s="2">
         <v>45293.30833333333</v>
       </c>
+      <c r="B446">
+        <v>22.12</v>
+      </c>
+      <c r="C446">
+        <v>21.75</v>
+      </c>
+      <c r="D446">
+        <v>21.67</v>
+      </c>
+      <c r="E446">
+        <v>20.83</v>
+      </c>
       <c r="F446">
         <v>18.9012</v>
       </c>
@@ -6661,6 +12001,18 @@
       <c r="A447" s="2">
         <v>45293.30902777778</v>
       </c>
+      <c r="B447">
+        <v>22.16</v>
+      </c>
+      <c r="C447">
+        <v>21.77</v>
+      </c>
+      <c r="D447">
+        <v>21.71</v>
+      </c>
+      <c r="E447">
+        <v>20.82</v>
+      </c>
       <c r="F447">
         <v>18.8905</v>
       </c>
@@ -6675,6 +12027,18 @@
       <c r="A448" s="2">
         <v>45293.30972222222</v>
       </c>
+      <c r="B448">
+        <v>22.19</v>
+      </c>
+      <c r="C448">
+        <v>21.8</v>
+      </c>
+      <c r="D448">
+        <v>21.73</v>
+      </c>
+      <c r="E448">
+        <v>20.85</v>
+      </c>
       <c r="F448">
         <v>18.8878</v>
       </c>
@@ -6689,6 +12053,18 @@
       <c r="A449" s="2">
         <v>45293.31041666667</v>
       </c>
+      <c r="B449">
+        <v>22.26</v>
+      </c>
+      <c r="C449">
+        <v>21.86</v>
+      </c>
+      <c r="D449">
+        <v>21.73</v>
+      </c>
+      <c r="E449">
+        <v>20.93</v>
+      </c>
       <c r="F449">
         <v>18.8905</v>
       </c>
@@ -6703,6 +12079,18 @@
       <c r="A450" s="2">
         <v>45293.31111111111</v>
       </c>
+      <c r="B450">
+        <v>22.26</v>
+      </c>
+      <c r="C450">
+        <v>21.86</v>
+      </c>
+      <c r="D450">
+        <v>21.86</v>
+      </c>
+      <c r="E450">
+        <v>21.02</v>
+      </c>
       <c r="F450">
         <v>18.8851</v>
       </c>
@@ -6717,6 +12105,18 @@
       <c r="A451" s="2">
         <v>45293.31180555555</v>
       </c>
+      <c r="B451">
+        <v>22.29</v>
+      </c>
+      <c r="C451">
+        <v>21.89</v>
+      </c>
+      <c r="D451">
+        <v>21.83</v>
+      </c>
+      <c r="E451">
+        <v>21.04</v>
+      </c>
       <c r="F451">
         <v>18.9227</v>
       </c>
@@ -6731,6 +12131,18 @@
       <c r="A452" s="2">
         <v>45293.3125</v>
       </c>
+      <c r="B452">
+        <v>22.34</v>
+      </c>
+      <c r="C452">
+        <v>21.9</v>
+      </c>
+      <c r="D452">
+        <v>21.92</v>
+      </c>
+      <c r="E452">
+        <v>21.1</v>
+      </c>
       <c r="F452">
         <v>18.9602</v>
       </c>
@@ -6745,6 +12157,18 @@
       <c r="A453" s="2">
         <v>45293.31319444445</v>
       </c>
+      <c r="B453">
+        <v>22.38</v>
+      </c>
+      <c r="C453">
+        <v>21.96</v>
+      </c>
+      <c r="D453">
+        <v>21.94</v>
+      </c>
+      <c r="E453">
+        <v>21.2</v>
+      </c>
       <c r="F453">
         <v>19.0058</v>
       </c>
@@ -6759,6 +12183,18 @@
       <c r="A454" s="2">
         <v>45293.31388888889</v>
       </c>
+      <c r="B454">
+        <v>22.44</v>
+      </c>
+      <c r="C454">
+        <v>21.98</v>
+      </c>
+      <c r="D454">
+        <v>21.98</v>
+      </c>
+      <c r="E454">
+        <v>21.25</v>
+      </c>
       <c r="F454">
         <v>19.0809</v>
       </c>
@@ -6773,6 +12209,18 @@
       <c r="A455" s="2">
         <v>45293.31458333333</v>
       </c>
+      <c r="B455">
+        <v>22.47</v>
+      </c>
+      <c r="C455">
+        <v>22.02</v>
+      </c>
+      <c r="D455">
+        <v>22.08</v>
+      </c>
+      <c r="E455">
+        <v>21.25</v>
+      </c>
       <c r="F455">
         <v>19.1104</v>
       </c>
@@ -6787,6 +12235,18 @@
       <c r="A456" s="2">
         <v>45293.31527777778</v>
       </c>
+      <c r="B456">
+        <v>22.53</v>
+      </c>
+      <c r="C456">
+        <v>22.07</v>
+      </c>
+      <c r="D456">
+        <v>22.11</v>
+      </c>
+      <c r="E456">
+        <v>21.34</v>
+      </c>
       <c r="F456">
         <v>19.1345</v>
       </c>
@@ -6801,6 +12261,18 @@
       <c r="A457" s="2">
         <v>45293.31597222222</v>
       </c>
+      <c r="B457">
+        <v>22.55</v>
+      </c>
+      <c r="C457">
+        <v>22.09</v>
+      </c>
+      <c r="D457">
+        <v>22.16</v>
+      </c>
+      <c r="E457">
+        <v>21.44</v>
+      </c>
       <c r="F457">
         <v>19.1586</v>
       </c>
@@ -6815,6 +12287,18 @@
       <c r="A458" s="2">
         <v>45293.31666666667</v>
       </c>
+      <c r="B458">
+        <v>22.64</v>
+      </c>
+      <c r="C458">
+        <v>22.13</v>
+      </c>
+      <c r="D458">
+        <v>22.26</v>
+      </c>
+      <c r="E458">
+        <v>21.48</v>
+      </c>
       <c r="F458">
         <v>19.1961</v>
       </c>
@@ -6829,6 +12313,18 @@
       <c r="A459" s="2">
         <v>45293.31736111111</v>
       </c>
+      <c r="B459">
+        <v>22.7</v>
+      </c>
+      <c r="C459">
+        <v>22.13</v>
+      </c>
+      <c r="D459">
+        <v>22.27</v>
+      </c>
+      <c r="E459">
+        <v>21.57</v>
+      </c>
       <c r="F459">
         <v>19.2176</v>
       </c>
@@ -6843,6 +12339,18 @@
       <c r="A460" s="2">
         <v>45293.31805555556</v>
       </c>
+      <c r="B460">
+        <v>22.71</v>
+      </c>
+      <c r="C460">
+        <v>22.19</v>
+      </c>
+      <c r="D460">
+        <v>22.34</v>
+      </c>
+      <c r="E460">
+        <v>21.56</v>
+      </c>
       <c r="F460">
         <v>19.2846</v>
       </c>
@@ -6857,6 +12365,18 @@
       <c r="A461" s="2">
         <v>45293.31875</v>
       </c>
+      <c r="B461">
+        <v>22.75</v>
+      </c>
+      <c r="C461">
+        <v>22.25</v>
+      </c>
+      <c r="D461">
+        <v>22.42</v>
+      </c>
+      <c r="E461">
+        <v>21.62</v>
+      </c>
       <c r="F461">
         <v>19.3329</v>
       </c>
@@ -6871,6 +12391,18 @@
       <c r="A462" s="2">
         <v>45293.31944444445</v>
       </c>
+      <c r="B462">
+        <v>22.83</v>
+      </c>
+      <c r="C462">
+        <v>22.28</v>
+      </c>
+      <c r="D462">
+        <v>22.48</v>
+      </c>
+      <c r="E462">
+        <v>21.62</v>
+      </c>
       <c r="F462">
         <v>19.3945</v>
       </c>
@@ -6885,6 +12417,18 @@
       <c r="A463" s="2">
         <v>45293.32013888889</v>
       </c>
+      <c r="B463">
+        <v>22.87</v>
+      </c>
+      <c r="C463">
+        <v>22.32</v>
+      </c>
+      <c r="D463">
+        <v>22.56</v>
+      </c>
+      <c r="E463">
+        <v>21.73</v>
+      </c>
       <c r="F463">
         <v>19.3999</v>
       </c>
@@ -6899,6 +12443,18 @@
       <c r="A464" s="2">
         <v>45293.32083333333</v>
       </c>
+      <c r="B464">
+        <v>22.91</v>
+      </c>
+      <c r="C464">
+        <v>22.36</v>
+      </c>
+      <c r="D464">
+        <v>22.57</v>
+      </c>
+      <c r="E464">
+        <v>21.75</v>
+      </c>
       <c r="F464">
         <v>19.4187</v>
       </c>
@@ -6913,6 +12469,18 @@
       <c r="A465" s="2">
         <v>45293.32152777778</v>
       </c>
+      <c r="B465">
+        <v>22.95</v>
+      </c>
+      <c r="C465">
+        <v>22.4</v>
+      </c>
+      <c r="D465">
+        <v>22.66</v>
+      </c>
+      <c r="E465">
+        <v>21.87</v>
+      </c>
       <c r="F465">
         <v>19.4776</v>
       </c>
@@ -6927,6 +12495,18 @@
       <c r="A466" s="2">
         <v>45293.32222222222</v>
       </c>
+      <c r="B466">
+        <v>23.01</v>
+      </c>
+      <c r="C466">
+        <v>22.44</v>
+      </c>
+      <c r="D466">
+        <v>22.74</v>
+      </c>
+      <c r="E466">
+        <v>21.87</v>
+      </c>
       <c r="F466">
         <v>19.5232</v>
       </c>
@@ -6941,6 +12521,18 @@
       <c r="A467" s="2">
         <v>45293.32291666666</v>
       </c>
+      <c r="B467">
+        <v>23.1</v>
+      </c>
+      <c r="C467">
+        <v>22.48</v>
+      </c>
+      <c r="D467">
+        <v>22.77</v>
+      </c>
+      <c r="E467">
+        <v>21.93</v>
+      </c>
       <c r="F467">
         <v>19.5447</v>
       </c>
@@ -6955,6 +12547,18 @@
       <c r="A468" s="2">
         <v>45293.32361111111</v>
       </c>
+      <c r="B468">
+        <v>23.13</v>
+      </c>
+      <c r="C468">
+        <v>22.5</v>
+      </c>
+      <c r="D468">
+        <v>22.84</v>
+      </c>
+      <c r="E468">
+        <v>22.05</v>
+      </c>
       <c r="F468">
         <v>19.5768</v>
       </c>
@@ -6969,6 +12573,18 @@
       <c r="A469" s="2">
         <v>45293.32430555556</v>
       </c>
+      <c r="B469">
+        <v>23.18</v>
+      </c>
+      <c r="C469">
+        <v>22.55</v>
+      </c>
+      <c r="D469">
+        <v>22.93</v>
+      </c>
+      <c r="E469">
+        <v>22.15</v>
+      </c>
       <c r="F469">
         <v>19.6305</v>
       </c>
@@ -6983,6 +12599,18 @@
       <c r="A470" s="2">
         <v>45293.325</v>
       </c>
+      <c r="B470">
+        <v>23.22</v>
+      </c>
+      <c r="C470">
+        <v>22.6</v>
+      </c>
+      <c r="D470">
+        <v>23</v>
+      </c>
+      <c r="E470">
+        <v>22.27</v>
+      </c>
       <c r="F470">
         <v>19.7189</v>
       </c>
@@ -6997,6 +12625,18 @@
       <c r="A471" s="2">
         <v>45293.32569444444</v>
       </c>
+      <c r="B471">
+        <v>23.27</v>
+      </c>
+      <c r="C471">
+        <v>22.6</v>
+      </c>
+      <c r="D471">
+        <v>23.1</v>
+      </c>
+      <c r="E471">
+        <v>22.21</v>
+      </c>
       <c r="F471">
         <v>19.7565</v>
       </c>
@@ -7011,6 +12651,18 @@
       <c r="A472" s="2">
         <v>45293.32638888889</v>
       </c>
+      <c r="B472">
+        <v>23.37</v>
+      </c>
+      <c r="C472">
+        <v>22.69</v>
+      </c>
+      <c r="D472">
+        <v>23.14</v>
+      </c>
+      <c r="E472">
+        <v>22.34</v>
+      </c>
       <c r="F472">
         <v>19.6894</v>
       </c>
@@ -7025,6 +12677,18 @@
       <c r="A473" s="2">
         <v>45293.32708333333</v>
       </c>
+      <c r="B473">
+        <v>23.43</v>
+      </c>
+      <c r="C473">
+        <v>22.75</v>
+      </c>
+      <c r="D473">
+        <v>23.23</v>
+      </c>
+      <c r="E473">
+        <v>22.34</v>
+      </c>
       <c r="F473">
         <v>19.676</v>
       </c>
@@ -7039,6 +12703,18 @@
       <c r="A474" s="2">
         <v>45293.32777777778</v>
       </c>
+      <c r="B474">
+        <v>23.47</v>
+      </c>
+      <c r="C474">
+        <v>22.76</v>
+      </c>
+      <c r="D474">
+        <v>23.34</v>
+      </c>
+      <c r="E474">
+        <v>22.37</v>
+      </c>
       <c r="F474">
         <v>19.6787</v>
       </c>
@@ -7053,6 +12729,18 @@
       <c r="A475" s="2">
         <v>45293.32847222222</v>
       </c>
+      <c r="B475">
+        <v>23.55</v>
+      </c>
+      <c r="C475">
+        <v>22.82</v>
+      </c>
+      <c r="D475">
+        <v>23.39</v>
+      </c>
+      <c r="E475">
+        <v>22.46</v>
+      </c>
       <c r="F475">
         <v>19.7055</v>
       </c>
@@ -7067,6 +12755,18 @@
       <c r="A476" s="2">
         <v>45293.32916666667</v>
       </c>
+      <c r="B476">
+        <v>23.61</v>
+      </c>
+      <c r="C476">
+        <v>22.84</v>
+      </c>
+      <c r="D476">
+        <v>23.47</v>
+      </c>
+      <c r="E476">
+        <v>22.58</v>
+      </c>
       <c r="F476">
         <v>19.7592</v>
       </c>
@@ -7081,6 +12781,18 @@
       <c r="A477" s="2">
         <v>45293.32986111111</v>
       </c>
+      <c r="B477">
+        <v>23.66</v>
+      </c>
+      <c r="C477">
+        <v>22.84</v>
+      </c>
+      <c r="D477">
+        <v>23.52</v>
+      </c>
+      <c r="E477">
+        <v>22.58</v>
+      </c>
       <c r="F477">
         <v>19.7886</v>
       </c>
@@ -7095,6 +12807,18 @@
       <c r="A478" s="2">
         <v>45293.33055555556</v>
       </c>
+      <c r="B478">
+        <v>23.72</v>
+      </c>
+      <c r="C478">
+        <v>22.92</v>
+      </c>
+      <c r="D478">
+        <v>23.64</v>
+      </c>
+      <c r="E478">
+        <v>22.57</v>
+      </c>
       <c r="F478">
         <v>19.7592</v>
       </c>
@@ -7109,6 +12833,18 @@
       <c r="A479" s="2">
         <v>45293.33125</v>
       </c>
+      <c r="B479">
+        <v>23.8</v>
+      </c>
+      <c r="C479">
+        <v>22.92</v>
+      </c>
+      <c r="D479">
+        <v>23.61</v>
+      </c>
+      <c r="E479">
+        <v>22.59</v>
+      </c>
       <c r="F479">
         <v>19.7538</v>
       </c>
@@ -7123,6 +12859,18 @@
       <c r="A480" s="2">
         <v>45293.33194444444</v>
       </c>
+      <c r="B480">
+        <v>23.81</v>
+      </c>
+      <c r="C480">
+        <v>22.95</v>
+      </c>
+      <c r="D480">
+        <v>23.66</v>
+      </c>
+      <c r="E480">
+        <v>22.56</v>
+      </c>
       <c r="F480">
         <v>19.7484</v>
       </c>
@@ -7137,6 +12885,18 @@
       <c r="A481" s="2">
         <v>45293.33263888889</v>
       </c>
+      <c r="B481">
+        <v>23.92</v>
+      </c>
+      <c r="C481">
+        <v>23.04</v>
+      </c>
+      <c r="D481">
+        <v>23.69</v>
+      </c>
+      <c r="E481">
+        <v>22.59</v>
+      </c>
       <c r="F481">
         <v>19.7323</v>
       </c>
@@ -7151,6 +12911,18 @@
       <c r="A482" s="2">
         <v>45293.33333333334</v>
       </c>
+      <c r="B482">
+        <v>24.01</v>
+      </c>
+      <c r="C482">
+        <v>23.05</v>
+      </c>
+      <c r="D482">
+        <v>23.8</v>
+      </c>
+      <c r="E482">
+        <v>22.63</v>
+      </c>
       <c r="F482">
         <v>19.676</v>
       </c>
@@ -7164,6 +12936,18 @@
     <row r="483" spans="1:8">
       <c r="A483" s="2">
         <v>45293.33402777778</v>
+      </c>
+      <c r="B483">
+        <v>24.01</v>
+      </c>
+      <c r="C483">
+        <v>23.26</v>
+      </c>
+      <c r="D483">
+        <v>23.87</v>
+      </c>
+      <c r="E483">
+        <v>22.7</v>
       </c>
       <c r="F483">
         <v>19.6573</v>
